--- a/3_output/enrichKEGG_sig.xlsx
+++ b/3_output/enrichKEGG_sig.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -362,2156 +362,2187 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>logPval</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>logPval</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>24</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Circadian entrainment</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.2448979591836735</v>
       </c>
       <c r="C2">
-        <v>1.206539887919481e-08</v>
+        <v>1.143861797274063e-08</v>
       </c>
       <c r="D2">
-        <v>7.91845831584639</v>
+        <v>7.941626444342817</v>
       </c>
       <c r="E2">
-        <v>1.206539887919481e-08</v>
+        <v>1.143861797274063e-08</v>
       </c>
       <c r="F2">
-        <v>2.643050429873784e-06</v>
+        <v>2.459173416340322e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>16519/14802/12288/20190/14677/234889/14812/104111/14710/18795/54195/60596/104110/11513/66066/14702/11517/73086/18796/20192/58226/14697/14708/14696</t>
-        </is>
+          <t>Kcnj3/Gria4/Cacna1c/Ryr1/Gnai1/Gucy1a2/Grin2b/Adcy3/Gngt2/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Gng11/Gng2/Adcyap1r1/Rps6ka5/Plcb2/Ryr3/Cacna1h/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>34</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cell adhesion molecules</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1868131868131868</v>
       </c>
       <c r="C3">
-        <v>2.146066588359055e-08</v>
+        <v>2.005334545513568e-08</v>
       </c>
       <c r="D3">
-        <v>7.668356806830347</v>
+        <v>7.69781316461462</v>
       </c>
       <c r="E3">
-        <v>2.146066588359055e-08</v>
+        <v>2.005334545513568e-08</v>
       </c>
       <c r="F3">
-        <v>2.643050429873784e-06</v>
+        <v>2.459173416340322e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cell adhesion molecules</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>16401/241568/19266/192167/12558/16421/272381/15894/83964/54420/386750/19274/12562/225825/16408/69524/14961/245537/269116/15002/20339/18613/14969/18007/12741/14960/80883/241226/20737/12737/12504/13003/216856/67374</t>
-        </is>
+          <t>Itga4/Lrrc4c/Ptprd/Nlgn1/Cdh2/Itgb7/Lrrc4b/Icam1/Jam3/Cldn8/Slitrk3/Ptprm/Cdh5/Cd226/Itgal/Esam/H2-Ab1/Nlgn3/Nfasc/H2-Ob/Sele/Pecam1/H2-Eb1/Neo1/Cldn5/H2-Aa/Ntng1/Itga8/Spn/Cldn1/Cd4/Vcan/Nlgn2/Jam2</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>24</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Glutamatergic synapse</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.2123893805309734</v>
       </c>
       <c r="C4">
-        <v>2.241383805332907e-07</v>
+        <v>2.13062685250901e-07</v>
       </c>
       <c r="D4">
-        <v>6.649483770298404</v>
+        <v>6.671492603822298</v>
       </c>
       <c r="E4">
-        <v>2.241383805332907e-07</v>
+        <v>2.13062685250901e-07</v>
       </c>
       <c r="F4">
-        <v>1.840294071747019e-05</v>
+        <v>1.741880900472279e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20512/16519/14802/12288/14805/14677/14812/104111/210274/14710/18795/104110/11513/66066/14806/14702/18796/105727/13385/14697/14708/14696/12286/18806</t>
-        </is>
+          <t>Slc1a3/Kcnj3/Gria4/Cacna1c/Grik1/Gnai1/Grin2b/Adcy3/Shank2/Gngt2/Plcb1/Adcy4/Adcy7/Gng11/Grik2/Gng2/Plcb2/Slc38a1/Dlg4/Gnb5/Gng7/Gnb4/Cacna1a/Pld2</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>26</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apelin signaling pathway</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.1897810218978102</v>
       </c>
       <c r="C5">
-        <v>7.285058181915858e-07</v>
+        <v>6.913959585573683e-07</v>
       </c>
       <c r="D5">
-        <v>6.137566975399262</v>
+        <v>6.160273163383955</v>
       </c>
       <c r="E5">
-        <v>7.285058181915858e-07</v>
+        <v>6.913959585573683e-07</v>
       </c>
       <c r="F5">
-        <v>4.486062143600818e-05</v>
+        <v>4.239348903785969e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Apelin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20190/20541/18127/14677/17260/104111/14710/104709/18795/110893/104110/11513/66066/23796/11607/14702/17897/18796/20192/23797/14219/14697/14708/30878/14696/16890</t>
-        </is>
+          <t>Ryr1/Slc8a1/Nos3/Gnai1/Mef2c/Adcy3/Gngt2/Pik3r6/Plcb1/Slc8a3/Adcy4/Adcy7/Gng11/Aplnr/Agtr1a/Gng2/Myl3/Plcb2/Ryr3/Akt3/Ccn2/Gnb5/Gng7/Apln/Gnb4/Lipe</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>20</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dilated cardiomyopathy</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.2127659574468085</v>
       </c>
       <c r="C6">
-        <v>2.222248609612136e-06</v>
+        <v>2.130159608559087e-06</v>
       </c>
       <c r="D6">
-        <v>5.653207356851937</v>
+        <v>5.671587854533321</v>
       </c>
       <c r="E6">
-        <v>2.222248609612136e-06</v>
+        <v>2.130159608559087e-06</v>
       </c>
       <c r="F6">
-        <v>0.0001094749841366821</v>
+        <v>0.0001044899344830037</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dilated cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12288/24052/16401/16000/20541/16421/12293/104111/109700/110893/104110/11513/16773/16404/17897/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Cacna1c/Sgcd/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Adcy3/Itga1/Slc8a3/Adcy4/Adcy7/Lama2/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>15</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hedgehog signaling pathway</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.2586206896551724</v>
       </c>
       <c r="C7">
-        <v>3.243374429816837e-06</v>
+        <v>3.134843250251418e-06</v>
       </c>
       <c r="D7">
-        <v>5.489002911513098</v>
+        <v>5.503784170065416</v>
       </c>
       <c r="E7">
-        <v>3.243374429816837e-06</v>
+        <v>3.134843250251418e-06</v>
       </c>
       <c r="F7">
-        <v>0.0001190431182757044</v>
+        <v>0.0001117281222630214</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>14632/16147/15245/68525/19207/59056/16576/12444/14634/14725/240888/109689/216869/19206/74239</t>
-        </is>
+          <t>Gli1/Ihh/Hhip/Evc2/Ptch2/Evc/Kif7/Ccnd2/Gli3/Lrp2/Gpr161/Arrb1/Arrb2/Ptch1/Iqce</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>33</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rap1 signaling pathway</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.1542056074766355</v>
       </c>
       <c r="C8">
-        <v>3.383062976638608e-06</v>
+        <v>3.188806922957479e-06</v>
       </c>
       <c r="D8">
-        <v>5.470689917626721</v>
+        <v>5.496371775781393</v>
       </c>
       <c r="E8">
-        <v>3.383062976638608e-06</v>
+        <v>3.188806922957479e-06</v>
       </c>
       <c r="F8">
-        <v>0.0001190431182757044</v>
+        <v>0.0001117281222630214</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>15234/11600/16542/16000/14026/240168/14677/18645/78134/14812/18760/104111/21687/18795/19395/16590/104110/11513/16408/22341/50791/93737/17311/106952/70549/18796/23797/54519/16797/18596/16822/14062/20469</t>
-        </is>
+          <t>Hgf/Angpt1/Kdr/Igf1/Evl/Rasgrp3/Gnai1/Pfn2/Lpar4/Grin2b/Prkd1/Adcy3/Tek/Plcb1/Rasgrp2/Kit/Adcy4/Adcy7/Itgal/Vegfc/Magi2/Pard6g/Kitl/Arap3/Tln2/Plcb2/Akt3/Apbb1ip/Lat/Pdgfrb/Lcp2/F2r/Sipa1</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>19</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Morphine addiction</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.2087912087912088</v>
       </c>
       <c r="C9">
-        <v>5.34182239421718e-06</v>
+        <v>5.132719309246828e-06</v>
       </c>
       <c r="D9">
-        <v>5.272310555568425</v>
+        <v>5.289652485160312</v>
       </c>
       <c r="E9">
-        <v>5.34182239421718e-06</v>
+        <v>5.132719309246828e-06</v>
       </c>
       <c r="F9">
-        <v>0.0001644719000324764</v>
+        <v>0.0001573583682966462</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Morphine addiction</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>16519/14677/18574/104111/14710/104110/11513/14397/66066/18573/14702/109689/216869/14697/14708/14696/54393/18584/12286</t>
-        </is>
+          <t>Kcnj3/Gnai1/Pde1b/Adcy3/Gngt2/Adcy4/Adcy7/Gabra4/Gng11/Pde1a/Gng2/Arrb1/Arrb2/Gnb5/Gng7/Gnb4/Gabbr1/Pde8a/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>28</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cGMP-PKG signaling pathway</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.161849710982659</v>
       </c>
       <c r="C10">
-        <v>7.334218184123087e-06</v>
+        <v>6.96430859356729e-06</v>
       </c>
       <c r="D10">
-        <v>5.134646174447513</v>
+        <v>5.157121993224708</v>
       </c>
       <c r="E10">
-        <v>7.334218184123087e-06</v>
+        <v>6.96430859356729e-06</v>
       </c>
       <c r="F10">
-        <v>0.000186281909389768</v>
+        <v>0.0001788282811880309</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cGMP-PKG signaling pathway</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>12288/11549/20541/18127/14677/13618/17260/234889/104111/104709/18795/110893/22068/54195/60596/104110/11513/11607/16531/13617/12062/73181/18796/242202/23797/381290/98660/16367</t>
-        </is>
+          <t>Cacna1c/Adra1a/Slc8a1/Nos3/Gnai1/Ednrb/Mef2c/Gucy1a2/Adcy3/Pik3r6/Plcb1/Slc8a3/Trpc6/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Bdkrb2/Nfatc4/Plcb2/Pde5a/Akt3/Atp2b4/Atp1a2/Irs1</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>17</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arrhythmogenic right ventricular
+cardiomyopathy</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.2207792207792208</v>
       </c>
       <c r="C11">
-        <v>7.562727090610239e-06</v>
+        <v>7.291281851014135e-06</v>
       </c>
       <c r="D11">
-        <v>5.121321571318889</v>
+        <v>5.137196113398963</v>
       </c>
       <c r="E11">
-        <v>7.562727090610239e-06</v>
+        <v>7.291281851014135e-06</v>
       </c>
       <c r="F11">
-        <v>0.000186281909389768</v>
+        <v>0.0001788282811880309</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>12288/16842/24052/16401/20541/12558/16421/12293/109700/110893/16773/16404/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Cacna1c/Lef1/Sgcd/Itga4/Slc8a1/Cdh2/Itgb7/Cacna2d1/Itga1/Slc8a3/Lama2/Itga7/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>18</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ECM-receptor interaction</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.2045454545454546</v>
       </c>
       <c r="C12">
-        <v>1.273073488720601e-05</v>
+        <v>1.226163455217825e-05</v>
       </c>
       <c r="D12">
-        <v>4.895146525784957</v>
+        <v>4.911451631801797</v>
       </c>
       <c r="E12">
-        <v>1.273073488720601e-05</v>
+        <v>1.226163455217825e-05</v>
       </c>
       <c r="F12">
-        <v>0.0002850710013020294</v>
+        <v>0.0002733933828380414</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>16401/94216/21827/114249/12505/23928/16775/16421/14268/109700/12840/329872/16773/16404/75209/241226/192897/12830</t>
-        </is>
+          <t>Itga4/Col4a6/Thbs3/Npnt/Cd44/Lamc3/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4/Col4a5</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>34</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Calcium signaling pathway</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.1416666666666667</v>
       </c>
       <c r="C13">
-        <v>1.591502533010397e-05</v>
+        <v>1.502672134177189e-05</v>
       </c>
       <c r="D13">
-        <v>4.798192665826162</v>
+        <v>4.823135767151275</v>
       </c>
       <c r="E13">
-        <v>1.591502533010397e-05</v>
+        <v>1.502672134177189e-05</v>
       </c>
       <c r="F13">
-        <v>0.0003266768357231868</v>
+        <v>0.0003071250940906009</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>15234/12288/16542/20190/11549/20541/18127/231602/13618/18574/104111/12290/19220/18795/110893/104110/11513/22341/12494/11607/18573/13617/12062/15558/18796/65973/20192/58226/19218/381290/18596/12286/14062/52163</t>
-        </is>
+          <t>Hgf/Cacna1c/Kdr/Ryr1/Adra1a/Slc8a1/Nos3/P2rx2/Ednrb/Pde1b/Adcy3/Cacna1e/Ptgfr/Plcb1/Slc8a3/Adcy4/Adcy7/Vegfc/Cd38/Agtr1a/Pde1a/Ednra/Bdkrb2/Htr2a/Plcb2/Asph/Ryr3/Cacna1h/Ptger3/Atp2b4/Pdgfrb/Cacna1a/F2r/Camk1</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>16</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Renin secretion</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.2105263157894737</v>
       </c>
       <c r="C14">
-        <v>2.634298642330494e-05</v>
+        <v>2.546696644216554e-05</v>
       </c>
       <c r="D14">
-        <v>4.579334991954286</v>
+        <v>4.594022783968106</v>
       </c>
       <c r="E14">
-        <v>2.634298642330494e-05</v>
+        <v>2.546696644216554e-05</v>
       </c>
       <c r="F14">
-        <v>0.0004991302690731461</v>
+        <v>0.0004804698932003702</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Renin secretion</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>12288/14677/234889/18574/13616/18795/54195/60596/11607/18573/16531/13617/11517/18796/229933/19217</t>
-        </is>
+          <t>Cacna1c/Gnai1/Gucy1a2/Pde1b/Edn3/Plcb1/Gucy1b1/Gucy1a1/Agtr1a/Pde1a/Kcnma1/Ednra/Adcyap1r1/Plcb2/Clca2/Ptger2</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>22</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Relaxin signaling pathway</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.1705426356589147</v>
       </c>
       <c r="C15">
-        <v>3.041453788285162e-05</v>
+        <v>2.916343395600523e-05</v>
       </c>
       <c r="D15">
-        <v>4.516918777802149</v>
+        <v>4.535161339738885</v>
       </c>
       <c r="E15">
-        <v>3.041453788285162e-05</v>
+        <v>2.916343395600523e-05</v>
       </c>
       <c r="F15">
-        <v>0.0005351129221494196</v>
+        <v>0.0005109082790788885</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Relaxin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>94216/18127/14677/13618/17390/20418/104111/14710/18795/104110/11513/66066/22341/14702/109689/18796/216869/23797/14697/14708/14696/12830</t>
-        </is>
+          <t>Col4a6/Nos3/Gnai1/Ednrb/Mmp2/Shc3/Adcy3/Gngt2/Plcb1/Adcy4/Adcy7/Gng11/Vegfc/Gng2/Arrb1/Plcb2/Arrb2/Akt3/Gnb5/Gng7/Gnb4/Col4a5</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>20</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cholinergic synapse</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.1785714285714286</v>
       </c>
       <c r="C16">
-        <v>3.511612479390648e-05</v>
+        <v>3.376729634809469e-05</v>
       </c>
       <c r="D16">
-        <v>4.454493416270522</v>
+        <v>4.471503710703318</v>
       </c>
       <c r="E16">
-        <v>3.511612479390648e-05</v>
+        <v>3.376729634809469e-05</v>
       </c>
       <c r="F16">
-        <v>0.0005766437334578327</v>
+        <v>0.0005521249157267413</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cholinergic synapse</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>16519/12288/14677/226922/104111/14710/104709/18795/104110/11513/66066/14702/18796/14360/23797/14697/14708/14696/60613/12286</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Gnai1/Kcnq5/Adcy3/Gngt2/Pik3r6/Plcb1/Adcy4/Adcy7/Gng11/Gng2/Plcb2/Fyn/Akt3/Gnb5/Gng7/Gnb4/Kcnq4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>29</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Focal adhesion</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.1442786069651741</v>
       </c>
       <c r="C17">
-        <v>4.748851425589833e-05</v>
+        <v>4.518530349766689e-05</v>
       </c>
       <c r="D17">
-        <v>4.323411417711276</v>
+        <v>4.34500279633297</v>
       </c>
       <c r="E17">
-        <v>4.748851425589833e-05</v>
+        <v>4.518530349766689e-05</v>
       </c>
       <c r="F17">
-        <v>0.0006931167561993315</v>
+        <v>0.0006581947220678126</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>15234/16401/16542/16000/94216/21827/23928/16775/12444/16421/14268/20418/18719/109700/12840/16773/22341/16404/64099/170736/68794/70549/14360/23797/18596/12389/241226/192897/12830</t>
-        </is>
+          <t>Hgf/Itga4/Kdr/Igf1/Col4a6/Thbs3/Lamc3/Lama4/Ccnd2/Itgb7/Fn1/Shc3/Pip5k1b/Itga1/Col9a2/Lama2/Vegfc/Itga7/Parvg/Parvb/Flnc/Tln2/Fyn/Akt3/Pdgfrb/Cav1/Itga8/Itgb4/Col4a5</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>27</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Axon guidance</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.1491712707182321</v>
       </c>
       <c r="C18">
-        <v>4.783690432743249e-05</v>
+        <v>4.562165133645997e-05</v>
       </c>
       <c r="D18">
-        <v>4.320236932636162</v>
+        <v>4.340828998907402</v>
       </c>
       <c r="E18">
-        <v>4.783690432743249e-05</v>
+        <v>4.562165133645997e-05</v>
       </c>
       <c r="F18">
-        <v>0.0006931167561993315</v>
+        <v>0.0006581947220678126</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>13842/13643/20356/241568/13176/235611/20357/18186/20361/14677/20315/22068/238057/13837/218877/93737/73181/13841/18007/19206/14360/22253/53972/20358/80883/12162/20564</t>
-        </is>
+          <t>Epha8/Efnb3/Sema5a/Lrrc4c/Dcc/Plxnb1/Sema5b/Nrp1/Sema7a/Gnai1/Cxcl12/Trpc6/Gdf7/Epha3/Sema3g/Pard6g/Nfatc4/Epha7/Neo1/Ptch1/Fyn/Unc5c/Ngef/Sema6a/Ntng1/Bmp7/Slit3</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>32</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ras signaling pathway</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.1361702127659574</v>
       </c>
       <c r="C19">
-        <v>6.218485336354134e-05</v>
+        <v>5.900678921772666e-05</v>
       </c>
       <c r="D19">
-        <v>4.206315385432923</v>
+        <v>4.229098016321197</v>
       </c>
       <c r="E19">
-        <v>6.218485336354134e-05</v>
+        <v>5.900678921772666e-05</v>
       </c>
       <c r="F19">
-        <v>0.0008075006297114998</v>
+        <v>0.0007717851921643964</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ras signaling pathway</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15234/11600/26565/16542/16000/23871/240168/20418/19414/14812/21687/14710/19395/14255/16590/66066/22341/16002/14702/17311/85031/23797/14697/14708/23872/240057/22637/14696/16797/18596/18806/320484</t>
-        </is>
+          <t>Hgf/Angpt1/Pla2g10/Kdr/Igf1/Ets1/Rasgrp3/Shc3/Rasa3/Grin2b/Tek/Gngt2/Rasgrp2/Flt3/Kit/Gng11/Vegfc/Igf2/Gng2/Kitl/Pla1a/Akt3/Gnb5/Gng7/Ets2/Syngap1/Zap70/Gnb4/Lat/Pdgfrb/Pld2/Rasal3</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>22</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dopaminergic synapse</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.162962962962963</v>
       </c>
       <c r="C20">
-        <v>6.228797592432723e-05</v>
+        <v>5.978850952174829e-05</v>
       </c>
       <c r="D20">
-        <v>4.205595781490251</v>
+        <v>4.223382273048297</v>
       </c>
       <c r="E20">
-        <v>6.228797592432723e-05</v>
+        <v>5.978850952174829e-05</v>
       </c>
       <c r="F20">
-        <v>0.0008075006297114998</v>
+        <v>0.0007717851921643964</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>16519/14802/12288/109731/13491/14677/20265/14812/17161/14710/18795/66066/14702/109689/18796/216869/23797/14697/14708/14696/12286/16572</t>
-        </is>
+          <t>Kcnj3/Gria4/Cacna1c/Maob/Drd4/Gnai1/Scn1a/Grin2b/Maoa/Gngt2/Plcb1/Gng11/Gng2/Arrb1/Plcb2/Arrb2/Akt3/Gnb5/Gng7/Gnb4/Cacna1a/Kif5a</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Protein digestion and absorption</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.1759259259259259</v>
       </c>
       <c r="C21">
-        <v>6.77611284521564e-05</v>
+        <v>6.530209757513213e-05</v>
       </c>
       <c r="D21">
-        <v>4.16901937014394</v>
+        <v>4.185072868484887</v>
       </c>
       <c r="E21">
-        <v>6.77611284521564e-05</v>
+        <v>6.530209757513213e-05</v>
       </c>
       <c r="F21">
-        <v>0.0008345317925160315</v>
+        <v>0.0008008099334213572</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>12814/140709/12818/94216/20541/58803/107581/234967/110893/12840/12817/17380/12832/12819/98660/20540/237759/12822/12830</t>
-        </is>
+          <t>Col11a1/Col26a1/Col14a1/Col4a6/Slc8a1/Pga5/Col16a1/Slc36a4/Slc8a3/Col9a2/Col13a1/Mme/Col5a2/Col15a1/Atp1a2/Slc7a7/Col23a1/Col18a1/Col4a5</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>17</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hypertrophic cardiomyopathy</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.1868131868131868</v>
       </c>
       <c r="C22">
-        <v>7.472159689984303e-05</v>
+        <v>7.221495893870569e-05</v>
       </c>
       <c r="D22">
-        <v>4.126553855228456</v>
+        <v>4.141372831355259</v>
       </c>
       <c r="E22">
-        <v>7.472159689984303e-05</v>
+        <v>7.221495893870569e-05</v>
       </c>
       <c r="F22">
-        <v>0.0008764337681485348</v>
+        <v>0.0008434128036450339</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hypertrophic cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>12288/24052/16401/16000/20541/16421/12293/109700/110893/16773/16404/17897/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Cacna1c/Sgcd/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Itga1/Slc8a3/Lama2/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>43</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PI3K-Akt signaling pathway</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.1197771587743733</v>
       </c>
       <c r="C23">
-        <v>8.310795444026645e-05</v>
+        <v>7.806067179703362e-05</v>
       </c>
       <c r="D23">
-        <v>4.080357406971762</v>
+        <v>4.107567715462031</v>
       </c>
       <c r="E23">
-        <v>8.310795444026645e-05</v>
+        <v>7.806067179703362e-05</v>
       </c>
       <c r="F23">
-        <v>0.000930490973158964</v>
+        <v>0.0008702457669238677</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PI3K-Akt signaling pathway</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>15234/11600/16401/16542/16000/94216/21827/18127/23928/16775/12444/16421/14268/11839/78134/21687/14710/104709/109700/12840/14255/16590/66066/16773/22341/50791/16002/14702/16404/17311/23797/14697/14708/14696/18596/16186/241226/192897/14062/16197/17869/12830/16367</t>
-        </is>
+          <t>Hgf/Angpt1/Itga4/Kdr/Igf1/Col4a6/Thbs3/Nos3/Lamc3/Lama4/Ccnd2/Itgb7/Fn1/Areg/Lpar4/Tek/Gngt2/Pik3r6/Itga1/Col9a2/Flt3/Kit/Gng11/Lama2/Vegfc/Magi2/Igf2/Gng2/Itga7/Kitl/Akt3/Gnb5/Gng7/Gnb4/Pdgfrb/Il2rg/Itga8/Itgb4/F2r/Il7r/Myc/Col4a5/Irs1</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>16</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Salivary secretion</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.1882352941176471</v>
       </c>
       <c r="C24">
-        <v>0.0001100886248709344</v>
+        <v>0.0001065931529648461</v>
       </c>
       <c r="D24">
-        <v>3.958257553062773</v>
+        <v>3.972270691417219</v>
       </c>
       <c r="E24">
-        <v>0.0001100886248709344</v>
+        <v>0.0001065931529648461</v>
       </c>
       <c r="F24">
-        <v>0.001168355666454536</v>
+        <v>0.001124918574025646</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Salivary secretion</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>11549/234889/104111/18795/54195/60596/104110/11513/12494/17105/16531/18796/20192/17110/381290/98660</t>
-        </is>
+          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>17</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hematopoietic cell lineage</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.1808510638297872</v>
       </c>
       <c r="C25">
-        <v>0.0001138397828853138</v>
+        <v>0.0001100778690462864</v>
       </c>
       <c r="D25">
-        <v>3.943705941207329</v>
+        <v>3.958299986361442</v>
       </c>
       <c r="E25">
-        <v>0.0001138397828853138</v>
+        <v>0.0001100778690462864</v>
       </c>
       <c r="F25">
-        <v>0.001168355666454536</v>
+        <v>0.001124918574025646</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hematopoietic cell lineage</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>16401/12505/16157/12502/109700/14255/12479/16590/17380/14961/12494/15002/17311/14969/14960/16197/12504</t>
-        </is>
+          <t>Itga4/Cd44/Il11ra1/Cd3g/Itga1/Flt3/Cd1d1/Kit/Mme/H2-Ab1/Cd38/H2-Ob/Kitl/H2-Eb1/H2-Aa/Il7r/Cd4</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>27</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chemokine signaling pathway</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.140625</v>
       </c>
       <c r="C26">
-        <v>0.0001339547876390772</v>
+        <v>0.0001279990868637566</v>
       </c>
       <c r="D26">
-        <v>3.873041759785707</v>
+        <v>3.892793128566556</v>
       </c>
       <c r="E26">
-        <v>0.0001339547876390772</v>
+        <v>0.0001279990868637566</v>
       </c>
       <c r="F26">
-        <v>0.001319807170843961</v>
+        <v>0.001255738410073907</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chemokine signaling pathway</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>20309/14677/20418/16428/104111/12766/20315/14710/104709/18795/94176/19395/104110/11513/66066/14702/16963/109689/18796/216869/20851/23832/14191/23797/14697/14708/14696</t>
-        </is>
+          <t>Cxcl15/Gnai1/Shc3/Itk/Adcy3/Cxcr3/Cxcl12/Gngt2/Pik3r6/Plcb1/Dock2/Rasgrp2/Adcy4/Adcy7/Gng11/Gng2/Xcl1/Arrb1/Plcb2/Arrb2/Stat5b/Xcr1/Fgr/Akt3/Gnb5/Gng7/Gnb4</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>16</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GABAergic synapse</t>
+        </is>
       </c>
       <c r="B27">
         <v>0.1797752808988764</v>
       </c>
       <c r="C27">
-        <v>0.0001932254103480084</v>
+        <v>0.0001872188034945548</v>
       </c>
       <c r="D27">
-        <v>3.713935761728662</v>
+        <v>3.72765053463734</v>
       </c>
       <c r="E27">
-        <v>0.0001932254103480084</v>
+        <v>0.0001872188034945548</v>
       </c>
       <c r="F27">
-        <v>0.001830556519086396</v>
+        <v>0.001766072113936489</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>GABAergic synapse</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>12288/268860/14677/104111/14710/104110/11513/14397/66066/14702/105727/14697/14708/14696/54393/12286</t>
-        </is>
+          <t>Cacna1c/Abat/Gnai1/Adcy3/Gngt2/Adcy4/Adcy7/Gabra4/Gng11/Gng2/Slc38a1/Gnb5/Gng7/Gnb4/Gabbr1/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>16</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>10</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Other types of O-glycan
+biosynthesis</t>
+        </is>
       </c>
       <c r="B28">
         <v>0.2325581395348837</v>
       </c>
       <c r="C28">
-        <v>0.0003682138501481812</v>
+        <v>0.0003601616643859623</v>
       </c>
       <c r="D28">
-        <v>3.433899879792349</v>
+        <v>3.443502515368964</v>
       </c>
       <c r="E28">
-        <v>0.0003682138501481812</v>
+        <v>0.0003601616643859623</v>
       </c>
       <c r="F28">
-        <v>0.003359143896088671</v>
+        <v>0.003271643968886129</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Other types of O-glycan
-biosynthesis</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>240119/232313/53418/108760/16848/101351/270049/217734/17305/233733</t>
-        </is>
+          <t>St6gal2/Gxylt2/B4galt2/Galnt16/Lfng/Eogt/Galntl6/Pomt2/Mfng/Galnt18</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>22</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oxytocin signaling pathway</t>
+        </is>
       </c>
       <c r="B29">
         <v>0.1437908496732026</v>
       </c>
       <c r="C29">
-        <v>0.0004005986158356183</v>
+        <v>0.0003857294868497902</v>
       </c>
       <c r="D29">
-        <v>3.397290555631538</v>
+        <v>3.413717160494426</v>
       </c>
       <c r="E29">
-        <v>0.0004005986158356183</v>
+        <v>0.0003857294868497902</v>
       </c>
       <c r="F29">
-        <v>0.003524063011486266</v>
+        <v>0.003378758287067711</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Oxytocin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>16519/12288/20190/18127/14677/12293/17260/234889/104111/104709/18795/54195/60596/104110/11513/12494/73181/81904/18796/20192/12298/52163</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Ryr1/Nos3/Gnai1/Cacna2d1/Mef2c/Gucy1a2/Adcy3/Pik3r6/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Nfatc4/Cacng7/Plcb2/Ryr3/Cacnb4/Camk1</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>12</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Notch signaling pathway</t>
+        </is>
       </c>
       <c r="B30">
         <v>0.2</v>
       </c>
       <c r="C30">
-        <v>0.0004394342230405984</v>
+        <v>0.0004285808975646367</v>
       </c>
       <c r="D30">
-        <v>3.357106123339696</v>
+        <v>3.36796718996043</v>
       </c>
       <c r="E30">
-        <v>0.0004394342230405984</v>
+        <v>0.0004285808975646367</v>
       </c>
       <c r="F30">
-        <v>0.003732399571379311</v>
+        <v>0.003624658770691846</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Notch signaling pathway</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>208117/16848/16450/56198/80904/21885/17305/19164/433586/21886/15214/18223</t>
-        </is>
+          <t>Aph1b/Lfng/Jag2/Heyl/Dtx3/Tle1/Mfng/Psen1/Maml3/Tle2/Hey2/Numbl</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>18</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Leukocyte transendothelial
+migration</t>
+        </is>
       </c>
       <c r="B31">
         <v>0.1525423728813559</v>
       </c>
       <c r="C31">
-        <v>0.0006492061227141806</v>
+        <v>0.0006285344347623371</v>
       </c>
       <c r="D31">
-        <v>3.187617392960957</v>
+        <v>3.201670924155263</v>
       </c>
       <c r="E31">
-        <v>0.0006492061227141806</v>
+        <v>0.0006285344347623371</v>
       </c>
       <c r="F31">
-        <v>0.00533032395491643</v>
+        <v>0.005138544677179809</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial
-migration</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>16401/14677/17390/15894/16428/83964/20315/54420/12562/21838/17698/16408/69524/18613/12741/12737/20469/67374</t>
-        </is>
+          <t>Itga4/Gnai1/Mmp2/Icam1/Itk/Jam3/Cxcl12/Cldn8/Cdh5/Thy1/Msn/Itgal/Esam/Pecam1/Cldn5/Cldn1/Sipa1/Jam2</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>21</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Phospholipase D signaling pathway</t>
+        </is>
       </c>
       <c r="B32">
         <v>0.1409395973154362</v>
       </c>
       <c r="C32">
-        <v>0.0007053989899593755</v>
+        <v>0.0006807008813081706</v>
       </c>
       <c r="D32">
-        <v>3.151565166521923</v>
+        <v>3.167043687110948</v>
       </c>
       <c r="E32">
-        <v>0.0007053989899593755</v>
+        <v>0.0006807008813081706</v>
       </c>
       <c r="F32">
-        <v>0.00560486803567042</v>
+        <v>0.005385511217141044</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phospholipase D signaling pathway</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>20418/18719/78134/104111/19220/104709/18795/67916/16590/104110/11513/217480/11607/17311/18796/14360/23797/19012/18596/18806/14062</t>
-        </is>
+          <t>Shc3/Pip5k1b/Lpar4/Adcy3/Ptgfr/Pik3r6/Plcb1/Plpp3/Kit/Adcy4/Adcy7/Dgkb/Agtr1a/Kitl/Plcb2/Fyn/Akt3/Plpp1/Pdgfrb/Pld2/F2r</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>23</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wnt signaling pathway</t>
+        </is>
       </c>
       <c r="B33">
         <v>0.1345029239766082</v>
       </c>
       <c r="C33">
-        <v>0.0007809554775875692</v>
+        <v>0.0007521465158264515</v>
       </c>
       <c r="D33">
-        <v>3.107373724623595</v>
+        <v>3.123697551938978</v>
       </c>
       <c r="E33">
-        <v>0.0007809554775875692</v>
+        <v>0.0007521465158264515</v>
       </c>
       <c r="F33">
-        <v>0.006011302031430631</v>
+        <v>0.005764807177222474</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Wnt signaling pathway</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>20319/22420/16842/494504/22411/93960/12444/18795/27412/216795/407821/243548/76441/106042/73181/18796/21885/57265/19164/72293/21886/26563/17869</t>
-        </is>
+          <t>Sfrp2/Wnt6/Lef1/Apcdd1/Wnt11/Nkd1/Ccnd2/Plcb1/Peg12/Wnt9a/Znrf3/Prickle2/Daam2/Prickle1/Nfatc4/Plcb2/Tle1/Fzd2/Psen1/Nkd2/Tle2/Ror1/Myc</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>34</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MAPK signaling pathway</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.1156462585034014</v>
       </c>
       <c r="C34">
-        <v>0.0008610131243023868</v>
+        <v>0.0008207712219073024</v>
       </c>
       <c r="D34">
-        <v>3.064990228605968</v>
+        <v>3.085777879310673</v>
       </c>
       <c r="E34">
-        <v>0.0008610131243023868</v>
+        <v>0.0008207712219073024</v>
       </c>
       <c r="F34">
-        <v>0.006426700832113509</v>
+        <v>0.006100149751336569</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MAPK signaling pathway</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>15234/12288/11600/16542/16000/240168/12293/11839/17260/21687/19099/12290/19395/20112/14255/16590/22341/16002/17311/73086/109689/81904/68794/216869/266632/58226/23797/18596/26412/12286/17347/12298/17869/320139</t>
-        </is>
+          <t>Hgf/Cacna1c/Angpt1/Kdr/Igf1/Rasgrp3/Cacna2d1/Areg/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Kitl/Rps6ka5/Arrb1/Cacng7/Flnc/Arrb2/Irak4/Cacna1h/Akt3/Pdgfrb/Map4k2/Cacna1a/Mknk2/Cacnb4/Myc/Ptpn7</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>21</v>
-      </c>
-      <c r="B35">
-        <v>0.1381578947368421</v>
-      </c>
-      <c r="C35">
-        <v>0.0009185105087641654</v>
-      </c>
-      <c r="D35">
-        <v>3.036915870526185</v>
-      </c>
-      <c r="E35">
-        <v>0.0009185105087641654</v>
-      </c>
-      <c r="F35">
-        <v>0.006654224738415316</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Adrenergic signaling in
 cardiomyocytes</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>12288/11549/20541/399548/14677/12293/104111/104709/18795/110893/104110/11513/11607/17897/73086/81904/18796/23797/381290/98660/12298</t>
-        </is>
+      <c r="B35">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="C35">
+        <v>0.001243743602985396</v>
+      </c>
+      <c r="D35">
+        <v>2.905269139971073</v>
+      </c>
+      <c r="E35">
+        <v>0.001243743602985396</v>
+      </c>
+      <c r="F35">
+        <v>0.008775119663483254</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Cacna1c/Adra1a/Slc8a1/Scn4b/Gnai1/Cacna2d1/Adcy3/Pik3r6/Plcb1/Slc8a3/Adcy4/Adcy7/Agtr1a/Myl3/Rps6ka5/Cacng7/Plcb2/Akt3/Atp2b4/Atp1a2/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>18</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Platelet activation</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.144</v>
       </c>
       <c r="C36">
-        <v>0.001291886030931291</v>
+        <v>0.001252243471291065</v>
       </c>
       <c r="D36">
-        <v>2.888775797734771</v>
+        <v>2.902311223874547</v>
       </c>
       <c r="E36">
-        <v>0.001291886030931291</v>
+        <v>0.001252243471291065</v>
       </c>
       <c r="F36">
-        <v>0.00909176936053901</v>
+        <v>0.008775119663483254</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Platelet activation</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>18127/14677/234889/104111/104709/18795/19395/54195/60596/104110/11513/70549/18796/14360/23797/54519/16822/14062</t>
-        </is>
+          <t>Nos3/Gnai1/Gucy1a2/Adcy3/Pik3r6/Plcb1/Rasgrp2/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Tln2/Plcb2/Fyn/Akt3/Apbb1ip/Lcp2/F2r</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>14</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Th1 and Th2 cell differentiation</t>
+        </is>
       </c>
       <c r="B37">
         <v>0.1590909090909091</v>
       </c>
       <c r="C37">
-        <v>0.001669127964979186</v>
+        <v>0.001626252105879901</v>
       </c>
       <c r="D37">
-        <v>2.777510366523897</v>
+        <v>2.788812128049771</v>
       </c>
       <c r="E37">
-        <v>0.001669127964979186</v>
+        <v>0.001626252105879901</v>
       </c>
       <c r="F37">
-        <v>0.01142034923406811</v>
+        <v>0.0110794368616964</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Th1 and Th2 cell differentiation</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>12502/16450/14961/15002/14969/20851/18037/14960/22637/16797/16161/16186/433586/12504</t>
-        </is>
+          <t>Cd3g/Jag2/H2-Ab1/H2-Ob/H2-Eb1/Stat5b/Nfkbie/H2-Aa/Zap70/Lat/Il12rb1/Il2rg/Maml3/Cd4</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>25</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Proteoglycans in cancer</t>
+        </is>
       </c>
       <c r="B38">
         <v>0.1219512195121951</v>
       </c>
       <c r="C38">
-        <v>0.001953978104412559</v>
+        <v>0.001882142921520761</v>
       </c>
       <c r="D38">
-        <v>2.709080307140317</v>
+        <v>2.725347401274813</v>
       </c>
       <c r="E38">
-        <v>0.001953978104412559</v>
+        <v>0.001882142921520761</v>
       </c>
       <c r="F38">
-        <v>0.01300799079466682</v>
+        <v>0.0124762247713894</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>16147/15234/22420/22411/15430/16542/16000/15163/12505/14734/14268/17390/109676/216795/17698/16002/13345/68794/19206/57265/23797/12389/17022/17869/22160</t>
-        </is>
+          <t>Ihh/Hgf/Wnt6/Wnt11/Hoxd10/Kdr/Igf1/Hcls1/Cd44/Gpc3/Fn1/Mmp2/Ank2/Wnt9a/Msn/Igf2/Twist2/Flnc/Ptch1/Fzd2/Akt3/Cav1/Lum/Myc/Twist1</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>11</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Basal cell carcinoma</t>
+        </is>
       </c>
       <c r="B39">
         <v>0.1746031746031746</v>
       </c>
       <c r="C39">
-        <v>0.002411000678708485</v>
+        <v>0.002359346116694906</v>
       </c>
       <c r="D39">
-        <v>2.617802667366508</v>
+        <v>2.627208343326184</v>
       </c>
       <c r="E39">
-        <v>0.002411000678708485</v>
+        <v>0.002359346116694906</v>
       </c>
       <c r="F39">
-        <v>0.01562809304204392</v>
+        <v>0.01522791260913887</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>14632/22420/15245/16842/22411/19207/16576/14634/216795/19206/57265</t>
-        </is>
+          <t>Gli1/Wnt6/Hhip/Lef1/Wnt11/Ptch2/Kif7/Gli3/Wnt9a/Ptch1/Fzd2</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>11</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cAMP signaling pathway</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.1160714285714286</v>
+      </c>
+      <c r="C40">
+        <v>0.003091865333793119</v>
+      </c>
+      <c r="D40">
+        <v>2.509779430039671</v>
+      </c>
+      <c r="E40">
+        <v>0.003091865333793119</v>
+      </c>
+      <c r="F40">
+        <v>0.01944411937311192</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Gli1/Gria4/Cacna1c/Hhip/Vipr2/Gnai1/Grin2b/Adcy3/Edn3/Gli3/Htr1b/Adcy4/Adcy7/Ednra/Adcyap1r1/Arap3/Ptch1/Akt3/Ptger3/Atp2b4/Atp1a2/Gabbr1/Lipe/Pld2/F2r/Ptger2</t>
+        </is>
+      </c>
+      <c r="H40">
         <v>26</v>
       </c>
-      <c r="B40">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C40">
-        <v>0.002500904408901927</v>
-      </c>
-      <c r="D40">
-        <v>2.601902907821597</v>
-      </c>
-      <c r="E40">
-        <v>0.002500904408901927</v>
-      </c>
-      <c r="F40">
-        <v>0.01579518574043322</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>cAMP signaling pathway</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>14632/14802/12288/15245/22355/14677/14812/104111/13616/14634/15551/104110/11513/13617/11517/106952/19206/23797/19218/381290/98660/54393/16890/18806/14062/19217</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>17</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Serotonergic synapse</t>
+        </is>
       </c>
       <c r="B41">
         <v>0.1297709923664122</v>
       </c>
       <c r="C41">
-        <v>0.005258435936668114</v>
+        <v>0.005116695650058385</v>
       </c>
       <c r="D41">
-        <v>2.279143412706365</v>
+        <v>2.291010414849498</v>
       </c>
       <c r="E41">
-        <v>0.005258435936668114</v>
+        <v>0.005116695650058385</v>
       </c>
       <c r="F41">
-        <v>0.03178080102804526</v>
+        <v>0.03103939827434994</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Serotonergic synapse</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>16519/12288/109731/16508/14677/17161/14710/18795/15551/66066/14702/15558/18796/14697/14708/14696/12286</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Maob/Kcnd2/Gnai1/Maoa/Gngt2/Plcb1/Htr1b/Gng11/Gng2/Htr2a/Plcb2/Gnb5/Gng7/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>10</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Long-term depression</t>
+        </is>
       </c>
       <c r="B42">
         <v>0.1666666666666667</v>
       </c>
       <c r="C42">
-        <v>0.005290009401890438</v>
+        <v>0.0051887749475791</v>
       </c>
       <c r="D42">
-        <v>2.276543556096098</v>
+        <v>2.284935165524791</v>
       </c>
       <c r="E42">
-        <v>0.005290009401890438</v>
+        <v>0.0051887749475791</v>
       </c>
       <c r="F42">
-        <v>0.03178080102804526</v>
+        <v>0.03103939827434994</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Long-term depression</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>20190/16000/14677/234889/18795/54195/60596/18796/14687/12286</t>
-        </is>
+          <t>Ryr1/Igf1/Gnai1/Gucy1a2/Plcb1/Gucy1b1/Gucy1a1/Plcb2/Gnaz/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <v>14</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Melanogenesis</t>
+        </is>
       </c>
       <c r="B43">
         <v>0.14</v>
       </c>
       <c r="C43">
-        <v>0.005556493837939193</v>
+        <v>0.005424556549960039</v>
       </c>
       <c r="D43">
-        <v>2.255199162941438</v>
+        <v>2.265635759005154</v>
       </c>
       <c r="E43">
-        <v>0.005556493837939193</v>
+        <v>0.005424556549960039</v>
       </c>
       <c r="F43">
-        <v>0.03258695634280129</v>
+        <v>0.03167723499099471</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>22420/16842/22411/14677/13618/104111/18795/216795/16590/104110/11513/17311/18796/57265</t>
-        </is>
+          <t>Wnt6/Lef1/Wnt11/Gnai1/Ednrb/Adcy3/Plcb1/Wnt9a/Kit/Adcy4/Adcy7/Kitl/Plcb2/Fzd2</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <v>14</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AGE-RAGE signaling pathway in
+diabetic complications</t>
+        </is>
       </c>
       <c r="B44">
         <v>0.1386138613861386</v>
       </c>
       <c r="C44">
-        <v>0.006073823704208762</v>
+        <v>0.005930578017092864</v>
       </c>
       <c r="D44">
-        <v>2.216537817850823</v>
+        <v>2.226902976551366</v>
       </c>
       <c r="E44">
-        <v>0.006073823704208762</v>
+        <v>0.005930578017092864</v>
       </c>
       <c r="F44">
-        <v>0.03395682622495478</v>
+        <v>0.03321607968158658</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in
-diabetic complications</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>94216/18127/14268/17390/15894/18795/22341/11607/50490/20339/18796/20851/23797/12830</t>
-        </is>
+          <t>Col4a6/Nos3/Fn1/Mmp2/Icam1/Plcb1/Vegfc/Agtr1a/Nox4/Sele/Plcb2/Stat5b/Akt3/Col4a5</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>8</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ABC transporters</t>
+        </is>
       </c>
       <c r="B45">
-        <v>0.186046511627907</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="C45">
-        <v>0.006195247608361808</v>
+        <v>0.006094223133925418</v>
       </c>
       <c r="D45">
-        <v>2.207941331290141</v>
+        <v>2.215081648561252</v>
       </c>
       <c r="E45">
-        <v>0.006195247608361808</v>
+        <v>0.006094223133925418</v>
       </c>
       <c r="F45">
-        <v>0.03395682622495478</v>
+        <v>0.03321607968158658</v>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>Abcg2/Abca5/Abcg1/Abca8b/Abcd2/Abcb1a/Abcc5/Abcg3/Abcg4</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Intestinal immune network for IgA
 production</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>16401/16421/20315/24099/14961/15002/14969/14960</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>9</v>
-      </c>
       <c r="B46">
-        <v>0.1730769230769231</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C46">
-        <v>0.006203650944943662</v>
+        <v>0.006094366551020714</v>
       </c>
       <c r="D46">
-        <v>2.207352646214579</v>
+        <v>2.215071428305306</v>
       </c>
       <c r="E46">
-        <v>0.006203650944943662</v>
+        <v>0.006094366551020714</v>
       </c>
       <c r="F46">
-        <v>0.03395682622495478</v>
+        <v>0.03321607968158658</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ABC transporters</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>26357/217265/11307/27404/26874/18671/27416/27405/192663</t>
-        </is>
+          <t>Itga4/Itgb7/Cxcl12/Tnfsf13b/H2-Ab1/H2-Ob/H2-Eb1/H2-Aa</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>14</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Aldosterone synthesis and secretion</t>
+        </is>
       </c>
       <c r="B47">
         <v>0.1372549019607843</v>
       </c>
       <c r="C47">
-        <v>0.006629055628393012</v>
+        <v>0.00647377847361695</v>
       </c>
       <c r="D47">
-        <v>2.178548336540962</v>
+        <v>2.188842165812624</v>
       </c>
       <c r="E47">
-        <v>0.006629055628393012</v>
+        <v>0.00647377847361695</v>
       </c>
       <c r="F47">
-        <v>0.03549654501244771</v>
+        <v>0.03451694243370136</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Aldosterone synthesis and secretion</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>16527/12288/18760/104111/18795/104110/11513/11607/18796/58226/381290/98660/16890/52163</t>
-        </is>
+          <t>Kcnk3/Cacna1c/Prkd1/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Atp2b4/Atp1a2/Lipe/Camk1</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>13</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Taste transduction</t>
+        </is>
       </c>
       <c r="B48">
         <v>0.1413043478260869</v>
       </c>
       <c r="C48">
-        <v>0.006844912542119911</v>
+        <v>0.006692356783282755</v>
       </c>
       <c r="D48">
-        <v>2.16463209650258</v>
+        <v>2.174420913961804</v>
       </c>
       <c r="E48">
-        <v>0.006844912542119911</v>
+        <v>0.006692356783282755</v>
       </c>
       <c r="F48">
-        <v>0.03587255397214019</v>
+        <v>0.03492316081757854</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Taste transduction</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>12288/231602/18574/18795/15551/110876/104110/14397/18573/18796/20269/54393/12286</t>
-        </is>
+          <t>Cacna1c/P2rx2/Pde1b/Plcb1/Htr1b/Scn2a/Adcy4/Gabra4/Pde1a/Plcb2/Scn3a/Gabbr1/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>13</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>12</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gap junction</t>
+        </is>
       </c>
       <c r="B49">
         <v>0.1395348837209302</v>
       </c>
       <c r="C49">
-        <v>0.01012808219629687</v>
+        <v>0.009920370279861679</v>
       </c>
       <c r="D49">
-        <v>1.994472782716401</v>
+        <v>2.003472117412403</v>
       </c>
       <c r="E49">
-        <v>0.01012808219629687</v>
+        <v>0.009920370279861679</v>
       </c>
       <c r="F49">
-        <v>0.05197305337573397</v>
+        <v>0.05068961129841603</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gap junction</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>14677/234889/104111/18795/54195/60596/104110/11513/22153/15558/18796/18596</t>
-        </is>
+          <t>Gnai1/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Tubb4a/Htr2a/Plcb2/Pdgfrb</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>4</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan biosynthesis -
+keratan sulfate</t>
+        </is>
       </c>
       <c r="B50">
         <v>0.2857142857142857</v>
       </c>
       <c r="C50">
-        <v>0.01086865913052361</v>
+        <v>0.0107648913778264</v>
       </c>
       <c r="D50">
-        <v>1.963824031639033</v>
+        <v>1.96799034802801</v>
       </c>
       <c r="E50">
-        <v>0.01086865913052361</v>
+        <v>0.0107648913778264</v>
       </c>
       <c r="F50">
-        <v>0.05454041649717006</v>
+        <v>0.05320214813693423</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis -
-keratan sulfate</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>54371/53418/20444/76969</t>
-        </is>
+          <t>Chst2/B4galt2/St3gal2/Chst1</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>12</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rheumatoid arthritis</t>
+        </is>
       </c>
       <c r="B51">
         <v>0.1379310344827586</v>
       </c>
       <c r="C51">
-        <v>0.01107123839151956</v>
+        <v>0.01084593148714324</v>
       </c>
       <c r="D51">
-        <v>1.955803797682928</v>
+        <v>1.964733143294406</v>
       </c>
       <c r="E51">
-        <v>0.01107123839151956</v>
+        <v>0.01084593148714324</v>
       </c>
       <c r="F51">
-        <v>0.05454041649717006</v>
+        <v>0.05320214813693423</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>11600/15894/21687/20315/24099/16408/14961/15002/76252/14969/14960/11966</t>
-        </is>
+          <t>Angpt1/Icam1/Tek/Cxcl12/Tnfsf13b/Itgal/H2-Ab1/H2-Ob/Atp6v0e2/H2-Eb1/H2-Aa/Atp6v1b2</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>12</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>17</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Vascular smooth muscle contraction</t>
+        </is>
       </c>
       <c r="B52">
         <v>0.1180555555555556</v>
       </c>
       <c r="C52">
-        <v>0.01321366708847095</v>
+        <v>0.01288511778453223</v>
       </c>
       <c r="D52">
-        <v>1.878976639215407</v>
+        <v>1.889911607152766</v>
       </c>
       <c r="E52">
-        <v>0.01321366708847095</v>
+        <v>0.01288511778453223</v>
       </c>
       <c r="F52">
-        <v>0.06381833021057176</v>
+        <v>0.06196558191529431</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Vascular smooth muscle contraction</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>12288/26565/11549/234889/104111/13616/18795/12310/54195/60596/104110/11513/11607/16531/13617/18796/54598</t>
-        </is>
+          <t>Cacna1c/Pla2g10/Adra1a/Gucy1a2/Adcy3/Edn3/Plcb1/Calca/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Plcb2/Calcrl</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>7</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Glycine, serine and threonine
+metabolism</t>
+        </is>
       </c>
       <c r="B53">
         <v>0.175</v>
       </c>
       <c r="C53">
-        <v>0.01424922761829824</v>
+        <v>0.0140498974252189</v>
       </c>
       <c r="D53">
-        <v>1.846208676020534</v>
+        <v>1.852326846422533</v>
       </c>
       <c r="E53">
-        <v>0.01424922761829824</v>
+        <v>0.0140498974252189</v>
       </c>
       <c r="F53">
-        <v>0.0664587642083619</v>
+        <v>0.06448788918516593</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine
-metabolism</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>109731/12411/17161/14431/107869/236539/192166</t>
-        </is>
+          <t>Maob/Cbs/Maoa/Gamt/Cth/Phgdh/Sardh</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>7</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>16</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Purine metabolism</t>
+        </is>
       </c>
       <c r="B54">
         <v>0.1194029850746269</v>
       </c>
       <c r="C54">
-        <v>0.01440122850280102</v>
+        <v>0.01405914423298315</v>
       </c>
       <c r="D54">
-        <v>1.841600458652649</v>
+        <v>1.852041113612363</v>
       </c>
       <c r="E54">
-        <v>0.01440122850280102</v>
+        <v>0.01405914423298315</v>
       </c>
       <c r="F54">
-        <v>0.0664587642083619</v>
+        <v>0.06448788918516593</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>56520/234889/18574/104111/54195/60596/104110/11513/18605/18573/68695/210808/242202/23917/18584/23972</t>
-        </is>
+          <t>Nme4/Gucy1a2/Pde1b/Adcy3/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Enpp1/Pde1a/Hddc3/Lacc1/Pde5a/Impdh1/Pde8a/Papss2</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>16</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>18</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hippo signaling pathway</t>
+        </is>
       </c>
       <c r="B55">
         <v>0.1146496815286624</v>
       </c>
       <c r="C55">
-        <v>0.0145698059995255</v>
+        <v>0.01419840650300005</v>
       </c>
       <c r="D55">
-        <v>1.836546230927092</v>
+        <v>1.847760394052648</v>
       </c>
       <c r="E55">
-        <v>0.0145698059995255</v>
+        <v>0.01419840650300005</v>
       </c>
       <c r="F55">
-        <v>0.0664587642083619</v>
+        <v>0.06448788918516593</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>22420/16842/22411/93960/12444/11839/238057/216795/23859/93737/13385/57265/14219/71228/50523/72293/12162/17869</t>
-        </is>
+          <t>Wnt6/Lef1/Wnt11/Nkd1/Ccnd2/Areg/Gdf7/Wnt9a/Dlg2/Pard6g/Dlg4/Fzd2/Ccn2/Dlg5/Lats2/Nkd2/Bmp7/Myc</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>17</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Retrograde endocannabinoid
+signaling</t>
+        </is>
       </c>
       <c r="B56">
         <v>0.1148648648648649</v>
       </c>
       <c r="C56">
-        <v>0.01699140673675766</v>
+        <v>0.01657974111700936</v>
       </c>
       <c r="D56">
-        <v>1.769770663937279</v>
+        <v>1.780422254987921</v>
       </c>
       <c r="E56">
-        <v>0.01699140673675766</v>
+        <v>0.01657974111700936</v>
       </c>
       <c r="F56">
-        <v>0.07609548662968979</v>
+        <v>0.07393453933518047</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid
-signaling</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>16519/14802/12288/14677/104111/14710/18795/104110/11513/14397/66066/14702/18796/14697/14708/14696/12286</t>
-        </is>
+          <t>Kcnj3/Gria4/Cacna1c/Gnai1/Adcy3/Gngt2/Plcb1/Adcy4/Adcy7/Gabra4/Gng11/Gng2/Plcb2/Gnb5/Gng7/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H56">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>10</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Cortisol synthesis and secretion</t>
+        </is>
       </c>
       <c r="B57">
         <v>0.1388888888888889</v>
       </c>
       <c r="C57">
-        <v>0.01862639988363059</v>
+        <v>0.01830490608465231</v>
       </c>
       <c r="D57">
-        <v>1.729871077565466</v>
+        <v>1.737432494972666</v>
       </c>
       <c r="E57">
-        <v>0.01862639988363059</v>
+        <v>0.01830490608465231</v>
       </c>
       <c r="F57">
-        <v>0.08192814986408943</v>
+        <v>0.08016998341586445</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cortisol synthesis and secretion</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>16527/12288/104111/18795/104110/11513/11607/18796/58226/18584</t>
-        </is>
+          <t>Kcnk3/Cacna1c/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Pde8a</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>13</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Th17 cell differentiation</t>
+        </is>
       </c>
       <c r="B58">
         <v>0.1238095238095238</v>
       </c>
       <c r="C58">
-        <v>0.01971180105007192</v>
+        <v>0.01931297167252802</v>
       </c>
       <c r="D58">
-        <v>1.705273692799555</v>
+        <v>1.714150896511362</v>
       </c>
       <c r="E58">
-        <v>0.01971180105007192</v>
+        <v>0.01931297167252802</v>
       </c>
       <c r="F58">
-        <v>0.08518119013327478</v>
+        <v>0.08310106001290914</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Th17 cell differentiation</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>12502/14961/50931/15002/14969/20851/18037/14960/22637/16797/16161/16186/12504</t>
-        </is>
+          <t>Cd3g/H2-Ab1/Il27ra/H2-Ob/H2-Eb1/Stat5b/Nfkbie/H2-Aa/Zap70/Lat/Il12rb1/Il2rg/Cd4</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>13</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>9</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GnRH secretion</t>
+        </is>
       </c>
       <c r="B59">
         <v>0.1428571428571428</v>
       </c>
       <c r="C59">
-        <v>0.02108494303716475</v>
+        <v>0.02074896243848218</v>
       </c>
       <c r="D59">
-        <v>1.676027567932421</v>
+        <v>1.683003615506493</v>
       </c>
       <c r="E59">
-        <v>0.02108494303716475</v>
+        <v>0.02074896243848218</v>
       </c>
       <c r="F59">
-        <v>0.08954404121046375</v>
+        <v>0.08774062156381758</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>GnRH secretion</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>16519/12288/18795/109689/18796/216869/58226/23797/54393</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Plcb1/Arrb1/Plcb2/Arrb2/Cacna1h/Akt3/Gabbr1</t>
+        </is>
+      </c>
+      <c r="H59">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>5</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Glycosphingolipid biosynthesis -
+lacto and neolacto series</t>
+        </is>
       </c>
       <c r="B60">
         <v>0.1923076923076923</v>
       </c>
       <c r="C60">
-        <v>0.02503726051774889</v>
+        <v>0.0247722594927853</v>
       </c>
       <c r="D60">
-        <v>1.601413191720038</v>
+        <v>1.606034379344911</v>
       </c>
       <c r="E60">
-        <v>0.02503726051774889</v>
+        <v>0.0247722594927853</v>
       </c>
       <c r="F60">
-        <v>0.1045266540794512</v>
+        <v>0.102978349006583</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis -
-lacto and neolacto series</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>53418/26879/14594/108105/20443</t>
-        </is>
+          <t>B4galt2/B3galnt1/Ggta1/B3gnt5/St3gal4</t>
+        </is>
+      </c>
+      <c r="H60">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>10</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bacterial invasion of epithelial
+cells</t>
+        </is>
       </c>
       <c r="B61">
         <v>0.131578947368421</v>
       </c>
       <c r="C61">
-        <v>0.02627214472873508</v>
+        <v>0.02583482615862664</v>
       </c>
       <c r="D61">
-        <v>1.580504472100319</v>
+        <v>1.587794456456356</v>
       </c>
       <c r="E61">
-        <v>0.02627214472873508</v>
+        <v>0.02583482615862664</v>
       </c>
       <c r="F61">
-        <v>0.107308643566389</v>
+        <v>0.1049645703705877</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bacterial invasion of epithelial
-cells</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>15163/14268/20418/24050/78514/622434/140579/12389/242894/56526</t>
-        </is>
+          <t>Hcls1/Fn1/Shc3/Septin3/Arhgap10/Arhgef26/Elmo2/Cav1/Actr3b/Septin6</t>
+        </is>
+      </c>
+      <c r="H61">
+        <v>10</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>11</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Cardiac muscle contraction</t>
+        </is>
       </c>
       <c r="B62">
         <v>0.1264367816091954</v>
       </c>
       <c r="C62">
-        <v>0.02657493972082154</v>
+        <v>0.02610599507714831</v>
       </c>
       <c r="D62">
-        <v>1.575527711901346</v>
+        <v>1.583259748219277</v>
       </c>
       <c r="E62">
-        <v>0.02657493972082154</v>
+        <v>0.02610599507714831</v>
       </c>
       <c r="F62">
-        <v>0.107308643566389</v>
+        <v>0.1049645703705877</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cardiac muscle contraction</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>12288/20541/12293/236727/110893/17897/81904/65973/84682/98660/12298</t>
-        </is>
+          <t>Cacna1c/Slc8a1/Cacna2d1/Slc9a7/Slc8a3/Myl3/Cacng7/Asph/Cox4i2/Atp1a2/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H62">
+        <v>11</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>11</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Viral myocarditis</t>
+        </is>
       </c>
       <c r="B63">
         <v>0.125</v>
       </c>
       <c r="C63">
-        <v>0.02864554180034374</v>
+        <v>0.0281444546220997</v>
       </c>
       <c r="D63">
-        <v>1.542942959112594</v>
+        <v>1.55060716259829</v>
       </c>
       <c r="E63">
-        <v>0.02864554180034374</v>
+        <v>0.0281444546220997</v>
       </c>
       <c r="F63">
-        <v>0.113804020055695</v>
+        <v>0.1113354486748596</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Viral myocarditis</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>24052/15894/16773/16408/14961/15002/14969/14360/14960/24051/12389</t>
-        </is>
+          <t>Sgcd/Icam1/Lama2/Itgal/H2-Ab1/H2-Ob/H2-Eb1/Fyn/H2-Aa/Sgcb/Cav1</t>
+        </is>
+      </c>
+      <c r="H63">
+        <v>11</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>23</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Regulation of actin cytoskeleton</t>
+        </is>
       </c>
       <c r="B64">
         <v>0.09956709956709957</v>
       </c>
       <c r="C64">
-        <v>0.02977583366026275</v>
+        <v>0.02896840067688752</v>
       </c>
       <c r="D64">
-        <v>1.526136070349518</v>
+        <v>1.538075481198576</v>
       </c>
       <c r="E64">
-        <v>0.02977583366026275</v>
+        <v>0.02896840067688752</v>
       </c>
       <c r="F64">
-        <v>0.1164167932581701</v>
+        <v>0.1127758957011661</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Regulation of actin cytoskeleton</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>16401/16421/14268/18719/18645/78134/20315/109700/17698/329165/16408/16404/20259/105855/12062/14163/23797/18596/76884/242894/241226/192897/14062</t>
-        </is>
+          <t>Itga4/Itgb7/Fn1/Pip5k1b/Pfn2/Lpar4/Cxcl12/Itga1/Msn/Abi2/Itgal/Itga7/Scin/Nckap1l/Bdkrb2/Fgd1/Akt3/Pdgfrb/Cyfip2/Actr3b/Itga8/Itgb4/F2r</t>
+        </is>
+      </c>
+      <c r="H64">
+        <v>23</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>8</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Regulation of lipolysis in
+adipocytes</t>
+        </is>
       </c>
       <c r="B65">
         <v>0.1403508771929824</v>
       </c>
       <c r="C65">
-        <v>0.0316786587609307</v>
+        <v>0.03123061122727969</v>
       </c>
       <c r="D65">
-        <v>1.49923321423714</v>
+        <v>1.505419515928716</v>
       </c>
       <c r="E65">
-        <v>0.0316786587609307</v>
+        <v>0.03123061122727969</v>
       </c>
       <c r="F65">
-        <v>0.1219211537838451</v>
+        <v>0.1196830989466475</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in
-adipocytes</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>14677/104111/104110/11513/23797/19218/16890/16367</t>
-        </is>
+          <t>Gnai1/Adcy3/Adcy4/Adcy7/Akt3/Ptger3/Lipe/Irs1</t>
+        </is>
+      </c>
+      <c r="H65">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>4</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fatty acid biosynthesis</t>
+        </is>
       </c>
       <c r="B66">
         <v>0.2105263157894737</v>
       </c>
       <c r="C66">
-        <v>0.03243594246049977</v>
+        <v>0.03214926305776517</v>
       </c>
       <c r="D66">
-        <v>1.488973478666451</v>
+        <v>1.492828977751088</v>
       </c>
       <c r="E66">
-        <v>0.03243594246049977</v>
+        <v>0.03214926305776517</v>
       </c>
       <c r="F66">
-        <v>0.1229151503766307</v>
+        <v>0.1213081504851706</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>216739/100705/14081/99035</t>
-        </is>
+          <t>Acsl6/Acacb/Acsl1/Olah</t>
+        </is>
+      </c>
+      <c r="H66">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>7</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ether lipid metabolism</t>
+        </is>
       </c>
       <c r="B67">
         <v>0.1458333333333333</v>
       </c>
       <c r="C67">
-        <v>0.03589892596860714</v>
+        <v>0.03543972054276123</v>
       </c>
       <c r="D67">
-        <v>1.444918544538251</v>
+        <v>1.45050971136781</v>
       </c>
       <c r="E67">
-        <v>0.03589892596860714</v>
+        <v>0.03543972054276123</v>
       </c>
       <c r="F67">
-        <v>0.1339768528971941</v>
+        <v>0.1316978450791606</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ether lipid metabolism</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>26565/67916/210992/19012/18806/18606/100163</t>
-        </is>
+          <t>Pla2g10/Plpp3/Lpcat1/Plpp1/Pld2/Enpp2/Pafah2</t>
+        </is>
+      </c>
+      <c r="H67">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>5</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fatty acid elongation</t>
+        </is>
       </c>
       <c r="B68">
         <v>0.1724137931034483</v>
       </c>
       <c r="C68">
-        <v>0.03848355317828945</v>
+        <v>0.03809282037327102</v>
       </c>
       <c r="D68">
-        <v>1.414724836465724</v>
+        <v>1.419156871203509</v>
       </c>
       <c r="E68">
-        <v>0.03848355317828945</v>
+        <v>0.03809282037327102</v>
       </c>
       <c r="F68">
-        <v>0.1414792057143713</v>
+        <v>0.1394442599681406</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Fatty acid elongation</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>83603/66198/93747/70025/30963</t>
-        </is>
+          <t>Elovl4/Them5/Echs1/Acot7/Hacd1</t>
+        </is>
+      </c>
+      <c r="H68">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>8</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Endocrine and other
+factor-regulated calcium reabsorption</t>
+        </is>
       </c>
       <c r="B69">
         <v>0.1311475409836066</v>
       </c>
       <c r="C69">
-        <v>0.04501233209316993</v>
+        <v>0.0444024762196873</v>
       </c>
       <c r="D69">
-        <v>1.346668485640559</v>
+        <v>1.352592809647562</v>
       </c>
       <c r="E69">
-        <v>0.04501233209316993</v>
+        <v>0.0444024762196873</v>
       </c>
       <c r="F69">
-        <v>0.1630477664056001</v>
+        <v>0.160151346117448</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Endocrine and other
-factor-regulated calcium reabsorption</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>20541/18795/110893/19228/12062/18796/381290/98660</t>
-        </is>
+          <t>Slc8a1/Plcb1/Slc8a3/Pth1r/Bdkrb2/Plcb2/Atp2b4/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H69">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fatty acid metabolism</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="C70">
+        <v>0.04818970590396289</v>
+      </c>
+      <c r="D70">
+        <v>1.317045724138215</v>
+      </c>
+      <c r="E70">
+        <v>0.04818970590396289</v>
+      </c>
+      <c r="F70">
+        <v>0.1706709702742812</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Acsl6/Fads2/Fads1/Elovl4/Echs1/Cpt1c/Acsl1/Hacd1</t>
+        </is>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TGF-beta signaling pathway</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="C71">
+        <v>0.04871081340446223</v>
+      </c>
+      <c r="D71">
+        <v>1.312374618239357</v>
+      </c>
+      <c r="E71">
+        <v>0.04871081340446223</v>
+      </c>
+      <c r="F71">
+        <v>0.1706709702742812</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Nog/Fst/Id3/Id4/Gdf7/Tgif2/Smad9/Neo1/Zfyve9/Bmp7/Myc</t>
+        </is>
+      </c>
+      <c r="H71">
         <v>11</v>
       </c>
-      <c r="B70">
-        <v>0.1157894736842105</v>
-      </c>
-      <c r="C70">
-        <v>0.04646588831552732</v>
-      </c>
-      <c r="D70">
-        <v>1.332865755773367</v>
-      </c>
-      <c r="E70">
-        <v>0.04646588831552732</v>
-      </c>
-      <c r="F70">
-        <v>0.1658736516526834</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>TGF-beta signaling pathway</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>18121/14313/15903/15904/238057/228839/55994/18007/230597/12162/17869</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="C71">
-        <v>0.04884427734889519</v>
-      </c>
-      <c r="D71">
-        <v>1.31118631140032</v>
-      </c>
-      <c r="E71">
-        <v>0.04884427734889519</v>
-      </c>
-      <c r="F71">
-        <v>0.1718730962352101</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Fatty acid metabolism</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>216739/56473/76267/83603/93747/78070/14081/30963</t>
-        </is>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Parathyroid hormone synthesis,
+secretion and action</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C72">
+        <v>0.04963577868412541</v>
+      </c>
+      <c r="D72">
+        <v>1.304205160536432</v>
+      </c>
+      <c r="E72">
+        <v>0.04963577868412541</v>
+      </c>
+      <c r="F72">
+        <v>0.1711655846279244</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Mmp16/Gnai1/Mef2c/Adcy3/Plcb1/Pth1r/Adcy4/Adcy7/Arrb1/Plcb2/Arrb2/Pld2</t>
+        </is>
+      </c>
+      <c r="H72">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2530,2126 +2561,2126 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>logPval</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>logPval</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>24</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Circadian entrainment</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.2448979591836735</v>
       </c>
       <c r="C2">
-        <v>8.472700611806076e-10</v>
+        <v>8.018090731002057e-10</v>
       </c>
       <c r="D2">
-        <v>9.07197813939009</v>
+        <v>9.0959290336741</v>
       </c>
       <c r="E2">
-        <v>8.472700611806076e-10</v>
+        <v>8.018090731002057e-10</v>
       </c>
       <c r="F2">
-        <v>2.06020404350232e-07</v>
+        <v>1.949662061959447e-07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>16519/14802/12288/20190/14677/234889/14812/104111/14710/18795/54195/60596/104110/66066/11513/11517/14702/73086/18796/20192/58226/14708/14697/14696</t>
-        </is>
+          <t>Kcnj3/Gria4/Cacna1c/Ryr1/Gnai1/Gucy1a2/Grin2b/Adcy3/Gngt2/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Gng11/Adcy7/Adcyap1r1/Gng2/Rps6ka5/Plcb2/Ryr3/Cacna1h/Gng7/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>26</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apelin signaling pathway</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1897810218978102</v>
       </c>
       <c r="C3">
-        <v>5.27599020898711e-08</v>
+        <v>4.993736323225324e-08</v>
       </c>
       <c r="D3">
-        <v>7.277696019074652</v>
+        <v>7.301574392779912</v>
       </c>
       <c r="E3">
-        <v>5.27599020898711e-08</v>
+        <v>4.993736323225324e-08</v>
       </c>
       <c r="F3">
-        <v>6.414493359347486e-06</v>
+        <v>6.071332056131842e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Apelin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20190/18127/20541/14677/17260/104111/14710/104709/110893/18795/104110/66066/23796/11513/11607/17897/14702/18796/20192/14219/30878/14708/23797/14697/14696/16890</t>
-        </is>
+          <t>Ryr1/Nos3/Slc8a1/Gnai1/Mef2c/Adcy3/Gngt2/Pik3r6/Slc8a3/Plcb1/Adcy4/Gng11/Aplnr/Adcy7/Agtr1a/Myl3/Gng2/Plcb2/Ryr3/Ccn2/Apln/Gng7/Akt3/Gnb5/Gnb4/Lipe</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>23</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Glutamatergic synapse</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.2035398230088496</v>
       </c>
       <c r="C4">
-        <v>8.181883683904138e-08</v>
+        <v>7.7834938898981e-08</v>
       </c>
       <c r="D4">
-        <v>7.087146698853492</v>
+        <v>7.108825411173729</v>
       </c>
       <c r="E4">
-        <v>8.181883683904138e-08</v>
+        <v>7.7834938898981e-08</v>
       </c>
       <c r="F4">
-        <v>6.631632038532828e-06</v>
+        <v>6.308726626548987e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16519/20512/14802/14805/12288/14677/14812/104111/210274/14710/18795/104110/66066/11513/14806/14702/18796/105727/13385/14708/14697/14696/12286</t>
-        </is>
+          <t>Kcnj3/Slc1a3/Gria4/Grik1/Cacna1c/Gnai1/Grin2b/Adcy3/Shank2/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Grik2/Gng2/Plcb2/Slc38a1/Dlg4/Gng7/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>20</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dilated cardiomyopathy</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.2127659574468085</v>
       </c>
       <c r="C5">
-        <v>2.699357225471957e-07</v>
+        <v>2.582924048661486e-07</v>
       </c>
       <c r="D5">
-        <v>6.568739638309232</v>
+        <v>6.587888364144985</v>
       </c>
       <c r="E5">
-        <v>2.699357225471957e-07</v>
+        <v>2.582924048661486e-07</v>
       </c>
       <c r="F5">
-        <v>1.640925050221111e-05</v>
+        <v>1.57014593484422e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dilated cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>24052/12288/16401/16000/20541/16421/12293/104111/110893/109700/104110/16773/11513/16404/17897/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Sgcd/Cacna1c/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Adcy3/Slc8a3/Itga1/Adcy4/Lama2/Adcy7/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>29</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cell adhesion molecules</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.1593406593406593</v>
       </c>
       <c r="C6">
-        <v>4.693491607581217e-07</v>
+        <v>4.434286468323199e-07</v>
       </c>
       <c r="D6">
-        <v>6.32850395435814</v>
+        <v>6.35317625357759</v>
       </c>
       <c r="E6">
-        <v>4.693491607581217e-07</v>
+        <v>4.434286468323199e-07</v>
       </c>
       <c r="F6">
-        <v>2.282519076528971e-05</v>
+        <v>2.156463524595072e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cell adhesion molecules</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>16401/241568/19266/192167/12558/272381/16421/15894/83964/54420/386750/12562/19274/225825/245537/69524/16408/14961/269116/20339/15002/18613/14969/12741/18007/14960/80883/241226/12737</t>
-        </is>
+          <t>Itga4/Lrrc4c/Ptprd/Nlgn1/Cdh2/Lrrc4b/Itgb7/Icam1/Jam3/Cldn8/Slitrk3/Cdh5/Ptprm/Cd226/Nlgn3/Esam/Itgal/H2-Ab1/Nfasc/Sele/H2-Ob/Pecam1/H2-Eb1/Cldn5/Neo1/H2-Aa/Ntng1/Itga8/Cldn1</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>17</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arrhythmogenic right ventricular
+cardiomyopathy</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.2207792207792208</v>
       </c>
       <c r="C7">
-        <v>1.232008519990689e-06</v>
+        <v>1.186108151577573e-06</v>
       </c>
       <c r="D7">
-        <v>5.90938628878511</v>
+        <v>5.925875709376567</v>
       </c>
       <c r="E7">
-        <v>1.232008519990689e-06</v>
+        <v>1.186108151577573e-06</v>
       </c>
       <c r="F7">
-        <v>4.992876633646479e-05</v>
+        <v>4.806859351130165e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>16842/24052/12288/16401/20541/12558/16421/12293/110893/109700/16773/16404/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Lef1/Sgcd/Cacna1c/Itga4/Slc8a1/Cdh2/Itgb7/Cacna2d1/Slc8a3/Itga1/Lama2/Itga7/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>27</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cGMP-PKG signaling pathway</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.1560693641618497</v>
       </c>
       <c r="C8">
-        <v>1.77372714359296e-06</v>
+        <v>1.683251091312497e-06</v>
       </c>
       <c r="D8">
-        <v>5.751113187856054</v>
+        <v>5.773851095291122</v>
       </c>
       <c r="E8">
-        <v>1.77372714359296e-06</v>
+        <v>1.683251091312497e-06</v>
       </c>
       <c r="F8">
-        <v>6.161367972480808e-05</v>
+        <v>5.847082738243413e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cGMP-PKG signaling pathway</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>12288/11549/18127/20541/14677/13618/17260/234889/104111/104709/110893/18795/54195/22068/60596/104110/11513/11607/16531/13617/12062/18796/242202/73181/381290/23797/98660</t>
-        </is>
+          <t>Cacna1c/Adra1a/Nos3/Slc8a1/Gnai1/Ednrb/Mef2c/Gucy1a2/Adcy3/Pik3r6/Slc8a3/Plcb1/Gucy1b1/Trpc6/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Bdkrb2/Plcb2/Pde5a/Nfatc4/Atp2b4/Akt3/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>18</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Morphine addiction</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.1978021978021978</v>
       </c>
       <c r="C9">
-        <v>3.263770402431972e-06</v>
+        <v>3.139738932769213e-06</v>
       </c>
       <c r="D9">
-        <v>5.486280400305444</v>
+        <v>5.503106461726577</v>
       </c>
       <c r="E9">
-        <v>3.263770402431972e-06</v>
+        <v>3.139738932769213e-06</v>
       </c>
       <c r="F9">
-        <v>9.488753689405131e-05</v>
+        <v>9.188557534566696e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Morphine addiction</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>16519/14677/18574/104111/14710/14397/104110/66066/11513/18573/14702/109689/216869/14708/14697/14696/54393/12286</t>
-        </is>
+          <t>Kcnj3/Gnai1/Pde1b/Adcy3/Gngt2/Gabra4/Adcy4/Gng11/Adcy7/Pde1a/Gng2/Arrb1/Arrb2/Gng7/Gnb5/Gnb4/Gabbr1/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>14</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hedgehog signaling pathway</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.2413793103448276</v>
       </c>
       <c r="C10">
-        <v>3.512071170753847e-06</v>
+        <v>3.40095960695001e-06</v>
       </c>
       <c r="D10">
-        <v>5.454436691868302</v>
+        <v>5.468398526133403</v>
       </c>
       <c r="E10">
-        <v>3.512071170753847e-06</v>
+        <v>3.40095960695001e-06</v>
       </c>
       <c r="F10">
-        <v>9.488753689405131e-05</v>
+        <v>9.188557534566696e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>14632/16147/15245/68525/19207/59056/16576/12444/14634/14725/240888/109689/19206/216869</t>
-        </is>
+          <t>Gli1/Ihh/Hhip/Evc2/Ptch2/Evc/Kif7/Ccnd2/Gli3/Lrp2/Gpr161/Arrb1/Ptch1/Arrb2</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>20</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cholinergic synapse</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.1785714285714286</v>
       </c>
       <c r="C11">
-        <v>4.93534660055322e-06</v>
+        <v>4.735442949057867e-06</v>
       </c>
       <c r="D11">
-        <v>5.306682342199623</v>
+        <v>5.324639391246929</v>
       </c>
       <c r="E11">
-        <v>4.93534660055322e-06</v>
+        <v>4.735442949057867e-06</v>
       </c>
       <c r="F11">
-        <v>0.0001200068489187152</v>
+        <v>0.0001151460338139334</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cholinergic synapse</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>16519/12288/14677/226922/104111/14710/104709/18795/104110/66066/11513/14702/18796/14360/14708/23797/14697/14696/60613/12286</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Gnai1/Kcnq5/Adcy3/Gngt2/Pik3r6/Plcb1/Adcy4/Gng11/Adcy7/Gng2/Plcb2/Fyn/Gng7/Akt3/Gnb5/Gnb4/Kcnq4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>17</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ECM-receptor interaction</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.1931818181818182</v>
       </c>
       <c r="C12">
-        <v>8.532917545576179e-06</v>
+        <v>8.228688826105801e-06</v>
       </c>
       <c r="D12">
-        <v>5.068902450977497</v>
+        <v>5.084669360529175</v>
       </c>
       <c r="E12">
-        <v>8.532917545576179e-06</v>
+        <v>8.228688826105801e-06</v>
       </c>
       <c r="F12">
-        <v>0.0001886223878495787</v>
+        <v>0.0001818973319454967</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>16401/94216/114249/21827/23928/12505/16775/16421/14268/109700/12840/329872/16773/16404/75209/241226/192897</t>
-        </is>
+          <t>Itga4/Col4a6/Npnt/Thbs3/Lamc3/Cd44/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>21</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Relaxin signaling pathway</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.1627906976744186</v>
       </c>
       <c r="C13">
-        <v>1.291769912584095e-05</v>
+        <v>1.239061610763854e-05</v>
       </c>
       <c r="D13">
-        <v>4.888814835097773</v>
+        <v>4.906907098345871</v>
       </c>
       <c r="E13">
-        <v>1.291769912584095e-05</v>
+        <v>1.239061610763854e-05</v>
       </c>
       <c r="F13">
-        <v>0.0002207127730407232</v>
+        <v>0.000212939870688871</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Relaxin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>94216/18127/14677/13618/17390/20418/104111/14710/18795/104110/66066/11513/22341/14702/109689/18796/216869/14708/23797/14697/14696</t>
-        </is>
+          <t>Col4a6/Nos3/Gnai1/Ednrb/Mmp2/Shc3/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Vegfc/Gng2/Arrb1/Plcb2/Arrb2/Gng7/Akt3/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>29</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rap1 signaling pathway</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.1355140186915888</v>
       </c>
       <c r="C14">
-        <v>1.312505820205858e-05</v>
+        <v>1.24615027196872e-05</v>
       </c>
       <c r="D14">
-        <v>4.881898762072342</v>
+        <v>4.904429583397808</v>
       </c>
       <c r="E14">
-        <v>1.312505820205858e-05</v>
+        <v>1.24615027196872e-05</v>
       </c>
       <c r="F14">
-        <v>0.0002207127730407232</v>
+        <v>0.000212939870688871</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>15234/11600/16542/16000/14026/240168/14677/18645/14812/78134/18760/21687/104111/18795/19395/104110/16590/11513/16408/22341/50791/106952/93737/17311/18796/70549/23797/16797/54519</t>
-        </is>
+          <t>Hgf/Angpt1/Kdr/Igf1/Evl/Rasgrp3/Gnai1/Pfn2/Grin2b/Lpar4/Prkd1/Tek/Adcy3/Plcb1/Rasgrp2/Adcy4/Kit/Adcy7/Itgal/Vegfc/Magi2/Arap3/Pard6g/Kitl/Plcb2/Tln2/Akt3/Lat/Apbb1ip</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>27</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chemokine signaling pathway</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.140625</v>
       </c>
       <c r="C15">
-        <v>1.318910623574982e-05</v>
+        <v>1.255291899764834e-05</v>
       </c>
       <c r="D15">
-        <v>4.879784633569137</v>
+        <v>4.901255273611879</v>
       </c>
       <c r="E15">
-        <v>1.318910623574982e-05</v>
+        <v>1.255291899764834e-05</v>
       </c>
       <c r="F15">
-        <v>0.0002207127730407232</v>
+        <v>0.000212939870688871</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chemokine signaling pathway</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20309/14677/20418/16428/12766/20315/104111/14710/104709/18795/19395/94176/104110/66066/11513/16963/14702/109689/18796/23832/216869/14708/14191/20851/23797/14697/14696</t>
-        </is>
+          <t>Cxcl15/Gnai1/Shc3/Itk/Cxcr3/Cxcl12/Adcy3/Gngt2/Pik3r6/Plcb1/Rasgrp2/Dock2/Adcy4/Gng11/Adcy7/Xcl1/Gng2/Arrb1/Plcb2/Xcr1/Arrb2/Gng7/Fgr/Stat5b/Akt3/Gnb5/Gnb4</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>17</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hypertrophic cardiomyopathy</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.1868131868131868</v>
       </c>
       <c r="C16">
-        <v>1.361539833692773e-05</v>
+        <v>1.313590111392386e-05</v>
       </c>
       <c r="D16">
-        <v>4.865969648264596</v>
+        <v>4.881540129548542</v>
       </c>
       <c r="E16">
-        <v>1.361539833692773e-05</v>
+        <v>1.313590111392386e-05</v>
       </c>
       <c r="F16">
-        <v>0.0002207127730407232</v>
+        <v>0.000212939870688871</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hypertrophic cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>24052/12288/16401/16000/20541/16421/12293/110893/109700/16773/16404/17897/81904/24051/241226/192897/12298</t>
-        </is>
+          <t>Sgcd/Cacna1c/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Slc8a3/Itga1/Lama2/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>31</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Calcium signaling pathway</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.1291666666666667</v>
       </c>
       <c r="C17">
-        <v>1.763433810759092e-05</v>
+        <v>1.671223828186986e-05</v>
       </c>
       <c r="D17">
-        <v>4.753640836626803</v>
+        <v>4.776965380844677</v>
       </c>
       <c r="E17">
-        <v>1.763433810759092e-05</v>
+        <v>1.671223828186986e-05</v>
       </c>
       <c r="F17">
-        <v>0.0002679955330824674</v>
+        <v>0.000253982042309996</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>15234/12288/20190/16542/11549/18127/20541/231602/13618/18574/104111/12290/19220/110893/18795/104110/11513/22341/18573/12494/11607/13617/12062/15558/18796/65973/20192/58226/19218/381290/12286</t>
-        </is>
+          <t>Hgf/Cacna1c/Ryr1/Kdr/Adra1a/Nos3/Slc8a1/P2rx2/Ednrb/Pde1b/Adcy3/Cacna1e/Ptgfr/Slc8a3/Plcb1/Adcy4/Adcy7/Vegfc/Pde1a/Cd38/Agtr1a/Ednra/Bdkrb2/Htr2a/Plcb2/Asph/Ryr3/Cacna1h/Ptger3/Atp2b4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Salivary secretion</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.1882352941176471</v>
       </c>
       <c r="C18">
-        <v>2.204404056305261e-05</v>
+        <v>2.130989888790806e-05</v>
       </c>
       <c r="D18">
-        <v>4.656708798504228</v>
+        <v>4.671418610939376</v>
       </c>
       <c r="E18">
-        <v>2.204404056305261e-05</v>
+        <v>2.130989888790806e-05</v>
       </c>
       <c r="F18">
-        <v>0.000297859524905611</v>
+        <v>0.0002883814505520098</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salivary secretion</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>11549/234889/104111/18795/54195/60596/104110/11513/12494/17105/16531/18796/20192/17110/381290/98660</t>
-        </is>
+          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>15</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Renin secretion</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.1973684210526316</v>
       </c>
       <c r="C19">
-        <v>2.204934145405172e-05</v>
+        <v>2.134771776813579e-05</v>
       </c>
       <c r="D19">
-        <v>4.656604377041602</v>
+        <v>4.670648547509423</v>
       </c>
       <c r="E19">
-        <v>2.204934145405172e-05</v>
+        <v>2.134771776813579e-05</v>
       </c>
       <c r="F19">
-        <v>0.000297859524905611</v>
+        <v>0.0002883814505520098</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Renin secretion</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>12288/14677/234889/18574/13616/18795/54195/60596/18573/11607/16531/13617/11517/18796/229933</t>
-        </is>
+          <t>Cacna1c/Gnai1/Gucy1a2/Pde1b/Edn3/Plcb1/Gucy1b1/Gucy1a1/Pde1a/Agtr1a/Kcnma1/Ednra/Adcyap1r1/Plcb2/Clca2</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>21</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dopaminergic synapse</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.1555555555555556</v>
       </c>
       <c r="C20">
-        <v>2.632815769115054e-05</v>
+        <v>2.527688803768353e-05</v>
       </c>
       <c r="D20">
-        <v>4.579579529521362</v>
+        <v>4.597276395233558</v>
       </c>
       <c r="E20">
-        <v>2.632815769115054e-05</v>
+        <v>2.527688803768353e-05</v>
       </c>
       <c r="F20">
-        <v>0.0003369420734989349</v>
+        <v>0.0003234881516179998</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>16519/14802/109731/12288/13491/14677/20265/14812/17161/14710/18795/66066/14702/109689/18796/216869/14708/23797/14697/14696/12286</t>
-        </is>
+          <t>Kcnj3/Gria4/Maob/Cacna1c/Drd4/Gnai1/Scn1a/Grin2b/Maoa/Gngt2/Plcb1/Gng11/Gng2/Arrb1/Plcb2/Arrb2/Gng7/Akt3/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>27</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Focal adhesion</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.1343283582089552</v>
       </c>
       <c r="C21">
-        <v>3.053091022789391e-05</v>
+        <v>2.90982998763006e-05</v>
       </c>
       <c r="D21">
-        <v>4.515260247746578</v>
+        <v>4.536132384756727</v>
       </c>
       <c r="E21">
-        <v>3.053091022789391e-05</v>
+        <v>2.90982998763006e-05</v>
       </c>
       <c r="F21">
-        <v>0.0003711915927707101</v>
+        <v>0.0003537740669171284</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>15234/16401/16542/16000/94216/21827/23928/16775/16421/12444/14268/20418/18719/109700/12840/16773/22341/64099/16404/170736/68794/70549/14360/23797/12389/241226/192897</t>
-        </is>
+          <t>Hgf/Itga4/Kdr/Igf1/Col4a6/Thbs3/Lamc3/Lama4/Itgb7/Ccnd2/Fn1/Shc3/Pip5k1b/Itga1/Col9a2/Lama2/Vegfc/Parvg/Itga7/Parvb/Flnc/Tln2/Fyn/Akt3/Cav1/Itga8/Itgb4</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>25</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Axon guidance</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.138121546961326</v>
       </c>
       <c r="C22">
-        <v>3.741128906115534e-05</v>
+        <v>3.575369357213134e-05</v>
       </c>
       <c r="D22">
-        <v>4.426997327286918</v>
+        <v>4.446679086306655</v>
       </c>
       <c r="E22">
-        <v>3.741128906115534e-05</v>
+        <v>3.575369357213134e-05</v>
       </c>
       <c r="F22">
-        <v>0.0004221929943135534</v>
+        <v>0.0004083772562292933</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>13842/13643/20356/241568/13176/235611/20357/20361/18186/14677/20315/238057/22068/13837/218877/93737/13841/19206/73181/18007/14360/22253/20358/53972/80883</t>
-        </is>
+          <t>Epha8/Efnb3/Sema5a/Lrrc4c/Dcc/Plxnb1/Sema5b/Sema7a/Nrp1/Gnai1/Cxcl12/Gdf7/Trpc6/Epha3/Sema3g/Pard6g/Epha7/Ptch1/Nfatc4/Neo1/Fyn/Unc5c/Sema6a/Ngef/Ntng1</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>18</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Protein digestion and absorption</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>3.860967305438978e-05</v>
+        <v>3.723790050181497e-05</v>
       </c>
       <c r="D23">
-        <v>4.413303875953666</v>
+        <v>4.429014812819052</v>
       </c>
       <c r="E23">
-        <v>3.860967305438978e-05</v>
+        <v>3.723790050181497e-05</v>
       </c>
       <c r="F23">
-        <v>0.0004221929943135534</v>
+        <v>0.0004083772562292933</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>12814/140709/12818/94216/20541/58803/107581/234967/110893/12840/12817/17380/12832/12819/98660/237759/20540/12822</t>
-        </is>
+          <t>Col11a1/Col26a1/Col14a1/Col4a6/Slc8a1/Pga5/Col16a1/Slc36a4/Slc8a3/Col9a2/Col13a1/Mme/Col5a2/Col15a1/Atp1a2/Col23a1/Slc7a7/Col18a1</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>16</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GABAergic synapse</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.1797752808988764</v>
       </c>
       <c r="C24">
-        <v>3.993470530628199e-05</v>
+        <v>3.862789198532493e-05</v>
       </c>
       <c r="D24">
-        <v>4.398649516047531</v>
+        <v>4.41309899167711</v>
       </c>
       <c r="E24">
-        <v>3.993470530628199e-05</v>
+        <v>3.862789198532493e-05</v>
       </c>
       <c r="F24">
-        <v>0.0004221929943135534</v>
+        <v>0.0004083772562292933</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GABAergic synapse</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>12288/268860/14677/104111/14710/14397/104110/66066/11513/14702/105727/14708/14697/14696/54393/12286</t>
-        </is>
+          <t>Cacna1c/Abat/Gnai1/Adcy3/Gngt2/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Slc38a1/Gng7/Gnb5/Gnb4/Gabbr1/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>29</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ras signaling pathway</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.1234042553191489</v>
       </c>
       <c r="C25">
-        <v>7.641845145380863e-05</v>
+        <v>7.278902874198043e-05</v>
       </c>
       <c r="D25">
-        <v>4.116801767117119</v>
+        <v>4.13793407557553</v>
       </c>
       <c r="E25">
-        <v>7.641845145380863e-05</v>
+        <v>7.278902874198043e-05</v>
       </c>
       <c r="F25">
-        <v>0.0007742395739399034</v>
+        <v>0.0007374677912016439</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ras signaling pathway</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>15234/11600/26565/16542/16000/240168/23871/20418/19414/14812/21687/14710/19395/14255/66066/16590/22341/16002/14702/85031/17311/14708/23872/23797/22637/14697/16797/240057/14696</t>
-        </is>
+          <t>Hgf/Angpt1/Pla2g10/Kdr/Igf1/Rasgrp3/Ets1/Shc3/Rasa3/Grin2b/Tek/Gngt2/Rasgrp2/Flt3/Gng11/Kit/Vegfc/Igf2/Gng2/Pla1a/Kitl/Gng7/Ets2/Akt3/Zap70/Gnb5/Lat/Syngap1/Gnb4</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oxytocin signaling pathway</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="C26">
+        <v>0.0001631004590961281</v>
+      </c>
+      <c r="D26">
+        <v>3.787544816503351</v>
+      </c>
+      <c r="E26">
+        <v>0.0001631004590961281</v>
+      </c>
+      <c r="F26">
+        <v>0.001586366570577077</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Kcnj3/Cacna1c/Ryr1/Nos3/Gnai1/Cacna2d1/Mef2c/Gucy1a2/Adcy3/Pik3r6/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Cacng7/Plcb2/Ryr3/Nfatc4/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H26">
         <v>21</v>
       </c>
-      <c r="B26">
-        <v>0.1381578947368421</v>
-      </c>
-      <c r="C26">
-        <v>0.0001542462016940435</v>
-      </c>
-      <c r="D26">
-        <v>3.81178552164563</v>
-      </c>
-      <c r="E26">
-        <v>0.0001542462016940435</v>
-      </c>
-      <c r="F26">
-        <v>0.001500247267003118</v>
-      </c>
-      <c r="G26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Adrenergic signaling in
 cardiomyocytes</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>12288/11549/20541/399548/14677/12293/104111/104709/110893/18795/104110/11513/11607/17897/73086/81904/18796/381290/23797/98660/12298</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
+      <c r="B27">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="C27">
+        <v>0.0002149191079987896</v>
+      </c>
+      <c r="D27">
+        <v>3.667724970597329</v>
+      </c>
+      <c r="E27">
+        <v>0.0002149191079987896</v>
+      </c>
+      <c r="F27">
+        <v>0.002009972224604065</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cacna1c/Adra1a/Slc8a1/Scn4b/Gnai1/Cacna2d1/Adcy3/Pik3r6/Slc8a3/Plcb1/Adcy4/Adcy7/Agtr1a/Myl3/Rps6ka5/Cacng7/Plcb2/Atp2b4/Akt3/Atp1a2/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H27">
         <v>21</v>
       </c>
-      <c r="B27">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="C27">
-        <v>0.0001694226597036445</v>
-      </c>
-      <c r="D27">
-        <v>3.771028504712951</v>
-      </c>
-      <c r="E27">
-        <v>0.0001694226597036445</v>
-      </c>
-      <c r="F27">
-        <v>0.001584479125163639</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Oxytocin signaling pathway</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>16519/12288/20190/18127/14677/12293/17260/234889/104111/104709/18795/54195/60596/104110/11513/12494/81904/18796/20192/73181/12298</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <v>15</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hematopoietic cell lineage</t>
+        </is>
       </c>
       <c r="B28">
         <v>0.1595744680851064</v>
       </c>
       <c r="C28">
-        <v>0.0002769088131492348</v>
+        <v>0.0002688160499136358</v>
       </c>
       <c r="D28">
-        <v>3.557663221787212</v>
+        <v>3.570544804885935</v>
       </c>
       <c r="E28">
-        <v>0.0002769088131492348</v>
+        <v>0.0002688160499136358</v>
       </c>
       <c r="F28">
-        <v>0.002493798668127612</v>
+        <v>0.002420916472906428</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hematopoietic cell lineage</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>16401/12505/16157/12502/109700/14255/17380/12479/16590/14961/12494/15002/17311/14969/14960</t>
-        </is>
+          <t>Itga4/Cd44/Il11ra1/Cd3g/Itga1/Flt3/Mme/Cd1d1/Kit/H2-Ab1/Cd38/H2-Ob/Kitl/H2-Eb1/H2-Aa</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <v>37</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PI3K-Akt signaling pathway</t>
+        </is>
       </c>
       <c r="B29">
         <v>0.1030640668523677</v>
       </c>
       <c r="C29">
-        <v>0.0003711142488035971</v>
+        <v>0.0003520041194127963</v>
       </c>
       <c r="D29">
-        <v>3.430492370744243</v>
+        <v>3.453452254056591</v>
       </c>
       <c r="E29">
-        <v>0.0003711142488035971</v>
+        <v>0.0003520041194127963</v>
       </c>
       <c r="F29">
-        <v>0.003222834265925975</v>
+        <v>0.003056877879111127</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PI3K-Akt signaling pathway</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>15234/11600/16401/16542/16000/94216/21827/18127/23928/16775/11839/16421/12444/14268/78134/21687/14710/104709/109700/12840/14255/66066/16590/16773/22341/50791/16002/16404/14702/17311/14708/23797/14697/14696/16186/241226/192897</t>
-        </is>
+          <t>Hgf/Angpt1/Itga4/Kdr/Igf1/Col4a6/Thbs3/Nos3/Lamc3/Lama4/Areg/Itgb7/Ccnd2/Fn1/Lpar4/Tek/Gngt2/Pik3r6/Itga1/Col9a2/Flt3/Gng11/Kit/Lama2/Vegfc/Magi2/Igf2/Itga7/Gng2/Kitl/Gng7/Akt3/Gnb5/Gnb4/Il2rg/Itga8/Itgb4</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>37</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <v>11</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Basal cell carcinoma</t>
+        </is>
       </c>
       <c r="B30">
         <v>0.1746031746031746</v>
       </c>
       <c r="C30">
-        <v>0.0008207977738541176</v>
+        <v>0.0008022909233793696</v>
       </c>
       <c r="D30">
-        <v>3.0857638301126</v>
+        <v>3.095668121107429</v>
       </c>
       <c r="E30">
-        <v>0.0008207977738541176</v>
+        <v>0.0008022909233793696</v>
       </c>
       <c r="F30">
-        <v>0.006882188230863927</v>
+        <v>0.006727012823979471</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>14632/22420/15245/16842/22411/19207/16576/14634/216795/19206/57265</t>
-        </is>
+          <t>Gli1/Wnt6/Hhip/Lef1/Wnt11/Ptch2/Kif7/Gli3/Wnt9a/Ptch1/Fzd2</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <v>16</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Leukocyte transendothelial
+migration</t>
+        </is>
       </c>
       <c r="B31">
         <v>0.1355932203389831</v>
       </c>
       <c r="C31">
-        <v>0.001125280314707484</v>
+        <v>0.001093146204432594</v>
       </c>
       <c r="D31">
-        <v>2.948739278471384</v>
+        <v>2.961321748817042</v>
       </c>
       <c r="E31">
-        <v>0.001125280314707484</v>
+        <v>0.001093146204432594</v>
       </c>
       <c r="F31">
-        <v>0.009120693077102764</v>
+        <v>0.00886023765697997</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial
-migration</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>16401/14677/17390/15894/16428/20315/83964/54420/12562/21838/17698/69524/16408/18613/12741/12737</t>
-        </is>
+          <t>Itga4/Gnai1/Mmp2/Icam1/Itk/Cxcl12/Jam3/Cldn8/Cdh5/Thy1/Msn/Esam/Itgal/Pecam1/Cldn5/Cldn1</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <v>17</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Serotonergic synapse</t>
+        </is>
       </c>
       <c r="B32">
         <v>0.1297709923664122</v>
       </c>
       <c r="C32">
-        <v>0.001310899726373946</v>
+        <v>0.001272288708878486</v>
       </c>
       <c r="D32">
-        <v>2.882430527187098</v>
+        <v>2.895414327016594</v>
       </c>
       <c r="E32">
-        <v>0.001310899726373946</v>
+        <v>0.001272288708878486</v>
       </c>
       <c r="F32">
-        <v>0.01028243927987713</v>
+        <v>0.00997958206284992</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Serotonergic synapse</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>16519/109731/12288/16508/14677/17161/14710/18795/15551/66066/15558/14702/18796/14708/14697/14696/12286</t>
-        </is>
+          <t>Kcnj3/Maob/Cacna1c/Kcnd2/Gnai1/Maoa/Gngt2/Plcb1/Htr1b/Gng11/Htr2a/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <v>14</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Melanogenesis</t>
+        </is>
       </c>
       <c r="B33">
         <v>0.14</v>
       </c>
       <c r="C33">
-        <v>0.00165375641240487</v>
+        <v>0.001611405244691898</v>
       </c>
       <c r="D33">
-        <v>2.781528458833678</v>
+        <v>2.792795227177608</v>
       </c>
       <c r="E33">
-        <v>0.00165375641240487</v>
+        <v>0.001611405244691898</v>
       </c>
       <c r="F33">
-        <v>0.01256637273899754</v>
+        <v>0.01224455958959962</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>22420/16842/22411/14677/13618/104111/18795/216795/104110/16590/11513/17311/18796/57265</t>
-        </is>
+          <t>Wnt6/Lef1/Wnt11/Gnai1/Ednrb/Adcy3/Plcb1/Wnt9a/Adcy4/Kit/Adcy7/Kitl/Plcb2/Fzd2</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <v>10</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Long-term depression</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.1666666666666667</v>
       </c>
       <c r="C34">
-        <v>0.002021352428746592</v>
+        <v>0.001980522898515023</v>
       </c>
       <c r="D34">
-        <v>2.694357959361446</v>
+        <v>2.703220131981613</v>
       </c>
       <c r="E34">
-        <v>0.002021352428746592</v>
+        <v>0.001980522898515023</v>
       </c>
       <c r="F34">
-        <v>0.01486215310439248</v>
+        <v>0.01445286924625627</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Long-term depression</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>20190/16000/14677/234889/18795/54195/60596/18796/14687/12286</t>
-        </is>
+          <t>Ryr1/Igf1/Gnai1/Gucy1a2/Plcb1/Gucy1b1/Gucy1a1/Plcb2/Gnaz/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <v>16</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Platelet activation</t>
+        </is>
       </c>
       <c r="B35">
         <v>0.128</v>
       </c>
       <c r="C35">
-        <v>0.0020781782153462</v>
+        <v>0.002020899033134534</v>
       </c>
       <c r="D35">
-        <v>2.682317212013347</v>
+        <v>2.694455383885931</v>
       </c>
       <c r="E35">
-        <v>0.0020781782153462</v>
+        <v>0.002020899033134534</v>
       </c>
       <c r="F35">
-        <v>0.01486215310439248</v>
+        <v>0.01445286924625627</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Platelet activation</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>18127/14677/234889/104111/104709/18795/19395/54195/60596/104110/11513/18796/70549/14360/23797/54519</t>
-        </is>
+          <t>Nos3/Gnai1/Gucy1a2/Adcy3/Pik3r6/Plcb1/Rasgrp2/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Plcb2/Tln2/Fyn/Akt3/Apbb1ip</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>16</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <v>18</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Phospholipase D signaling pathway</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.1208053691275168</v>
       </c>
       <c r="C36">
-        <v>0.002177204220233777</v>
+        <v>0.002112684662953034</v>
       </c>
       <c r="D36">
-        <v>2.66210083252947</v>
+        <v>2.675165320439106</v>
       </c>
       <c r="E36">
-        <v>0.002177204220233777</v>
+        <v>0.002112684662953034</v>
       </c>
       <c r="F36">
-        <v>0.01486215310439248</v>
+        <v>0.01450564482850348</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phospholipase D signaling pathway</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>20418/78134/18719/104111/19220/104709/18795/67916/104110/16590/11513/217480/11607/17311/18796/14360/23797/19012</t>
-        </is>
+          <t>Shc3/Lpar4/Pip5k1b/Adcy3/Ptgfr/Pik3r6/Plcb1/Plpp3/Adcy4/Kit/Adcy7/Dgkb/Agtr1a/Kitl/Plcb2/Fyn/Akt3/Plpp1</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>13</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Taste transduction</t>
+        </is>
       </c>
       <c r="B37">
         <v>0.1413043478260869</v>
       </c>
       <c r="C37">
-        <v>0.002200370719351613</v>
+        <v>0.002147588974609606</v>
       </c>
       <c r="D37">
-        <v>2.657504142902707</v>
+        <v>2.668048834303929</v>
       </c>
       <c r="E37">
-        <v>0.002200370719351613</v>
+        <v>0.002147588974609606</v>
       </c>
       <c r="F37">
-        <v>0.01486215310439248</v>
+        <v>0.01450564482850348</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Taste transduction</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>12288/231602/18574/18795/15551/14397/110876/104110/18573/18796/20269/54393/12286</t>
-        </is>
+          <t>Cacna1c/P2rx2/Pde1b/Plcb1/Htr1b/Gabra4/Scn2a/Adcy4/Pde1a/Plcb2/Scn3a/Gabbr1/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>13</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>8</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Other types of O-glycan
+biosynthesis</t>
+        </is>
       </c>
       <c r="B38">
         <v>0.186046511627907</v>
       </c>
       <c r="C38">
-        <v>0.00274948930926628</v>
+        <v>0.002702712600314912</v>
       </c>
       <c r="D38">
-        <v>2.560747964629379</v>
+        <v>2.568200133632911</v>
       </c>
       <c r="E38">
-        <v>0.00274948930926628</v>
+        <v>0.002702712600314912</v>
       </c>
       <c r="F38">
-        <v>0.01759368505375376</v>
+        <v>0.01729436594661343</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Other types of O-glycan
-biosynthesis</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>240119/232313/53418/108760/16848/101351/270049/17305</t>
-        </is>
+          <t>St6gal2/Gxylt2/B4galt2/Galnt16/Lfng/Eogt/Galntl6/Mfng</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <v>8</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Intestinal immune network for IgA
+production</t>
+        </is>
       </c>
       <c r="B39">
         <v>0.186046511627907</v>
       </c>
       <c r="C39">
-        <v>0.00274948930926628</v>
+        <v>0.002702712600314912</v>
       </c>
       <c r="D39">
-        <v>2.560747964629379</v>
+        <v>2.568200133632911</v>
       </c>
       <c r="E39">
-        <v>0.00274948930926628</v>
+        <v>0.002702712600314912</v>
       </c>
       <c r="F39">
-        <v>0.01759368505375376</v>
+        <v>0.01729436594661343</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Intestinal immune network for IgA
-production</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>16401/16421/20315/24099/14961/15002/14969/14960</t>
-        </is>
+          <t>Itga4/Itgb7/Cxcl12/Tnfsf13b/H2-Ab1/H2-Ob/H2-Eb1/H2-Aa</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>29</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MAPK signaling pathway</t>
+        </is>
       </c>
       <c r="B40">
         <v>0.09863945578231292</v>
       </c>
       <c r="C40">
-        <v>0.003025590940397533</v>
+        <v>0.002907758057692702</v>
       </c>
       <c r="D40">
-        <v>2.519189788915895</v>
+        <v>2.536441732125334</v>
       </c>
       <c r="E40">
-        <v>0.003025590940397533</v>
+        <v>0.002907758057692702</v>
       </c>
       <c r="F40">
-        <v>0.01886400829235709</v>
+        <v>0.01812934173622171</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MAPK signaling pathway</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>15234/11600/12288/16542/16000/240168/11839/12293/17260/21687/19099/12290/19395/20112/14255/16590/22341/16002/73086/17311/109689/81904/68794/266632/58226/216869/23797/12286/12298</t>
-        </is>
+          <t>Hgf/Angpt1/Cacna1c/Kdr/Igf1/Rasgrp3/Areg/Cacna2d1/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Rps6ka5/Kitl/Arrb1/Cacng7/Flnc/Irak4/Cacna1h/Arrb2/Akt3/Cacna1a/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <v>22</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Proteoglycans in cancer</t>
+        </is>
       </c>
       <c r="B41">
         <v>0.1073170731707317</v>
       </c>
       <c r="C41">
-        <v>0.003410238455561496</v>
+        <v>0.003299099704439663</v>
       </c>
       <c r="D41">
-        <v>2.467215252587027</v>
+        <v>2.481604559133758</v>
       </c>
       <c r="E41">
-        <v>0.003410238455561496</v>
+        <v>0.003299099704439663</v>
       </c>
       <c r="F41">
-        <v>0.02073066008512383</v>
+        <v>0.02005505346646216</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>16147/15234/22420/22411/15430/16542/16000/12505/15163/14734/14268/17390/109676/216795/17698/16002/13345/19206/68794/57265/23797/12389</t>
-        </is>
+          <t>Ihh/Hgf/Wnt6/Wnt11/Hoxd10/Kdr/Igf1/Cd44/Hcls1/Gpc3/Fn1/Mmp2/Ank2/Wnt9a/Msn/Igf2/Twist2/Ptch1/Flnc/Fzd2/Akt3/Cav1</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <v>17</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Vascular smooth muscle contraction</t>
+        </is>
       </c>
       <c r="B42">
         <v>0.1180555555555556</v>
       </c>
       <c r="C42">
-        <v>0.003637524538963737</v>
+        <v>0.003537092606372246</v>
       </c>
       <c r="D42">
-        <v>2.439194068218931</v>
+        <v>2.451353569557609</v>
       </c>
       <c r="E42">
-        <v>0.003637524538963737</v>
+        <v>0.003537092606372246</v>
       </c>
       <c r="F42">
-        <v>0.02157299534019572</v>
+        <v>0.02097736565011525</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Vascular smooth muscle contraction</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>12288/26565/11549/234889/104111/13616/12310/18795/54195/60596/104110/11513/11607/16531/13617/18796/54598</t>
-        </is>
+          <t>Cacna1c/Pla2g10/Adra1a/Gucy1a2/Adcy3/Edn3/Calca/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Plcb2/Calcrl</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Wnt signaling pathway</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C43">
+        <v>0.004178724984006698</v>
+      </c>
+      <c r="D43">
+        <v>2.378956210301348</v>
+      </c>
+      <c r="E43">
+        <v>0.004178724984006698</v>
+      </c>
+      <c r="F43">
+        <v>0.02390161285408922</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Sfrp2/Wnt6/Lef1/Apcdd1/Wnt11/Nkd1/Ccnd2/Plcb1/Peg12/Wnt9a/Prickle2/Znrf3/Daam2/Prickle1/Tle1/Plcb2/Nfatc4/Fzd2/Nkd2</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Th1 and Th2 cell differentiation</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="C44">
+        <v>0.004226757078309717</v>
+      </c>
+      <c r="D44">
+        <v>2.373992711381111</v>
+      </c>
+      <c r="E44">
+        <v>0.004226757078309717</v>
+      </c>
+      <c r="F44">
+        <v>0.02390161285408922</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Cd3g/Jag2/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cAMP signaling pathway</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.1026785714285714</v>
+      </c>
+      <c r="C45">
+        <v>0.00468200996911335</v>
+      </c>
+      <c r="D45">
+        <v>2.329567665922114</v>
+      </c>
+      <c r="E45">
+        <v>0.00468200996911335</v>
+      </c>
+      <c r="F45">
+        <v>0.02534490642714181</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Gli1/Gria4/Hhip/Cacna1c/Vipr2/Gnai1/Grin2b/Adcy3/Edn3/Gli3/Htr1b/Adcy4/Adcy7/Ednra/Adcyap1r1/Arap3/Ptch1/Ptger3/Atp2b4/Akt3/Atp1a2/Gabbr1/Lipe</t>
+        </is>
+      </c>
+      <c r="H45">
         <v>23</v>
       </c>
-      <c r="B43">
-        <v>0.1045454545454545</v>
-      </c>
-      <c r="C43">
-        <v>0.003875536715157109</v>
-      </c>
-      <c r="D43">
-        <v>2.411668144437646</v>
-      </c>
-      <c r="E43">
-        <v>0.003875536715157109</v>
-      </c>
-      <c r="F43">
-        <v>0.02243731782459379</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>cAMP signaling pathway</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>14632/14802/15245/12288/22355/14677/14812/104111/13616/14634/15551/104110/11513/13617/11517/106952/19206/19218/381290/23797/98660/54393/16890</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>19</v>
-      </c>
-      <c r="B44">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C44">
-        <v>0.004304612001720304</v>
-      </c>
-      <c r="D44">
-        <v>2.366065987788908</v>
-      </c>
-      <c r="E44">
-        <v>0.004304612001720304</v>
-      </c>
-      <c r="F44">
-        <v>0.02387907551090376</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Wnt signaling pathway</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>20319/22420/16842/494504/22411/93960/12444/18795/27412/216795/243548/407821/76441/106042/21885/18796/73181/57265/72293</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C45">
-        <v>0.004320975568639727</v>
-      </c>
-      <c r="D45">
-        <v>2.364418189239556</v>
-      </c>
-      <c r="E45">
-        <v>0.004320975568639727</v>
-      </c>
-      <c r="F45">
-        <v>0.02387907551090376</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Th1 and Th2 cell differentiation</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>12502/16450/14961/15002/14969/18037/14960/20851/22637/16797/16161/16186</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <v>17</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Retrograde endocannabinoid
+signaling</t>
+        </is>
       </c>
       <c r="B46">
         <v>0.1148648648648649</v>
       </c>
       <c r="C46">
-        <v>0.004820839946620979</v>
+        <v>0.004690453462165854</v>
       </c>
       <c r="D46">
-        <v>2.316877286988926</v>
+        <v>2.328785168671609</v>
       </c>
       <c r="E46">
-        <v>0.004820839946620979</v>
+        <v>0.004690453462165854</v>
       </c>
       <c r="F46">
-        <v>0.02604945093963617</v>
+        <v>0.02534490642714181</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid
-signaling</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>16519/14802/12288/14677/104111/14710/18795/14397/104110/66066/11513/14702/18796/14708/14697/14696/12286</t>
-        </is>
+          <t>Kcnj3/Gria4/Cacna1c/Gnai1/Adcy3/Gngt2/Plcb1/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <v>13</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AGE-RAGE signaling pathway in
+diabetic complications</t>
+        </is>
       </c>
       <c r="B47">
         <v>0.1287128712871287</v>
       </c>
       <c r="C47">
-        <v>0.005025203219750109</v>
+        <v>0.004910984379312989</v>
       </c>
       <c r="D47">
-        <v>2.298846370637524</v>
+        <v>2.308831447254867</v>
       </c>
       <c r="E47">
-        <v>0.005025203219750109</v>
+        <v>0.004910984379312989</v>
       </c>
       <c r="F47">
-        <v>0.02656343120737472</v>
+        <v>0.02595966571215791</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in
-diabetic complications</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>94216/18127/14268/17390/15894/18795/22341/50490/20339/11607/18796/20851/23797</t>
-        </is>
+          <t>Col4a6/Nos3/Fn1/Mmp2/Icam1/Plcb1/Vegfc/Nox4/Sele/Agtr1a/Plcb2/Stat5b/Akt3</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>13</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <v>13</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Aldosterone synthesis and secretion</t>
+        </is>
       </c>
       <c r="B48">
         <v>0.1274509803921569</v>
       </c>
       <c r="C48">
-        <v>0.005466638076410592</v>
+        <v>0.005343145760421083</v>
       </c>
       <c r="D48">
-        <v>2.262279678005425</v>
+        <v>2.272202978150409</v>
       </c>
       <c r="E48">
-        <v>0.005466638076410592</v>
+        <v>0.005343145760421083</v>
       </c>
       <c r="F48">
-        <v>0.02828204693506936</v>
+        <v>0.02764315051863987</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Aldosterone synthesis and secretion</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>16527/12288/18760/104111/18795/104110/11513/11607/18796/58226/381290/98660/16890</t>
-        </is>
+          <t>Kcnk3/Cacna1c/Prkd1/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Atp2b4/Atp1a2/Lipe</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>13</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <v>4</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Glycosaminoglycan biosynthesis -
+keratan sulfate</t>
+        </is>
       </c>
       <c r="B49">
         <v>0.2857142857142857</v>
       </c>
       <c r="C49">
-        <v>0.006807231311538372</v>
+        <v>0.006740942497656202</v>
       </c>
       <c r="D49">
-        <v>2.167029491702158</v>
+        <v>2.17127937751291</v>
       </c>
       <c r="E49">
-        <v>0.006807231311538372</v>
+        <v>0.006740942497656202</v>
       </c>
       <c r="F49">
-        <v>0.03448400072292465</v>
+        <v>0.03414819554733735</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis -
-keratan sulfate</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>54371/53418/20444/76969</t>
-        </is>
+          <t>Chst2/B4galt2/St3gal2/Chst1</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <v>8</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ABC transporters</t>
+        </is>
       </c>
       <c r="B50">
         <v>0.1538461538461539</v>
       </c>
       <c r="C50">
-        <v>0.009078204070185364</v>
+        <v>0.008934821601303379</v>
       </c>
       <c r="D50">
-        <v>2.04200005891865</v>
+        <v>2.048914114489395</v>
       </c>
       <c r="E50">
-        <v>0.009078204070185364</v>
+        <v>0.008934821601303379</v>
       </c>
       <c r="F50">
-        <v>0.04504973448362663</v>
+        <v>0.04433821245759573</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ABC transporters</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>26357/217265/11307/27404/26874/18671/27416/27405</t>
-        </is>
+          <t>Abcg2/Abca5/Abcg1/Abca8b/Abcd2/Abcb1a/Abcc5/Abcg3</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <v>9</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GnRH secretion</t>
+        </is>
       </c>
       <c r="B51">
         <v>0.1428571428571428</v>
       </c>
       <c r="C51">
-        <v>0.00943303292621714</v>
+        <v>0.009272269762061981</v>
       </c>
       <c r="D51">
-        <v>2.025348649643812</v>
+        <v>2.032813941747794</v>
       </c>
       <c r="E51">
-        <v>0.00943303292621714</v>
+        <v>0.009272269762061981</v>
       </c>
       <c r="F51">
-        <v>0.04587432854644547</v>
+        <v>0.04509251189550142</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>GnRH secretion</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>16519/12288/18795/109689/18796/58226/216869/23797/54393</t>
-        </is>
+          <t>Kcnj3/Cacna1c/Plcb1/Arrb1/Plcb2/Cacna1h/Arrb2/Akt3/Gabbr1</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>11</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Gap junction</t>
+        </is>
       </c>
       <c r="B52">
         <v>0.1279069767441861</v>
       </c>
       <c r="C52">
-        <v>0.009930699677507905</v>
+        <v>0.009738482597092262</v>
       </c>
       <c r="D52">
-        <v>2.003020151768874</v>
+        <v>2.011508707500034</v>
       </c>
       <c r="E52">
-        <v>0.009930699677507905</v>
+        <v>0.009738482597092262</v>
       </c>
       <c r="F52">
-        <v>0.04734760836954234</v>
+        <v>0.04643115541647704</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Gap junction</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>14677/234889/104111/18795/54195/60596/104110/11513/22153/15558/18796</t>
-        </is>
+          <t>Gnai1/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Tubb4a/Htr2a/Plcb2</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>11</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>11</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cardiac muscle contraction</t>
+        </is>
       </c>
       <c r="B53">
         <v>0.1264367816091954</v>
       </c>
       <c r="C53">
-        <v>0.01079911826131387</v>
+        <v>0.0105915646055282</v>
       </c>
       <c r="D53">
-        <v>1.96661170283514</v>
+        <v>1.975039880368784</v>
       </c>
       <c r="E53">
-        <v>0.01079911826131387</v>
+        <v>0.0105915646055282</v>
       </c>
       <c r="F53">
-        <v>0.04954511059311825</v>
+        <v>0.04859287832923562</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cardiac muscle contraction</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>12288/20541/12293/236727/110893/17897/81904/65973/84682/98660/12298</t>
-        </is>
+          <t>Cacna1c/Slc8a1/Cacna2d1/Slc9a7/Slc8a3/Myl3/Cacng7/Asph/Cox4i2/Atp1a2/Cacnb4</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>11</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>11</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rheumatoid arthritis</t>
+        </is>
       </c>
       <c r="B54">
         <v>0.1264367816091954</v>
       </c>
       <c r="C54">
-        <v>0.01079911826131387</v>
+        <v>0.0105915646055282</v>
       </c>
       <c r="D54">
-        <v>1.96661170283514</v>
+        <v>1.975039880368784</v>
       </c>
       <c r="E54">
-        <v>0.01079911826131387</v>
+        <v>0.0105915646055282</v>
       </c>
       <c r="F54">
-        <v>0.04954511059311825</v>
+        <v>0.04859287832923562</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>11600/15894/21687/20315/24099/16408/14961/15002/76252/14969/14960</t>
-        </is>
+          <t>Angpt1/Icam1/Tek/Cxcl12/Tnfsf13b/Itgal/H2-Ab1/H2-Ob/Atp6v0e2/H2-Eb1/H2-Aa</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>11</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Viral myocarditis</t>
+        </is>
       </c>
       <c r="B55">
         <v>0.125</v>
       </c>
       <c r="C55">
-        <v>0.01172456721741014</v>
+        <v>0.01150082282370223</v>
       </c>
       <c r="D55">
-        <v>1.93090317919365</v>
+        <v>1.939271087036826</v>
       </c>
       <c r="E55">
-        <v>0.01172456721741014</v>
+        <v>0.01150082282370223</v>
       </c>
       <c r="F55">
-        <v>0.05279483483863048</v>
+        <v>0.05178733084357144</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Viral myocarditis</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>24052/15894/16773/16408/14961/15002/14969/14360/14960/24051/12389</t>
-        </is>
+          <t>Sgcd/Icam1/Lama2/Itgal/H2-Ab1/H2-Ob/H2-Eb1/Fyn/H2-Aa/Sgcb/Cav1</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>11</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>5</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Glycosphingolipid biosynthesis -
+lacto and neolacto series</t>
+        </is>
       </c>
       <c r="B56">
         <v>0.1923076923076923</v>
       </c>
       <c r="C56">
-        <v>0.01482824610979806</v>
+        <v>0.01466530228541102</v>
       </c>
       <c r="D56">
-        <v>1.828910214439059</v>
+        <v>1.833708980788921</v>
       </c>
       <c r="E56">
-        <v>0.01482824610979806</v>
+        <v>0.01466530228541102</v>
       </c>
       <c r="F56">
-        <v>0.06555645648542302</v>
+        <v>0.06483607326181712</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis -
-lacto and neolacto series</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>26879/53418/14594/108105/20443</t>
-        </is>
+          <t>B3galnt1/B4galt2/Ggta1/B3gnt5/St3gal4</t>
+        </is>
+      </c>
+      <c r="H56">
+        <v>5</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>12</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Th17 cell differentiation</t>
+        </is>
       </c>
       <c r="B57">
         <v>0.1142857142857143</v>
       </c>
       <c r="C57">
-        <v>0.01705032876866168</v>
+        <v>0.01671833408010382</v>
       </c>
       <c r="D57">
-        <v>1.768267242416997</v>
+        <v>1.776807000573081</v>
       </c>
       <c r="E57">
-        <v>0.01705032876866168</v>
+        <v>0.01671833408010382</v>
       </c>
       <c r="F57">
-        <v>0.07403432228497835</v>
+        <v>0.07259276640045083</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Th17 cell differentiation</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>12502/50931/14961/15002/14969/18037/14960/20851/22637/16797/16161/16186</t>
-        </is>
+          <t>Cd3g/Il27ra/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>12</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>16</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hippo signaling pathway</t>
+        </is>
       </c>
       <c r="B58">
         <v>0.1019108280254777</v>
       </c>
       <c r="C58">
-        <v>0.01826254409088136</v>
+        <v>0.01784074139675937</v>
       </c>
       <c r="D58">
-        <v>1.738438722548223</v>
+        <v>1.74858710187519</v>
       </c>
       <c r="E58">
-        <v>0.01826254409088136</v>
+        <v>0.01784074139675937</v>
       </c>
       <c r="F58">
-        <v>0.07790669778381522</v>
+        <v>0.07610731786983223</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>22420/16842/22411/93960/11839/12444/238057/216795/23859/93737/14219/57265/13385/71228/50523/72293</t>
-        </is>
+          <t>Wnt6/Lef1/Wnt11/Nkd1/Areg/Ccnd2/Gdf7/Wnt9a/Dlg2/Pard6g/Ccn2/Fzd2/Dlg4/Dlg5/Lats2/Nkd2</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Purine metabolism</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="C59">
+        <v>0.02117638971821929</v>
+      </c>
+      <c r="D59">
+        <v>1.674148079124789</v>
+      </c>
+      <c r="E59">
+        <v>0.02117638971821929</v>
+      </c>
+      <c r="F59">
+        <v>0.08743416557006597</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Nme4/Gucy1a2/Pde1b/Adcy3/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Pde1a/Enpp1/Hddc3/Lacc1/Pde5a/Impdh1</t>
+        </is>
+      </c>
+      <c r="H59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cortisol synthesis and secretion</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.125</v>
+      </c>
+      <c r="C60">
+        <v>0.02121508649438181</v>
+      </c>
+      <c r="D60">
+        <v>1.673355193265446</v>
+      </c>
+      <c r="E60">
+        <v>0.02121508649438181</v>
+      </c>
+      <c r="F60">
+        <v>0.08743416557006597</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Kcnk3/Cacna1c/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h</t>
+        </is>
+      </c>
+      <c r="H60">
         <v>9</v>
       </c>
-      <c r="B59">
-        <v>0.125</v>
-      </c>
-      <c r="C59">
-        <v>0.02155651110597951</v>
-      </c>
-      <c r="D59">
-        <v>1.666421527809586</v>
-      </c>
-      <c r="E59">
-        <v>0.02155651110597951</v>
-      </c>
-      <c r="F59">
-        <v>0.08913695727420071</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Cortisol synthesis and secretion</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>16527/12288/104111/18795/104110/11513/11607/18796/58226</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>14</v>
-      </c>
-      <c r="B60">
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="C60">
-        <v>0.02162825305289588</v>
-      </c>
-      <c r="D60">
-        <v>1.664978557774359</v>
-      </c>
-      <c r="E60">
-        <v>0.02162825305289588</v>
-      </c>
-      <c r="F60">
-        <v>0.08913695727420071</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Purine metabolism</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>56520/234889/18574/104111/54195/60596/104110/11513/18573/18605/68695/210808/242202/23917</t>
-        </is>
-      </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>8</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Endocrine and other
+factor-regulated calcium reabsorption</t>
+        </is>
       </c>
       <c r="B61">
         <v>0.1311475409836066</v>
       </c>
       <c r="C61">
-        <v>0.02268672986999457</v>
+        <v>0.02235550534048848</v>
       </c>
       <c r="D61">
-        <v>1.644228100050161</v>
+        <v>1.650615508569149</v>
       </c>
       <c r="E61">
-        <v>0.02268672986999457</v>
+        <v>0.02235550534048848</v>
       </c>
       <c r="F61">
-        <v>0.09194095789418852</v>
+        <v>0.09059862690619014</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Endocrine and other
-factor-regulated calcium reabsorption</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>20541/110893/18795/19228/12062/18796/381290/98660</t>
-        </is>
+          <t>Slc8a1/Slc8a3/Plcb1/Pth1r/Bdkrb2/Plcb2/Atp2b4/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H61">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>21</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Regulation of actin cytoskeleton</t>
+        </is>
       </c>
       <c r="B62">
         <v>0.09090909090909091</v>
       </c>
       <c r="C62">
-        <v>0.02479533481317941</v>
+        <v>0.02414450097058135</v>
       </c>
       <c r="D62">
-        <v>1.605630023023827</v>
+        <v>1.617181766364795</v>
       </c>
       <c r="E62">
-        <v>0.02479533481317941</v>
+        <v>0.02414450097058135</v>
       </c>
       <c r="F62">
-        <v>0.0982248372296966</v>
+        <v>0.09624468894226559</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Regulation of actin cytoskeleton</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>16401/16421/14268/18645/78134/18719/20315/109700/17698/329165/16408/20259/12062/16404/105855/14163/23797/242894/76884/241226/192897</t>
-        </is>
+          <t>Itga4/Itgb7/Fn1/Pfn2/Lpar4/Pip5k1b/Cxcl12/Itga1/Msn/Abi2/Itgal/Scin/Bdkrb2/Itga7/Nckap1l/Fgd1/Akt3/Actr3b/Cyfip2/Itga8/Itgb4</t>
+        </is>
+      </c>
+      <c r="H62">
+        <v>21</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>9</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Thyroid hormone synthesis</t>
+        </is>
       </c>
       <c r="B63">
         <v>0.1216216216216216</v>
       </c>
       <c r="C63">
-        <v>0.02532130903438732</v>
+        <v>0.02492694742114673</v>
       </c>
       <c r="D63">
-        <v>1.596513846375229</v>
+        <v>1.603330902375594</v>
       </c>
       <c r="E63">
-        <v>0.02532130903438732</v>
+        <v>0.02492694742114673</v>
       </c>
       <c r="F63">
-        <v>0.0982248372296966</v>
+        <v>0.09705320969446118</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Thyroid hormone synthesis</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>22139/104111/18795/14725/104110/11513/18796/67305/98660</t>
-        </is>
+          <t>Ttr/Adcy3/Plcb1/Lrp2/Adcy4/Adcy7/Plcb2/Gpx7/Atp1a2</t>
+        </is>
+      </c>
+      <c r="H63">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>6</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Glycine, serine and threonine
+metabolism</t>
+        </is>
       </c>
       <c r="B64">
         <v>0.15</v>
       </c>
       <c r="C64">
-        <v>0.02544916237314866</v>
+        <v>0.02514560432992858</v>
       </c>
       <c r="D64">
-        <v>1.594326507343175</v>
+        <v>1.599537922421286</v>
       </c>
       <c r="E64">
-        <v>0.02544916237314866</v>
+        <v>0.02514560432992858</v>
       </c>
       <c r="F64">
-        <v>0.0982248372296966</v>
+        <v>0.09705320969446118</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine
-metabolism</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>109731/12411/17161/14431/107869/236539</t>
-        </is>
+          <t>Maob/Cbs/Maoa/Gamt/Cth/Phgdh</t>
+        </is>
+      </c>
+      <c r="H64">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>7</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tryptophan metabolism</t>
+        </is>
       </c>
       <c r="B65">
         <v>0.1346153846153846</v>
       </c>
       <c r="C65">
-        <v>0.02822570928198833</v>
+        <v>0.02785645191821476</v>
       </c>
       <c r="D65">
-        <v>1.549355135908458</v>
+        <v>1.555074200563515</v>
       </c>
       <c r="E65">
-        <v>0.02822570928198833</v>
+        <v>0.02785645191821476</v>
       </c>
       <c r="F65">
-        <v>0.1072391257259754</v>
+        <v>0.105836190676112</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Tryptophan metabolism</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>13078/109731/17161/70266/209692/93747/71872</t>
-        </is>
+          <t>Cyp1b1/Maob/Maoa/Kyat1/Dhtkd1/Echs1/Aox4</t>
+        </is>
+      </c>
+      <c r="H65">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>7</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Regulation of lipolysis in
+adipocytes</t>
+        </is>
       </c>
       <c r="B66">
         <v>0.1228070175438596</v>
       </c>
       <c r="C66">
-        <v>0.0437382898329754</v>
+        <v>0.04319408237811997</v>
       </c>
       <c r="D66">
-        <v>1.359138201879585</v>
+        <v>1.364575747781518</v>
       </c>
       <c r="E66">
-        <v>0.0437382898329754</v>
+        <v>0.04319408237811997</v>
       </c>
       <c r="F66">
-        <v>0.1603207836070474</v>
+        <v>0.1573957138807854</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in
-adipocytes</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>14677/104111/104110/11513/19218/23797/16890</t>
-        </is>
+          <t>Gnai1/Adcy3/Adcy4/Adcy7/Ptger3/Akt3/Lipe</t>
+        </is>
+      </c>
+      <c r="H66">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>7</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Malaria</t>
+        </is>
       </c>
       <c r="B67">
         <v>0.1228070175438596</v>
       </c>
       <c r="C67">
-        <v>0.0437382898329754</v>
+        <v>0.04319408237811997</v>
       </c>
       <c r="D67">
-        <v>1.359138201879585</v>
+        <v>1.364575747781518</v>
       </c>
       <c r="E67">
-        <v>0.0437382898329754</v>
+        <v>0.04319408237811997</v>
       </c>
       <c r="F67">
-        <v>0.1603207836070474</v>
+        <v>0.1573957138807854</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Malaria</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>15234/21827/15894/71683/16408/20339/18613</t>
-        </is>
+          <t>Hgf/Thbs3/Icam1/Gypc/Itgal/Sele/Pecam1</t>
+        </is>
+      </c>
+      <c r="H67">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>13</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Estrogen signaling pathway</t>
+        </is>
       </c>
       <c r="B68">
         <v>0.09701492537313433</v>
       </c>
       <c r="C68">
-        <v>0.04417496916272107</v>
+        <v>0.04336899215806057</v>
       </c>
       <c r="D68">
-        <v>1.354823744989614</v>
+        <v>1.362820670202603</v>
       </c>
       <c r="E68">
-        <v>0.04417496916272107</v>
+        <v>0.04336899215806057</v>
       </c>
       <c r="F68">
-        <v>0.1603207836070474</v>
+        <v>0.1573957138807854</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Estrogen signaling pathway</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>94179/16519/18127/14677/17390/20418/104111/18795/104110/11513/18796/23797/54393</t>
-        </is>
+          <t>Krt23/Kcnj3/Nos3/Gnai1/Mmp2/Shc3/Adcy3/Plcb1/Adcy4/Adcy7/Plcb2/Akt3/Gabbr1</t>
+        </is>
+      </c>
+      <c r="H68">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>11</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cushing syndrome</t>
+        </is>
       </c>
       <c r="B69">
-        <v>0.1018518518518518</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C69">
-        <v>0.04561422872841461</v>
+        <v>0.04485928437300616</v>
       </c>
       <c r="D69">
-        <v>1.340899664038714</v>
+        <v>1.34814765887016</v>
       </c>
       <c r="E69">
-        <v>0.04561422872841461</v>
+        <v>0.04485928437300616</v>
       </c>
       <c r="F69">
-        <v>0.161274304980954</v>
+        <v>0.15810738600593</v>
       </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>Kcnk3/Wnt6/Lef1/Wnt11/Cacna1c/Gnai1/Adcy3/Plcb1/Wnt9a/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Fzd2</t>
+        </is>
+      </c>
+      <c r="H69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Parathyroid hormone synthesis,
 secretion and action</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>17389/14677/17260/104111/18795/19228/104110/11513/109689/18796/216869</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>15</v>
-      </c>
       <c r="B70">
-        <v>0.09259259259259259</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="C70">
-        <v>0.04576420212771228</v>
+        <v>0.04486553745752688</v>
       </c>
       <c r="D70">
-        <v>1.339474104907995</v>
+        <v>1.348087125339946</v>
       </c>
       <c r="E70">
-        <v>0.04576420212771228</v>
+        <v>0.04486553745752688</v>
       </c>
       <c r="F70">
-        <v>0.161274304980954</v>
+        <v>0.15810738600593</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Cushing syndrome</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>16527/22420/16842/22411/12288/14677/104111/18795/216795/104110/11513/11607/18796/58226/57265</t>
-        </is>
+          <t>Mmp16/Gnai1/Mef2c/Adcy3/Plcb1/Pth1r/Adcy4/Adcy7/Arrb1/Plcb2/Arrb2</t>
+        </is>
+      </c>
+      <c r="H70">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +4690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4668,675 +4699,735 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GeneRatio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>logPval</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.adjust</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qvalue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geneID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GeneRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pvalue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>logPval</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.adjust</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>qvalue</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>geneID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>8</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hedgehog signaling pathway</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.1379310344827586</v>
       </c>
       <c r="C2">
-        <v>2.768936042545155e-06</v>
+        <v>2.713147715725385e-06</v>
       </c>
       <c r="D2">
-        <v>5.557687075561939</v>
+        <v>5.566526560688079</v>
       </c>
       <c r="E2">
-        <v>2.768936042545155e-06</v>
+        <v>2.713147715725385e-06</v>
       </c>
       <c r="F2">
-        <v>0.0006062512598414655</v>
+        <v>0.0005883246625678204</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>14632/16147/15245/19207/68525/59056/14725/16576</t>
-        </is>
+          <t>Gli1/Ihh/Hhip/Ptch2/Evc2/Evc/Lrp2/Kif7</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>7</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basal cell carcinoma</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.1111111111111111</v>
       </c>
       <c r="C3">
-        <v>5.037592543675837e-05</v>
+        <v>4.950766374676777e-05</v>
       </c>
       <c r="D3">
-        <v>4.297776962520595</v>
+        <v>4.305327567423849</v>
       </c>
       <c r="E3">
-        <v>5.037592543675837e-05</v>
+        <v>4.950766374676777e-05</v>
       </c>
       <c r="F3">
-        <v>0.00458097098949527</v>
+        <v>0.004450337906217717</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>14632/22420/15245/22411/16842/19207/16576</t>
-        </is>
+          <t>Gli1/Wnt6/Hhip/Wnt11/Lef1/Ptch2/Kif7</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>8</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ECM-receptor interaction</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.09090909090909091</v>
       </c>
       <c r="C4">
-        <v>6.276811211568038e-05</v>
+        <v>6.157020889670142e-05</v>
       </c>
       <c r="D4">
-        <v>4.202260933482035</v>
+        <v>4.210629372922554</v>
       </c>
       <c r="E4">
-        <v>6.276811211568038e-05</v>
+        <v>6.157020889670142e-05</v>
       </c>
       <c r="F4">
-        <v>0.00458097098949527</v>
+        <v>0.004450337906217717</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>94216/23928/16401/114249/12505/12840/329872/16775</t>
-        </is>
+          <t>Col4a6/Lamc3/Itga4/Npnt/Cd44/Col9a2/Frem1/Lama4</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>11</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Axon guidance</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.06077348066298342</v>
       </c>
       <c r="C5">
-        <v>0.0001136072319631206</v>
+        <v>0.0001108868902266253</v>
       </c>
       <c r="D5">
-        <v>3.944594021602935</v>
+        <v>3.955119795949883</v>
       </c>
       <c r="E5">
-        <v>0.0001136072319631206</v>
+        <v>0.0001108868902266253</v>
       </c>
       <c r="F5">
-        <v>0.006218501117981338</v>
+        <v>0.006011236680706532</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>13842/13643/20356/13176/241568/20357/235611/14677/20361/20315/238057</t>
-        </is>
+          <t>Epha8/Efnb3/Sema5a/Dcc/Lrrc4c/Sema5b/Plxnb1/Gnai1/Sema7a/Cxcl12/Gdf7</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>10</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Proteoglycans in cancer</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.04878048780487805</v>
       </c>
       <c r="C6">
-        <v>0.001311724845009567</v>
+        <v>0.001284993511929247</v>
       </c>
       <c r="D6">
-        <v>2.882157255529309</v>
+        <v>2.891099065126803</v>
       </c>
       <c r="E6">
-        <v>0.001311724845009567</v>
+        <v>0.001284993511929247</v>
       </c>
       <c r="F6">
-        <v>0.05190471108637171</v>
+        <v>0.05060021448360496</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>16147/15234/22420/22411/15430/16000/16542/14734/12505/17390</t>
-        </is>
+          <t>Ihh/Hgf/Wnt6/Wnt11/Hoxd10/Igf1/Kdr/Gpc3/Cd44/Mmp2</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Protein digestion and absorption</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.06481481481481481</v>
       </c>
       <c r="C7">
-        <v>0.001422388717270763</v>
+        <v>0.001400103022119166</v>
       </c>
       <c r="D7">
-        <v>2.84698170128843</v>
+        <v>2.853840006970525</v>
       </c>
       <c r="E7">
-        <v>0.001422388717270763</v>
+        <v>0.001400103022119166</v>
       </c>
       <c r="F7">
-        <v>0.05190471108637171</v>
+        <v>0.05060021448360496</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>12814/140709/12818/94216/58803/12840/110893</t>
-        </is>
+          <t>Col11a1/Col26a1/Col14a1/Col4a6/Pga5/Col9a2/Slc8a3</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>10</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Calcium signaling pathway</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.04166666666666666</v>
       </c>
       <c r="C8">
-        <v>0.004145457620383025</v>
+        <v>0.004066082959731946</v>
       </c>
       <c r="D8">
-        <v>2.382427520352041</v>
+        <v>2.390823764756944</v>
       </c>
       <c r="E8">
-        <v>0.004145457620383025</v>
+        <v>0.004066082959731946</v>
       </c>
       <c r="F8">
-        <v>0.1296624338405518</v>
+        <v>0.1259568555947039</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>15234/20190/11549/16542/13618/18127/231602/19220/12290/110893</t>
-        </is>
+          <t>Hgf/Ryr1/Adra1a/Kdr/Ednrb/Nos3/P2rx2/Ptgfr/Cacna1e/Slc8a3</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dopaminergic synapse</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.05185185185185185</v>
       </c>
       <c r="C9">
-        <v>0.004999005494830743</v>
+        <v>0.004925319108967026</v>
       </c>
       <c r="D9">
-        <v>2.301116385877264</v>
+        <v>2.307565626532073</v>
       </c>
       <c r="E9">
-        <v>0.004999005494830743</v>
+        <v>0.004925319108967026</v>
       </c>
       <c r="F9">
-        <v>0.1368148872269467</v>
+        <v>0.1335020705851589</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>16519/109731/14802/13491/20265/14677/14812</t>
-        </is>
+          <t>Kcnj3/Maob/Gria4/Drd4/Scn1a/Gnai1/Grin2b</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arrhythmogenic right ventricular
+cardiomyopathy</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.06493506493506493</v>
       </c>
       <c r="C10">
-        <v>0.006805814293364272</v>
+        <v>0.006728728254308549</v>
       </c>
       <c r="D10">
-        <v>2.167119905441133</v>
+        <v>2.172067010713178</v>
       </c>
       <c r="E10">
-        <v>0.006805814293364272</v>
+        <v>0.006728728254308549</v>
       </c>
       <c r="F10">
-        <v>0.1520051809153695</v>
+        <v>0.1597633009555602</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>16842/24052/16401/12558/110893</t>
-        </is>
+          <t>Lef1/Sgcd/Itga4/Cdh2/Slc8a3</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.03367875647668394</v>
-      </c>
-      <c r="C11">
-        <v>0.006942544320653894</v>
-      </c>
-      <c r="D11">
-        <v>2.158481339067229</v>
-      </c>
-      <c r="E11">
-        <v>0.006942544320653894</v>
-      </c>
-      <c r="F11">
-        <v>0.1520051809153695</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Neuroactive ligand-receptor
 interaction</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>14803/14805/22355/14802/11549/13491/13618/12310/13616/231602/19220/14812/14397</t>
-        </is>
+      <c r="B11">
+        <v>0.03324808184143223</v>
+      </c>
+      <c r="C11">
+        <v>0.007534283274096881</v>
+      </c>
+      <c r="D11">
+        <v>2.12295805521526</v>
+      </c>
+      <c r="E11">
+        <v>0.007534283274096881</v>
+      </c>
+      <c r="F11">
+        <v>0.1597633009555602</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Grid1/Grik1/Vipr2/Gria4/Adra1a/Drd4/Ednrb/Calca/Edn3/P2rx2/Ptgfr/Grin2b/Gabra4</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>6</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Glutamatergic synapse</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.05309734513274336</v>
       </c>
       <c r="C12">
-        <v>0.008209646652130217</v>
+        <v>0.008104497548473803</v>
       </c>
       <c r="D12">
-        <v>2.08567553476027</v>
+        <v>2.091273904774666</v>
       </c>
       <c r="E12">
-        <v>0.008209646652130217</v>
+        <v>0.008104497548473803</v>
       </c>
       <c r="F12">
-        <v>0.1634073209227833</v>
+        <v>0.1597633009555602</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>16519/20512/14805/14802/14677/14812</t>
-        </is>
+          <t>Kcnj3/Slc1a3/Grik1/Gria4/Gnai1/Grin2b</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>8</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Focal adhesion</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.03980099502487562</v>
       </c>
       <c r="C13">
-        <v>0.01298350722069705</v>
+        <v>0.01278672095280963</v>
       </c>
       <c r="D13">
-        <v>1.88660797619117</v>
+        <v>1.893240812415852</v>
       </c>
       <c r="E13">
-        <v>0.01298350722069705</v>
+        <v>0.01278672095280963</v>
       </c>
       <c r="F13">
-        <v>0.2368920615706129</v>
+        <v>0.2310582909016477</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>15234/94216/16000/23928/16401/16542/12840/16775</t>
-        </is>
+          <t>Hgf/Col4a6/Igf1/Lamc3/Itga4/Kdr/Col9a2/Lama4</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>5</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Circadian entrainment</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.05102040816326531</v>
       </c>
       <c r="C14">
-        <v>0.01808788762515069</v>
+        <v>0.01789543408269522</v>
       </c>
       <c r="D14">
-        <v>1.742612148801162</v>
+        <v>1.747257762631184</v>
       </c>
       <c r="E14">
-        <v>0.01808788762515069</v>
+        <v>0.01789543408269522</v>
       </c>
       <c r="F14">
-        <v>0.2856467187710459</v>
+        <v>0.2793283582608996</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>16519/14802/20190/14677/14812</t>
-        </is>
+          <t>Kcnj3/Gria4/Ryr1/Gnai1/Grin2b</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>8</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rap1 signaling pathway</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.03738317757009346</v>
       </c>
       <c r="C15">
-        <v>0.01830365829626256</v>
+        <v>0.01803430662558235</v>
       </c>
       <c r="D15">
-        <v>1.737462100482831</v>
+        <v>1.743900550571691</v>
       </c>
       <c r="E15">
-        <v>0.01830365829626256</v>
+        <v>0.01803430662558235</v>
       </c>
       <c r="F15">
-        <v>0.2856467187710459</v>
+        <v>0.2793283582608996</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>15234/11600/16000/16542/14677/14026/14812/240168</t>
-        </is>
+          <t>Hgf/Angpt1/Igf1/Kdr/Gnai1/Evl/Grin2b/Rasgrp3</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>5</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Melanogenesis</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.05</v>
       </c>
       <c r="C16">
-        <v>0.01956954683888175</v>
+        <v>0.01936259530232413</v>
       </c>
       <c r="D16">
-        <v>1.708419230941473</v>
+        <v>1.713036431638335</v>
       </c>
       <c r="E16">
-        <v>0.01956954683888175</v>
+        <v>0.01936259530232413</v>
       </c>
       <c r="F16">
-        <v>0.2856467187710459</v>
+        <v>0.2799083952476331</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>22420/22411/16842/13618/14677</t>
-        </is>
+          <t>Wnt6/Wnt11/Lef1/Ednrb/Gnai1</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PI3K-Akt signaling pathway</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.03064066852367688</v>
+      </c>
+      <c r="C17">
+        <v>0.02347690475401441</v>
+      </c>
+      <c r="D17">
+        <v>1.629359161975619</v>
+      </c>
+      <c r="E17">
+        <v>0.02347690475401441</v>
+      </c>
+      <c r="F17">
+        <v>0.3022250504862305</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hgf/Angpt1/Col4a6/Igf1/Lamc3/Areg/Itga4/Kdr/Nos3/Col9a2/Lama4</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nicotine addiction</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.075</v>
+      </c>
+      <c r="C18">
+        <v>0.02369385711336224</v>
+      </c>
+      <c r="D18">
+        <v>1.625364234900046</v>
+      </c>
+      <c r="E18">
+        <v>0.02369385711336224</v>
+      </c>
+      <c r="F18">
+        <v>0.3022250504862305</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Gria4/Grin2b/Gabra4</t>
+        </is>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>0.075</v>
-      </c>
-      <c r="C17">
-        <v>0.02386417853425077</v>
-      </c>
-      <c r="D17">
-        <v>1.622253510561603</v>
-      </c>
-      <c r="E17">
-        <v>0.02386417853425077</v>
-      </c>
-      <c r="F17">
-        <v>0.3078051303494511</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Nicotine addiction</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>14802/14812/14397</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>0.03064066852367688</v>
-      </c>
-      <c r="C18">
-        <v>0.02389929257280594</v>
-      </c>
-      <c r="D18">
-        <v>1.621614954126078</v>
-      </c>
-      <c r="E18">
-        <v>0.02389929257280594</v>
-      </c>
-      <c r="F18">
-        <v>0.3078051303494511</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>PI3K-Akt signaling pathway</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>15234/11600/94216/16000/23928/11839/16401/16542/18127/12840/16775</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>2</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.1176470588235294</v>
       </c>
       <c r="C19">
-        <v>0.02798851228552268</v>
+        <v>0.02784554734934699</v>
       </c>
       <c r="D19">
-        <v>1.553020185612421</v>
+        <v>1.555244240928657</v>
       </c>
       <c r="E19">
-        <v>0.02798851228552268</v>
+        <v>0.02784554734934699</v>
       </c>
       <c r="F19">
-        <v>0.3404450617186384</v>
+        <v>0.3354492838576305</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>12351/12319</t>
-        </is>
+          <t>Car4/Car8</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>6</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hippo signaling pathway</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.03821656050955414</v>
       </c>
       <c r="C20">
-        <v>0.03546217754085616</v>
+        <v>0.03505941737231624</v>
       </c>
       <c r="D20">
-        <v>1.450234600237008</v>
+        <v>1.455195305415371</v>
       </c>
       <c r="E20">
-        <v>0.03546217754085616</v>
+        <v>0.03505941737231624</v>
       </c>
       <c r="F20">
-        <v>0.408650023739506</v>
+        <v>0.4001240985427782</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>22420/22411/16842/11839/93960/238057</t>
-        </is>
+          <t>Wnt6/Wnt11/Lef1/Areg/Nkd1/Gdf7</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>3</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cocaine addiction</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.0625</v>
       </c>
       <c r="C21">
-        <v>0.03821660365596965</v>
+        <v>0.03795294917129483</v>
       </c>
       <c r="D21">
-        <v>1.417747911708321</v>
+        <v>1.420754471176801</v>
       </c>
       <c r="E21">
-        <v>0.03821660365596965</v>
+        <v>0.03795294917129483</v>
       </c>
       <c r="F21">
-        <v>0.4183712400232467</v>
+        <v>0.4114898699624598</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cocaine addiction</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>109731/14677/14812</t>
-        </is>
+          <t>Maob/Gnai1/Grin2b</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>3</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cholesterol metabolism</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.06</v>
       </c>
       <c r="C22">
-        <v>0.04235753411188906</v>
+        <v>0.04206781152804389</v>
       </c>
       <c r="D22">
-        <v>1.373069330735737</v>
+        <v>1.376050080472095</v>
       </c>
       <c r="E22">
-        <v>0.04235753411188906</v>
+        <v>0.04206781152804389</v>
       </c>
       <c r="F22">
-        <v>0.4416224107906228</v>
+        <v>0.4343844197883229</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cholesterol metabolism</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>238055/14725/20652</t>
-        </is>
+          <t>Apob/Lrp2/Soat1</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wnt signaling pathway</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.03508771929824561</v>
+      </c>
+      <c r="C23">
+        <v>0.04965701403235607</v>
+      </c>
+      <c r="D23">
+        <v>1.304019398922801</v>
+      </c>
+      <c r="E23">
+        <v>0.04965701403235607</v>
+      </c>
+      <c r="F23">
+        <v>0.4584935552703023</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wnt6/Sfrp2/Wnt11/Lef1/Apcdd1/Nkd1</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Relaxin signaling pathway</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0.03875968992248062</v>
+      </c>
+      <c r="C24">
+        <v>0.04985961884058392</v>
+      </c>
+      <c r="D24">
+        <v>1.302251045849571</v>
+      </c>
+      <c r="E24">
+        <v>0.04985961884058392</v>
+      </c>
+      <c r="F24">
+        <v>0.4584935552703023</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Col4a6/Ednrb/Nos3/Gnai1/Mmp2</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/enrichKEGG_sig.xlsx
+++ b/3_output/enrichKEGG_sig.xlsx
@@ -674,8 +674,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
         </is>
       </c>
       <c r="B11">
@@ -1185,8 +1184,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Other types of O-glycan
-biosynthesis</t>
+          <t>Other types of O-glycan biosynthesis</t>
         </is>
       </c>
       <c r="B28">
@@ -1276,8 +1274,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial
-migration</t>
+          <t>Leukocyte transendothelial migration</t>
         </is>
       </c>
       <c r="B31">
@@ -1397,8 +1394,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Adrenergic signaling in
-cardiomyocytes</t>
+          <t>Adrenergic signaling in cardiomyocytes</t>
         </is>
       </c>
       <c r="B35">
@@ -1668,8 +1664,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in
-diabetic complications</t>
+          <t>AGE-RAGE signaling pathway in diabetic complications</t>
         </is>
       </c>
       <c r="B44">
@@ -1729,8 +1724,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intestinal immune network for IgA
-production</t>
+          <t>Intestinal immune network for IgA production</t>
         </is>
       </c>
       <c r="B46">
@@ -1850,8 +1844,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis -
-keratan sulfate</t>
+          <t>Glycosaminoglycan biosynthesis - keratan sulfate</t>
         </is>
       </c>
       <c r="B50">
@@ -1941,8 +1934,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine
-metabolism</t>
+          <t>Glycine, serine and threonine metabolism</t>
         </is>
       </c>
       <c r="B53">
@@ -2032,8 +2024,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid
-signaling</t>
+          <t>Retrograde endocannabinoid signaling</t>
         </is>
       </c>
       <c r="B56">
@@ -2153,8 +2144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis -
-lacto and neolacto series</t>
+          <t>Glycosphingolipid biosynthesis - lacto and neolacto series</t>
         </is>
       </c>
       <c r="B60">
@@ -2184,8 +2174,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bacterial invasion of epithelial
-cells</t>
+          <t>Bacterial invasion of epithelial cells</t>
         </is>
       </c>
       <c r="B61">
@@ -2305,8 +2294,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in
-adipocytes</t>
+          <t>Regulation of lipolysis in adipocytes</t>
         </is>
       </c>
       <c r="B65">
@@ -2426,8 +2414,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Endocrine and other
-factor-regulated calcium reabsorption</t>
+          <t>Endocrine and other factor-regulated calcium reabsorption</t>
         </is>
       </c>
       <c r="B69">
@@ -2517,8 +2504,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Parathyroid hormone synthesis,
-secretion and action</t>
+          <t>Parathyroid hormone synthesis, secretion and action</t>
         </is>
       </c>
       <c r="B72">
@@ -2753,8 +2739,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
         </is>
       </c>
       <c r="B7">
@@ -3354,8 +3339,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adrenergic signaling in
-cardiomyocytes</t>
+          <t>Adrenergic signaling in cardiomyocytes</t>
         </is>
       </c>
       <c r="B27">
@@ -3475,8 +3459,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial
-migration</t>
+          <t>Leukocyte transendothelial migration</t>
         </is>
       </c>
       <c r="B31">
@@ -3686,8 +3669,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Other types of O-glycan
-biosynthesis</t>
+          <t>Other types of O-glycan biosynthesis</t>
         </is>
       </c>
       <c r="B38">
@@ -3717,8 +3699,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intestinal immune network for IgA
-production</t>
+          <t>Intestinal immune network for IgA production</t>
         </is>
       </c>
       <c r="B39">
@@ -3928,8 +3909,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid
-signaling</t>
+          <t>Retrograde endocannabinoid signaling</t>
         </is>
       </c>
       <c r="B46">
@@ -3959,8 +3939,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in
-diabetic complications</t>
+          <t>AGE-RAGE signaling pathway in diabetic complications</t>
         </is>
       </c>
       <c r="B47">
@@ -4020,8 +3999,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis -
-keratan sulfate</t>
+          <t>Glycosaminoglycan biosynthesis - keratan sulfate</t>
         </is>
       </c>
       <c r="B49">
@@ -4231,8 +4209,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis -
-lacto and neolacto series</t>
+          <t>Glycosphingolipid biosynthesis - lacto and neolacto series</t>
         </is>
       </c>
       <c r="B56">
@@ -4382,8 +4359,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Endocrine and other
-factor-regulated calcium reabsorption</t>
+          <t>Endocrine and other factor-regulated calcium reabsorption</t>
         </is>
       </c>
       <c r="B61">
@@ -4473,8 +4449,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine
-metabolism</t>
+          <t>Glycine, serine and threonine metabolism</t>
         </is>
       </c>
       <c r="B64">
@@ -4534,8 +4509,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in
-adipocytes</t>
+          <t>Regulation of lipolysis in adipocytes</t>
         </is>
       </c>
       <c r="B66">
@@ -4655,8 +4629,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Parathyroid hormone synthesis,
-secretion and action</t>
+          <t>Parathyroid hormone synthesis, secretion and action</t>
         </is>
       </c>
       <c r="B70">
@@ -4981,8 +4954,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular
-cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
         </is>
       </c>
       <c r="B10">
@@ -5012,8 +4984,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neuroactive ligand-receptor
-interaction</t>
+          <t>Neuroactive ligand-receptor interaction</t>
         </is>
       </c>
       <c r="B11">

--- a/3_output/enrichKEGG_sig.xlsx
+++ b/3_output/enrichKEGG_sig.xlsx
@@ -5294,7 +5294,7 @@
         <v>0.03795294917129483</v>
       </c>
       <c r="D21">
-        <v>1.420754471176801</v>
+        <v>1.420754471176802</v>
       </c>
       <c r="E21">
         <v>0.03795294917129483</v>

--- a/3_output/enrichKEGG_sig.xlsx
+++ b/3_output/enrichKEGG_sig.xlsx
@@ -5294,7 +5294,7 @@
         <v>0.03795294917129483</v>
       </c>
       <c r="D21">
-        <v>1.420754471176802</v>
+        <v>1.420754471176801</v>
       </c>
       <c r="E21">
         <v>0.03795294917129483</v>

--- a/3_output/enrichKEGG_sig.xlsx
+++ b/3_output/enrichKEGG_sig.xlsx
@@ -404,23 +404,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
+          <t>Circadian entrainment - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B2">
         <v>0.2448979591836735</v>
       </c>
       <c r="C2">
-        <v>1.143861797274063e-08</v>
+        <v>1.169275408298763e-08</v>
       </c>
       <c r="D2">
-        <v>7.941626444342817</v>
+        <v>7.932083184118578</v>
       </c>
       <c r="E2">
-        <v>1.143861797274063e-08</v>
+        <v>1.169275408298763e-08</v>
       </c>
       <c r="F2">
-        <v>2.459173416340322e-06</v>
+        <v>2.929342601843217e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -434,23 +434,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cell adhesion molecules</t>
+          <t>Cell adhesion molecules - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.1868131868131868</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="C3">
-        <v>2.005334545513568e-08</v>
+        <v>2.38702470456173e-08</v>
       </c>
       <c r="D3">
-        <v>7.69781316461462</v>
+        <v>7.62214308623023</v>
       </c>
       <c r="E3">
-        <v>2.005334545513568e-08</v>
+        <v>2.38702470456173e-08</v>
       </c>
       <c r="F3">
-        <v>2.459173416340322e-06</v>
+        <v>2.990062524661535e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -464,23 +464,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
+          <t>Glutamatergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.2123893805309734</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C4">
-        <v>2.13062685250901e-07</v>
+        <v>2.587755402885031e-07</v>
       </c>
       <c r="D4">
-        <v>6.671492603822298</v>
+        <v>6.587076775993101</v>
       </c>
       <c r="E4">
-        <v>2.13062685250901e-07</v>
+        <v>2.587755402885031e-07</v>
       </c>
       <c r="F4">
-        <v>1.741880900472279e-05</v>
+        <v>2.161002757496973e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -494,23 +494,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apelin signaling pathway</t>
+          <t>Apelin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B5">
         <v>0.1897810218978102</v>
       </c>
       <c r="C5">
-        <v>6.913959585573683e-07</v>
+        <v>7.06261158775362e-07</v>
       </c>
       <c r="D5">
-        <v>6.160273163383955</v>
+        <v>6.151034677358304</v>
       </c>
       <c r="E5">
-        <v>6.913959585573683e-07</v>
+        <v>7.06261158775362e-07</v>
       </c>
       <c r="F5">
-        <v>4.239348903785969e-05</v>
+        <v>4.423425152329898e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -524,23 +524,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dilated cardiomyopathy</t>
+          <t>Dilated cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B6">
         <v>0.2127659574468085</v>
       </c>
       <c r="C6">
-        <v>2.130159608559087e-06</v>
+        <v>2.164050597158216e-06</v>
       </c>
       <c r="D6">
-        <v>5.671587854533321</v>
+        <v>5.664732589309588</v>
       </c>
       <c r="E6">
-        <v>2.130159608559087e-06</v>
+        <v>2.164050597158216e-06</v>
       </c>
       <c r="F6">
-        <v>0.0001044899344830037</v>
+        <v>0.0001084303246576117</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -554,23 +554,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
+          <t>Hedgehog signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B7">
         <v>0.2586206896551724</v>
       </c>
       <c r="C7">
-        <v>3.134843250251418e-06</v>
+        <v>3.171895547523133e-06</v>
       </c>
       <c r="D7">
-        <v>5.503784170065416</v>
+        <v>5.498681122704129</v>
       </c>
       <c r="E7">
-        <v>3.134843250251418e-06</v>
+        <v>3.171895547523133e-06</v>
       </c>
       <c r="F7">
-        <v>0.0001117281222630214</v>
+        <v>0.000117058589304576</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -584,23 +584,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
+          <t>Rap1 signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B8">
         <v>0.1542056074766355</v>
       </c>
       <c r="C8">
-        <v>3.188806922957479e-06</v>
+        <v>3.270754701157272e-06</v>
       </c>
       <c r="D8">
-        <v>5.496371775781393</v>
+        <v>5.485352025709483</v>
       </c>
       <c r="E8">
-        <v>3.188806922957479e-06</v>
+        <v>3.270754701157272e-06</v>
       </c>
       <c r="F8">
-        <v>0.0001117281222630214</v>
+        <v>0.000117058589304576</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -614,23 +614,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Morphine addiction</t>
+          <t>Morphine addiction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B9">
         <v>0.2087912087912088</v>
       </c>
       <c r="C9">
-        <v>5.132719309246828e-06</v>
+        <v>5.207994658563759e-06</v>
       </c>
       <c r="D9">
-        <v>5.289652485160312</v>
+        <v>5.283329469861807</v>
       </c>
       <c r="E9">
-        <v>5.132719309246828e-06</v>
+        <v>5.207994658563759e-06</v>
       </c>
       <c r="F9">
-        <v>0.0001573583682966462</v>
+        <v>0.0001630924643076545</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -644,23 +644,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cGMP-PKG signaling pathway</t>
+          <t>cGMP-PKG signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B10">
         <v>0.161849710982659</v>
       </c>
       <c r="C10">
-        <v>6.96430859356729e-06</v>
+        <v>7.11137784981226e-06</v>
       </c>
       <c r="D10">
-        <v>5.157121993224708</v>
+        <v>5.148046245318549</v>
       </c>
       <c r="E10">
-        <v>6.96430859356729e-06</v>
+        <v>7.11137784981226e-06</v>
       </c>
       <c r="F10">
-        <v>0.0001788282811880309</v>
+        <v>0.0001783438561911531</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -674,23 +674,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B11">
         <v>0.2207792207792208</v>
       </c>
       <c r="C11">
-        <v>7.291281851014135e-06</v>
+        <v>7.386037262159296e-06</v>
       </c>
       <c r="D11">
-        <v>5.137196113398963</v>
+        <v>5.131588505687295</v>
       </c>
       <c r="E11">
-        <v>7.291281851014135e-06</v>
+        <v>7.386037262159296e-06</v>
       </c>
       <c r="F11">
-        <v>0.0001788282811880309</v>
+        <v>0.0001783438561911531</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -704,83 +704,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
+          <t>Calcium signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.2045454545454546</v>
+        <v>0.1422924901185771</v>
       </c>
       <c r="C12">
-        <v>1.226163455217825e-05</v>
+        <v>7.83064410587206e-06</v>
       </c>
       <c r="D12">
-        <v>4.911451631801797</v>
+        <v>5.106202513788661</v>
       </c>
       <c r="E12">
-        <v>1.226163455217825e-05</v>
+        <v>7.83064410587206e-06</v>
       </c>
       <c r="F12">
-        <v>0.0002733933828380414</v>
+        <v>0.0001783438561911531</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Itga4/Col4a6/Thbs3/Npnt/Cd44/Lamc3/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4/Col4a5</t>
+          <t>Hgf/Cacna1c/Kdr/Ryr1/Adra1a/Slc8a1/Nos3/P2rx2/Ednrb/Grin2b/Pde1b/Adcy3/Cacna1e/Ptgfr/Plcb1/Slc8a3/Adcy4/Adcy7/Vegfc/Cd38/Agtr1a/Pde1a/Ednra/Bdkrb2/Htr2a/Nfatc4/Plcb2/Asph/Ryr3/Cacna1h/Ptger3/Atp2b4/Pdgfrb/Cacna1a/F2r/Camk1</t>
         </is>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
+          <t>ECM-receptor interaction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.1416666666666667</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="C13">
-        <v>1.502672134177189e-05</v>
+        <v>1.464440289556066e-05</v>
       </c>
       <c r="D13">
-        <v>4.823135767151275</v>
+        <v>4.834328331353481</v>
       </c>
       <c r="E13">
-        <v>1.502672134177189e-05</v>
+        <v>1.464440289556066e-05</v>
       </c>
       <c r="F13">
-        <v>0.0003071250940906009</v>
+        <v>0.0003057340253634594</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hgf/Cacna1c/Kdr/Ryr1/Adra1a/Slc8a1/Nos3/P2rx2/Ednrb/Pde1b/Adcy3/Cacna1e/Ptgfr/Plcb1/Slc8a3/Adcy4/Adcy7/Vegfc/Cd38/Agtr1a/Pde1a/Ednra/Bdkrb2/Htr2a/Plcb2/Asph/Ryr3/Cacna1h/Ptger3/Atp2b4/Pdgfrb/Cacna1a/F2r/Camk1</t>
+          <t>Itga4/Col4a6/Thbs3/Npnt/Cd44/Lamc3/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4/Col4a5</t>
         </is>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Renin secretion</t>
+          <t>Renin secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B14">
         <v>0.2105263157894737</v>
       </c>
       <c r="C14">
-        <v>2.546696644216554e-05</v>
+        <v>2.576465540988117e-05</v>
       </c>
       <c r="D14">
-        <v>4.594022783968106</v>
+        <v>4.588975661648003</v>
       </c>
       <c r="E14">
-        <v>2.546696644216554e-05</v>
+        <v>2.576465540988117e-05</v>
       </c>
       <c r="F14">
-        <v>0.0004804698932003702</v>
+        <v>0.0004965172459556045</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -794,23 +794,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Relaxin signaling pathway</t>
+          <t>Relaxin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B15">
         <v>0.1705426356589147</v>
       </c>
       <c r="C15">
-        <v>2.916343395600523e-05</v>
+        <v>2.96208136281086e-05</v>
       </c>
       <c r="D15">
-        <v>4.535161339738885</v>
+        <v>4.528403016397361</v>
       </c>
       <c r="E15">
-        <v>2.916343395600523e-05</v>
+        <v>2.96208136281086e-05</v>
       </c>
       <c r="F15">
-        <v>0.0005109082790788885</v>
+        <v>0.0005300566649240485</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -824,23 +824,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cholinergic synapse</t>
+          <t>Cholinergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B16">
         <v>0.1785714285714286</v>
       </c>
       <c r="C16">
-        <v>3.376729634809469e-05</v>
+        <v>3.424818153020908e-05</v>
       </c>
       <c r="D16">
-        <v>4.471503710703318</v>
+        <v>4.465362483218621</v>
       </c>
       <c r="E16">
-        <v>3.376729634809469e-05</v>
+        <v>3.424818153020908e-05</v>
       </c>
       <c r="F16">
-        <v>0.0005521249157267413</v>
+        <v>0.000572004716083492</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -854,83 +854,83 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
+          <t>Axon guidance - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.1442786069651741</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="C17">
-        <v>4.518530349766689e-05</v>
+        <v>4.646860403596926e-05</v>
       </c>
       <c r="D17">
-        <v>4.34500279633297</v>
+        <v>4.332840373972212</v>
       </c>
       <c r="E17">
-        <v>4.518530349766689e-05</v>
+        <v>4.646860403596926e-05</v>
       </c>
       <c r="F17">
-        <v>0.0006581947220678126</v>
+        <v>0.0007276005105632028</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hgf/Itga4/Kdr/Igf1/Col4a6/Thbs3/Lamc3/Lama4/Ccnd2/Itgb7/Fn1/Shc3/Pip5k1b/Itga1/Col9a2/Lama2/Vegfc/Itga7/Parvg/Parvb/Flnc/Tln2/Fyn/Akt3/Pdgfrb/Cav1/Itga8/Itgb4/Col4a5</t>
+          <t>Epha8/Efnb3/Sema5a/Lrrc4c/Dcc/Plxnb1/Sema5b/Nrp1/Sema7a/Gnai1/Cxcl12/Trpc6/Gdf7/Epha3/Sema3g/Pard6g/Nfatc4/Epha7/Neo1/Ptch1/Fyn/Unc5c/Ngef/Sema6a/Ntng1/Bmp7/Slit3</t>
         </is>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
+          <t>Focal adhesion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.1491712707182321</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C18">
-        <v>4.562165133645997e-05</v>
+        <v>5.540983658797329e-05</v>
       </c>
       <c r="D18">
-        <v>4.340828998907402</v>
+        <v>4.256413130638618</v>
       </c>
       <c r="E18">
-        <v>4.562165133645997e-05</v>
+        <v>5.540983658797329e-05</v>
       </c>
       <c r="F18">
-        <v>0.0006581947220678126</v>
+        <v>0.0008002687583261379</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Epha8/Efnb3/Sema5a/Lrrc4c/Dcc/Plxnb1/Sema5b/Nrp1/Sema7a/Gnai1/Cxcl12/Trpc6/Gdf7/Epha3/Sema3g/Pard6g/Nfatc4/Epha7/Neo1/Ptch1/Fyn/Unc5c/Ngef/Sema6a/Ntng1/Bmp7/Slit3</t>
+          <t>Hgf/Itga4/Kdr/Igf1/Col4a6/Thbs3/Lamc3/Lama4/Ccnd2/Itgb7/Fn1/Shc3/Pip5k1b/Itga1/Col9a2/Lama2/Vegfc/Itga7/Parvg/Parvb/Flnc/Tln2/Fyn/Akt3/Pdgfrb/Cav1/Itga8/Itgb4/Col4a5</t>
         </is>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ras signaling pathway</t>
+          <t>Ras signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B19">
         <v>0.1361702127659574</v>
       </c>
       <c r="C19">
-        <v>5.900678921772666e-05</v>
+        <v>6.027175296617187e-05</v>
       </c>
       <c r="D19">
-        <v>4.229098016321197</v>
+        <v>4.2198861771655</v>
       </c>
       <c r="E19">
-        <v>5.900678921772666e-05</v>
+        <v>6.027175296617187e-05</v>
       </c>
       <c r="F19">
-        <v>0.0007717851921643964</v>
+        <v>0.0008002687583261379</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -944,23 +944,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
+          <t>Dopaminergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B20">
         <v>0.162962962962963</v>
       </c>
       <c r="C20">
-        <v>5.978850952174829e-05</v>
+        <v>6.069265162935626e-05</v>
       </c>
       <c r="D20">
-        <v>4.223382273048297</v>
+        <v>4.216863888002349</v>
       </c>
       <c r="E20">
-        <v>5.978850952174829e-05</v>
+        <v>6.069265162935626e-05</v>
       </c>
       <c r="F20">
-        <v>0.0007717851921643964</v>
+        <v>0.0008002687583261379</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -974,23 +974,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
+          <t>Protein digestion and absorption - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B21">
         <v>0.1759259259259259</v>
       </c>
       <c r="C21">
-        <v>6.530209757513213e-05</v>
+        <v>6.616062564546393e-05</v>
       </c>
       <c r="D21">
-        <v>4.185072868484887</v>
+        <v>4.179400396546685</v>
       </c>
       <c r="E21">
-        <v>6.530209757513213e-05</v>
+        <v>6.616062564546393e-05</v>
       </c>
       <c r="F21">
-        <v>0.0008008099334213572</v>
+        <v>0.0008287488896642324</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1004,23 +1004,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hypertrophic cardiomyopathy</t>
+          <t>Hypertrophic cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B22">
         <v>0.1868131868131868</v>
       </c>
       <c r="C22">
-        <v>7.221495893870569e-05</v>
+        <v>7.306759381922462e-05</v>
       </c>
       <c r="D22">
-        <v>4.141372831355259</v>
+        <v>4.136275194122407</v>
       </c>
       <c r="E22">
-        <v>7.221495893870569e-05</v>
+        <v>7.306759381922462e-05</v>
       </c>
       <c r="F22">
-        <v>0.0008434128036450339</v>
+        <v>0.000871683575387241</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1034,23 +1034,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PI3K-Akt signaling pathway</t>
+          <t>PI3K-Akt signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.1197771587743733</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C23">
-        <v>7.806067179703362e-05</v>
+        <v>0.0001103910969890535</v>
       </c>
       <c r="D23">
-        <v>4.107567715462031</v>
+        <v>3.957065950922394</v>
       </c>
       <c r="E23">
-        <v>7.806067179703362e-05</v>
+        <v>0.0001103910969890535</v>
       </c>
       <c r="F23">
-        <v>0.0008702457669238677</v>
+        <v>0.001212877240122476</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1064,83 +1064,83 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Salivary secretion</t>
+          <t>Hematopoietic cell lineage - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.1882352941176471</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="C24">
-        <v>0.0001065931529648461</v>
+        <v>0.0001113502844398156</v>
       </c>
       <c r="D24">
-        <v>3.972270691417219</v>
+        <v>3.953308669240769</v>
       </c>
       <c r="E24">
-        <v>0.0001065931529648461</v>
+        <v>0.0001113502844398156</v>
       </c>
       <c r="F24">
-        <v>0.001124918574025646</v>
+        <v>0.001212877240122476</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
+          <t>Itga4/Cd44/Il11ra1/Cd3g/Itga1/Flt3/Cd1d1/Kit/Mme/H2-Ab1/Cd38/H2-Ob/Kitl/H2-Eb1/H2-Aa/Il7r/Cd4</t>
         </is>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hematopoietic cell lineage</t>
+          <t>Salivary secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.1808510638297872</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C25">
-        <v>0.0001100778690462864</v>
+        <v>0.0001245236300237685</v>
       </c>
       <c r="D25">
-        <v>3.958299986361442</v>
+        <v>3.90474822756298</v>
       </c>
       <c r="E25">
-        <v>0.0001100778690462864</v>
+        <v>0.0001245236300237685</v>
       </c>
       <c r="F25">
-        <v>0.001124918574025646</v>
+        <v>0.001299851927441092</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Itga4/Cd44/Il11ra1/Cd3g/Itga1/Flt3/Cd1d1/Kit/Mme/H2-Ab1/Cd38/H2-Ob/Kitl/H2-Eb1/H2-Aa/Il7r/Cd4</t>
+          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
         </is>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chemokine signaling pathway</t>
+          <t>Chemokine signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B26">
         <v>0.140625</v>
       </c>
       <c r="C26">
-        <v>0.0001279990868637566</v>
+        <v>0.0001302338421323308</v>
       </c>
       <c r="D26">
-        <v>3.892793128566556</v>
+        <v>3.885276146785136</v>
       </c>
       <c r="E26">
-        <v>0.0001279990868637566</v>
+        <v>0.0001302338421323308</v>
       </c>
       <c r="F26">
-        <v>0.001255738410073907</v>
+        <v>0.001305080186420831</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1154,23 +1154,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GABAergic synapse</t>
+          <t>GABAergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B27">
         <v>0.1797752808988764</v>
       </c>
       <c r="C27">
-        <v>0.0001872188034945548</v>
+        <v>0.0001892101869134357</v>
       </c>
       <c r="D27">
-        <v>3.72765053463734</v>
+        <v>3.723055485264061</v>
       </c>
       <c r="E27">
-        <v>0.0001872188034945548</v>
+        <v>0.0001892101869134357</v>
       </c>
       <c r="F27">
-        <v>0.001766072113936489</v>
+        <v>0.001823158886048489</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1184,23 +1184,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Other types of O-glycan biosynthesis</t>
+          <t>Other types of O-glycan biosynthesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B28">
         <v>0.2325581395348837</v>
       </c>
       <c r="C28">
-        <v>0.0003601616643859623</v>
+        <v>0.0003625916304134531</v>
       </c>
       <c r="D28">
-        <v>3.443502515368964</v>
+        <v>3.440582224805331</v>
       </c>
       <c r="E28">
-        <v>0.0003601616643859623</v>
+        <v>0.0003625916304134531</v>
       </c>
       <c r="F28">
-        <v>0.003271643968886129</v>
+        <v>0.003364397974206699</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1214,23 +1214,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oxytocin signaling pathway</t>
+          <t>Oxytocin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B29">
         <v>0.1437908496732026</v>
       </c>
       <c r="C29">
-        <v>0.0003857294868497902</v>
+        <v>0.0003909363591726856</v>
       </c>
       <c r="D29">
-        <v>3.413717160494426</v>
+        <v>3.407893935979274</v>
       </c>
       <c r="E29">
-        <v>0.0003857294868497902</v>
+        <v>0.0003909363591726856</v>
       </c>
       <c r="F29">
-        <v>0.003378758287067711</v>
+        <v>0.003497851634702977</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1244,23 +1244,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Notch signaling pathway</t>
+          <t>Notch signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C30">
-        <v>0.0004285808975646367</v>
+        <v>0.0006877413557419822</v>
       </c>
       <c r="D30">
-        <v>3.36796718996043</v>
+        <v>3.162574859574629</v>
       </c>
       <c r="E30">
-        <v>0.0004285808975646367</v>
+        <v>0.0006877413557419822</v>
       </c>
       <c r="F30">
-        <v>0.003624658770691846</v>
+        <v>0.005690311990998057</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1274,83 +1274,83 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial migration</t>
+          <t>Phospholipase D signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.1525423728813559</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C31">
-        <v>0.0006285344347623371</v>
+        <v>0.0006891666554694535</v>
       </c>
       <c r="D31">
-        <v>3.201670924155263</v>
+        <v>3.161675743551264</v>
       </c>
       <c r="E31">
-        <v>0.0006285344347623371</v>
+        <v>0.0006891666554694535</v>
       </c>
       <c r="F31">
-        <v>0.005138544677179809</v>
+        <v>0.005690311990998057</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Itga4/Gnai1/Mmp2/Icam1/Itk/Jam3/Cxcl12/Cldn8/Cdh5/Thy1/Msn/Itgal/Esam/Pecam1/Cldn5/Cldn1/Sipa1/Jam2</t>
+          <t>Shc3/Pip5k1b/Lpar4/Adcy3/Ptgfr/Pik3r6/Plcb1/Plpp3/Kit/Adcy4/Adcy7/Dgkb/Agtr1a/Kitl/Plcb2/Fyn/Akt3/Plpp1/Pdgfrb/Pld2/F2r</t>
         </is>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phospholipase D signaling pathway</t>
+          <t>Leukocyte transendothelial migration - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.1409395973154362</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="C32">
-        <v>0.0006807008813081706</v>
+        <v>0.0007041163367012302</v>
       </c>
       <c r="D32">
-        <v>3.167043687110948</v>
+        <v>3.152355579191348</v>
       </c>
       <c r="E32">
-        <v>0.0006807008813081706</v>
+        <v>0.0007041163367012302</v>
       </c>
       <c r="F32">
-        <v>0.005385511217141044</v>
+        <v>0.005690311990998057</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Shc3/Pip5k1b/Lpar4/Adcy3/Ptgfr/Pik3r6/Plcb1/Plpp3/Kit/Adcy4/Adcy7/Dgkb/Agtr1a/Kitl/Plcb2/Fyn/Akt3/Plpp1/Pdgfrb/Pld2/F2r</t>
+          <t>Itga4/Gnai1/Mmp2/Icam1/Itk/Jam3/Cxcl12/Cldn8/Cdh5/Thy1/Msn/Itgal/Esam/Pecam1/Cldn5/Cldn1/Sipa1/Jam2</t>
         </is>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wnt signaling pathway</t>
+          <t>Wnt signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.1345029239766082</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C33">
-        <v>0.0007521465158264515</v>
+        <v>0.001051280015622004</v>
       </c>
       <c r="D33">
-        <v>3.123697551938978</v>
+        <v>2.978281591257849</v>
       </c>
       <c r="E33">
-        <v>0.0007521465158264515</v>
+        <v>0.001051280015622004</v>
       </c>
       <c r="F33">
-        <v>0.005764807177222474</v>
+        <v>0.008230415911777528</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1364,83 +1364,83 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAPK signaling pathway</t>
+          <t>Adrenergic signaling in cardiomyocytes - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.1156462585034014</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="C34">
-        <v>0.0008207712219073024</v>
+        <v>0.001258485598466458</v>
       </c>
       <c r="D34">
-        <v>3.085777879310673</v>
+        <v>2.900151749954582</v>
       </c>
       <c r="E34">
-        <v>0.0008207712219073024</v>
+        <v>0.001258485598466458</v>
       </c>
       <c r="F34">
-        <v>0.006100149751336569</v>
+        <v>0.009056591923517401</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hgf/Cacna1c/Angpt1/Kdr/Igf1/Rasgrp3/Cacna2d1/Areg/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Kitl/Rps6ka5/Arrb1/Cacng7/Flnc/Arrb2/Irak4/Cacna1h/Akt3/Pdgfrb/Map4k2/Cacna1a/Mknk2/Cacnb4/Myc/Ptpn7</t>
+          <t>Cacna1c/Adra1a/Slc8a1/Scn4b/Gnai1/Cacna2d1/Adcy3/Pik3r6/Plcb1/Slc8a3/Adcy4/Adcy7/Agtr1a/Myl3/Rps6ka5/Cacng7/Plcb2/Akt3/Atp2b4/Atp1a2/Cacnb4</t>
         </is>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Adrenergic signaling in cardiomyocytes</t>
+          <t>MAPK signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.1346153846153846</v>
+        <v>0.1129568106312292</v>
       </c>
       <c r="C35">
-        <v>0.001243743602985396</v>
+        <v>0.001261450242202019</v>
       </c>
       <c r="D35">
-        <v>2.905269139971073</v>
+        <v>2.899129875517617</v>
       </c>
       <c r="E35">
-        <v>0.001243743602985396</v>
+        <v>0.001261450242202019</v>
       </c>
       <c r="F35">
-        <v>0.008775119663483254</v>
+        <v>0.009056591923517401</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cacna1c/Adra1a/Slc8a1/Scn4b/Gnai1/Cacna2d1/Adcy3/Pik3r6/Plcb1/Slc8a3/Adcy4/Adcy7/Agtr1a/Myl3/Rps6ka5/Cacng7/Plcb2/Akt3/Atp2b4/Atp1a2/Cacnb4</t>
+          <t>Hgf/Cacna1c/Angpt1/Kdr/Igf1/Rasgrp3/Cacna2d1/Areg/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Kitl/Rps6ka5/Arrb1/Cacng7/Flnc/Arrb2/Irak4/Cacna1h/Akt3/Pdgfrb/Map4k2/Cacna1a/Mknk2/Cacnb4/Myc/Ptpn7</t>
         </is>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Platelet activation</t>
+          <t>Platelet activation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B36">
         <v>0.144</v>
       </c>
       <c r="C36">
-        <v>0.001252243471291065</v>
+        <v>0.001265259165785519</v>
       </c>
       <c r="D36">
-        <v>2.902311223874547</v>
+        <v>2.897820507893385</v>
       </c>
       <c r="E36">
-        <v>0.001252243471291065</v>
+        <v>0.001265259165785519</v>
       </c>
       <c r="F36">
-        <v>0.008775119663483254</v>
+        <v>0.009056591923517401</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1454,23 +1454,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Th1 and Th2 cell differentiation</t>
+          <t>Th1 and Th2 cell differentiation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B37">
         <v>0.1590909090909091</v>
       </c>
       <c r="C37">
-        <v>0.001626252105879901</v>
+        <v>0.001639647711756045</v>
       </c>
       <c r="D37">
-        <v>2.788812128049771</v>
+        <v>2.785249452729961</v>
       </c>
       <c r="E37">
-        <v>0.001626252105879901</v>
+        <v>0.001639647711756045</v>
       </c>
       <c r="F37">
-        <v>0.0110794368616964</v>
+        <v>0.01141041390052452</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1484,23 +1484,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
+          <t>Proteoglycans in cancer - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B38">
         <v>0.1219512195121951</v>
       </c>
       <c r="C38">
-        <v>0.001882142921520761</v>
+        <v>0.00190704937761279</v>
       </c>
       <c r="D38">
-        <v>2.725347401274813</v>
+        <v>2.719638061989579</v>
       </c>
       <c r="E38">
-        <v>0.001882142921520761</v>
+        <v>0.00190704937761279</v>
       </c>
       <c r="F38">
-        <v>0.0124762247713894</v>
+        <v>0.01291259607032273</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1514,23 +1514,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
+          <t>Basal cell carcinoma - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B39">
         <v>0.1746031746031746</v>
       </c>
       <c r="C39">
-        <v>0.002359346116694906</v>
+        <v>0.002374783645373249</v>
       </c>
       <c r="D39">
-        <v>2.627208343326184</v>
+        <v>2.624375950628836</v>
       </c>
       <c r="E39">
-        <v>0.002359346116694906</v>
+        <v>0.002374783645373249</v>
       </c>
       <c r="F39">
-        <v>0.01522791260913887</v>
+        <v>0.01565646835453832</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1544,23 +1544,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cAMP signaling pathway</t>
+          <t>cAMP signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B40">
         <v>0.1160714285714286</v>
       </c>
       <c r="C40">
-        <v>0.003091865333793119</v>
+        <v>0.003132062729993528</v>
       </c>
       <c r="D40">
-        <v>2.509779430039671</v>
+        <v>2.504169548332734</v>
       </c>
       <c r="E40">
-        <v>0.003091865333793119</v>
+        <v>0.003132062729993528</v>
       </c>
       <c r="F40">
-        <v>0.01944411937311192</v>
+        <v>0.02011959324530255</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1574,23 +1574,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Serotonergic synapse</t>
+          <t>Serotonergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B41">
         <v>0.1297709923664122</v>
       </c>
       <c r="C41">
-        <v>0.005116695650058385</v>
+        <v>0.00516128267534629</v>
       </c>
       <c r="D41">
-        <v>2.291010414849498</v>
+        <v>2.287242354651963</v>
       </c>
       <c r="E41">
-        <v>0.005116695650058385</v>
+        <v>0.00516128267534629</v>
       </c>
       <c r="F41">
-        <v>0.03103939827434994</v>
+        <v>0.03188546633194549</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1604,23 +1604,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Long-term depression</t>
+          <t>Long-term depression - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B42">
         <v>0.1666666666666667</v>
       </c>
       <c r="C42">
-        <v>0.0051887749475791</v>
+        <v>0.005218230729534776</v>
       </c>
       <c r="D42">
-        <v>2.284935165524791</v>
+        <v>2.282476722026061</v>
       </c>
       <c r="E42">
-        <v>0.0051887749475791</v>
+        <v>0.005218230729534776</v>
       </c>
       <c r="F42">
-        <v>0.03103939827434994</v>
+        <v>0.03188546633194549</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1634,23 +1634,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
+          <t>Melanogenesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B43">
         <v>0.14</v>
       </c>
       <c r="C43">
-        <v>0.005424556549960039</v>
+        <v>0.005464766329974828</v>
       </c>
       <c r="D43">
-        <v>2.265635759005154</v>
+        <v>2.262428403480451</v>
       </c>
       <c r="E43">
-        <v>0.005424556549960039</v>
+        <v>0.005464766329974828</v>
       </c>
       <c r="F43">
-        <v>0.03167723499099471</v>
+        <v>0.03259685179283231</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1664,23 +1664,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in diabetic complications</t>
+          <t>AGE-RAGE signaling pathway in diabetic complications - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B44">
         <v>0.1386138613861386</v>
       </c>
       <c r="C44">
-        <v>0.005930578017092864</v>
+        <v>0.005974142638152277</v>
       </c>
       <c r="D44">
-        <v>2.226902976551366</v>
+        <v>2.223724412427753</v>
       </c>
       <c r="E44">
-        <v>0.005930578017092864</v>
+        <v>0.005974142638152277</v>
       </c>
       <c r="F44">
-        <v>0.03321607968158658</v>
+        <v>0.03410246963516054</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1694,83 +1694,83 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ABC transporters</t>
+          <t>Intestinal immune network for IgA production - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.1730769230769231</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C45">
-        <v>0.006094223133925418</v>
+        <v>0.006122836546089709</v>
       </c>
       <c r="D45">
-        <v>2.215081648561252</v>
+        <v>2.213047334240374</v>
       </c>
       <c r="E45">
-        <v>0.006094223133925418</v>
+        <v>0.006122836546089709</v>
       </c>
       <c r="F45">
-        <v>0.03321607968158658</v>
+        <v>0.03410246963516054</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Abcg2/Abca5/Abcg1/Abca8b/Abcd2/Abcb1a/Abcc5/Abcg3/Abcg4</t>
+          <t>Itga4/Itgb7/Cxcl12/Tnfsf13b/H2-Ab1/H2-Ob/H2-Eb1/H2-Aa</t>
         </is>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intestinal immune network for IgA production</t>
+          <t>ABC transporters - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.186046511627907</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="C46">
-        <v>0.006094366551020714</v>
+        <v>0.006125548642450055</v>
       </c>
       <c r="D46">
-        <v>2.215071428305306</v>
+        <v>2.212855007091153</v>
       </c>
       <c r="E46">
-        <v>0.006094366551020714</v>
+        <v>0.006125548642450055</v>
       </c>
       <c r="F46">
-        <v>0.03321607968158658</v>
+        <v>0.03410246963516054</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Itga4/Itgb7/Cxcl12/Tnfsf13b/H2-Ab1/H2-Ob/H2-Eb1/H2-Aa</t>
+          <t>Abcg2/Abca5/Abcg1/Abca8b/Abcd2/Abcb1a/Abcc5/Abcg3/Abcg4</t>
         </is>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aldosterone synthesis and secretion</t>
+          <t>Aldosterone synthesis and secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B47">
         <v>0.1372549019607843</v>
       </c>
       <c r="C47">
-        <v>0.00647377847361695</v>
+        <v>0.006520902908295407</v>
       </c>
       <c r="D47">
-        <v>2.188842165812624</v>
+        <v>2.18569226608689</v>
       </c>
       <c r="E47">
-        <v>0.00647377847361695</v>
+        <v>0.006520902908295407</v>
       </c>
       <c r="F47">
-        <v>0.03451694243370136</v>
+        <v>0.0355142995920894</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1784,23 +1784,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Taste transduction</t>
+          <t>Taste transduction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B48">
         <v>0.1413043478260869</v>
       </c>
       <c r="C48">
-        <v>0.006692356783282755</v>
+        <v>0.006738127168010625</v>
       </c>
       <c r="D48">
-        <v>2.174420913961804</v>
+        <v>2.171460796880555</v>
       </c>
       <c r="E48">
-        <v>0.006692356783282755</v>
+        <v>0.006738127168010625</v>
       </c>
       <c r="F48">
-        <v>0.03492316081757854</v>
+        <v>0.0359165569089928</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1814,23 +1814,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gap junction</t>
+          <t>Gap junction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B49">
         <v>0.1395348837209302</v>
       </c>
       <c r="C49">
-        <v>0.009920370279861679</v>
+        <v>0.009981441359238218</v>
       </c>
       <c r="D49">
-        <v>2.003472117412403</v>
+        <v>2.000806740359438</v>
       </c>
       <c r="E49">
-        <v>0.009920370279861679</v>
+        <v>0.009981441359238218</v>
       </c>
       <c r="F49">
-        <v>0.05068961129841603</v>
+        <v>0.0520961193749714</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1844,23 +1844,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis - keratan sulfate</t>
+          <t>Glycosaminoglycan biosynthesis - keratan sulfate - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B50">
         <v>0.2857142857142857</v>
       </c>
       <c r="C50">
-        <v>0.0107648913778264</v>
+        <v>0.01079204304337517</v>
       </c>
       <c r="D50">
-        <v>1.96799034802801</v>
+        <v>1.966896331176864</v>
       </c>
       <c r="E50">
-        <v>0.0107648913778264</v>
+        <v>0.01079204304337517</v>
       </c>
       <c r="F50">
-        <v>0.05320214813693423</v>
+        <v>0.05467502332097281</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1874,23 +1874,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis</t>
+          <t>Rheumatoid arthritis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B51">
         <v>0.1379310344827586</v>
       </c>
       <c r="C51">
-        <v>0.01084593148714324</v>
+        <v>0.0109120319653202</v>
       </c>
       <c r="D51">
-        <v>1.964733143294406</v>
+        <v>1.96209437047885</v>
       </c>
       <c r="E51">
-        <v>0.01084593148714324</v>
+        <v>0.0109120319653202</v>
       </c>
       <c r="F51">
-        <v>0.05320214813693423</v>
+        <v>0.05467502332097281</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1904,23 +1904,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vascular smooth muscle contraction</t>
+          <t>Vascular smooth muscle contraction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B52">
         <v>0.1180555555555556</v>
       </c>
       <c r="C52">
-        <v>0.01288511778453223</v>
+        <v>0.01298572857336893</v>
       </c>
       <c r="D52">
-        <v>1.889911607152766</v>
+        <v>1.886533678955952</v>
       </c>
       <c r="E52">
-        <v>0.01288511778453223</v>
+        <v>0.01298572857336893</v>
       </c>
       <c r="F52">
-        <v>0.06196558191529431</v>
+        <v>0.06378954386918069</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1934,23 +1934,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine metabolism</t>
+          <t>Glycine, serine and threonine metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B53">
         <v>0.175</v>
       </c>
       <c r="C53">
-        <v>0.0140498974252189</v>
+        <v>0.01410458497442794</v>
       </c>
       <c r="D53">
-        <v>1.852326846422533</v>
+        <v>1.850639688379057</v>
       </c>
       <c r="E53">
-        <v>0.0140498974252189</v>
+        <v>0.01410458497442794</v>
       </c>
       <c r="F53">
-        <v>0.06448788918516593</v>
+        <v>0.06640209091538557</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1964,23 +1964,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Purine metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B54">
         <v>0.1194029850746269</v>
       </c>
       <c r="C54">
-        <v>0.01405914423298315</v>
+        <v>0.01416270859757523</v>
       </c>
       <c r="D54">
-        <v>1.852041113612363</v>
+        <v>1.848853680510103</v>
       </c>
       <c r="E54">
-        <v>0.01405914423298315</v>
+        <v>0.01416270859757523</v>
       </c>
       <c r="F54">
-        <v>0.06448788918516593</v>
+        <v>0.06640209091538557</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1994,23 +1994,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
+          <t>Hippo signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B55">
         <v>0.1146496815286624</v>
       </c>
       <c r="C55">
-        <v>0.01419840650300005</v>
+        <v>0.01431271959646756</v>
       </c>
       <c r="D55">
-        <v>1.847760394052648</v>
+        <v>1.844277836993592</v>
       </c>
       <c r="E55">
-        <v>0.01419840650300005</v>
+        <v>0.01431271959646756</v>
       </c>
       <c r="F55">
-        <v>0.06448788918516593</v>
+        <v>0.06640209091538557</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2024,23 +2024,23 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid signaling</t>
+          <t>Retrograde endocannabinoid signaling - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B56">
         <v>0.1148648648648649</v>
       </c>
       <c r="C56">
-        <v>0.01657974111700936</v>
+        <v>0.0167047466949845</v>
       </c>
       <c r="D56">
-        <v>1.780422254987921</v>
+        <v>1.777160105467606</v>
       </c>
       <c r="E56">
-        <v>0.01657974111700936</v>
+        <v>0.0167047466949845</v>
       </c>
       <c r="F56">
-        <v>0.07393453933518047</v>
+        <v>0.07609052083074277</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2054,23 +2054,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cortisol synthesis and secretion</t>
+          <t>Cortisol synthesis and secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B57">
         <v>0.1388888888888889</v>
       </c>
       <c r="C57">
-        <v>0.01830490608465231</v>
+        <v>0.01839599144515875</v>
       </c>
       <c r="D57">
-        <v>1.737432494972666</v>
+        <v>1.735276801061536</v>
       </c>
       <c r="E57">
-        <v>0.01830490608465231</v>
+        <v>0.01839599144515875</v>
       </c>
       <c r="F57">
-        <v>0.08016998341586445</v>
+        <v>0.08229785646518387</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2084,23 +2084,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Th17 cell differentiation</t>
+          <t>Th17 cell differentiation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B58">
         <v>0.1238095238095238</v>
       </c>
       <c r="C58">
-        <v>0.01931297167252802</v>
+        <v>0.01942931578962042</v>
       </c>
       <c r="D58">
-        <v>1.714150896511362</v>
+        <v>1.71154249296812</v>
       </c>
       <c r="E58">
-        <v>0.01931297167252802</v>
+        <v>0.01942931578962042</v>
       </c>
       <c r="F58">
-        <v>0.08310106001290914</v>
+        <v>0.08539570005410266</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2114,23 +2114,23 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GnRH secretion</t>
+          <t>GnRH secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B59">
         <v>0.1428571428571428</v>
       </c>
       <c r="C59">
-        <v>0.02074896243848218</v>
+        <v>0.02084278894704997</v>
       </c>
       <c r="D59">
-        <v>1.683003615506493</v>
+        <v>1.681044169092556</v>
       </c>
       <c r="E59">
-        <v>0.02074896243848218</v>
+        <v>0.02084278894704997</v>
       </c>
       <c r="F59">
-        <v>0.08774062156381758</v>
+        <v>0.09002874354624123</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2144,113 +2144,113 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis - lacto and neolacto series</t>
+          <t>Bacterial invasion of epithelial cells - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.1923076923076923</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C60">
-        <v>0.0247722594927853</v>
+        <v>0.02595761092665728</v>
       </c>
       <c r="D60">
-        <v>1.606034379344911</v>
+        <v>1.58573528140616</v>
       </c>
       <c r="E60">
-        <v>0.0247722594927853</v>
+        <v>0.02595761092665728</v>
       </c>
       <c r="F60">
-        <v>0.102978349006583</v>
+        <v>0.1095591947956116</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>B4galt2/B3galnt1/Ggta1/B3gnt5/St3gal4</t>
+          <t>Hcls1/Fn1/Shc3/Septin3/Arhgap10/Arhgef26/Elmo2/Cav1/Actr3b/Septin6</t>
         </is>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bacterial invasion of epithelial cells</t>
+          <t>Cardiac muscle contraction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B61">
-        <v>0.131578947368421</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="C61">
-        <v>0.02583482615862664</v>
+        <v>0.02623896682079774</v>
       </c>
       <c r="D61">
-        <v>1.587794456456356</v>
+        <v>1.58105326963404</v>
       </c>
       <c r="E61">
-        <v>0.02583482615862664</v>
+        <v>0.02623896682079774</v>
       </c>
       <c r="F61">
-        <v>0.1049645703705877</v>
+        <v>0.1095591947956116</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hcls1/Fn1/Shc3/Septin3/Arhgap10/Arhgef26/Elmo2/Cav1/Actr3b/Septin6</t>
+          <t>Cacna1c/Slc8a1/Cacna2d1/Slc9a7/Slc8a3/Myl3/Cacng7/Asph/Cox4i2/Atp1a2/Cacnb4</t>
         </is>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cardiac muscle contraction</t>
+          <t>TGF-beta signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B62">
-        <v>0.1264367816091954</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="C62">
-        <v>0.02610599507714831</v>
+        <v>0.02744285152034162</v>
       </c>
       <c r="D62">
-        <v>1.583259748219277</v>
+        <v>1.561570764131189</v>
       </c>
       <c r="E62">
-        <v>0.02610599507714831</v>
+        <v>0.02744285152034162</v>
       </c>
       <c r="F62">
-        <v>0.1049645703705877</v>
+        <v>0.1127074833794876</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cacna1c/Slc8a1/Cacna2d1/Slc9a7/Slc8a3/Myl3/Cacng7/Asph/Cox4i2/Atp1a2/Cacnb4</t>
+          <t>Nog/Fst/Id3/Id4/Gdf7/Tgif2/Emp3/Smad9/Neo1/Nrros/Zfyve9/Bmp7/Myc</t>
         </is>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Viral myocarditis</t>
+          <t>Viral myocarditis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B63">
         <v>0.125</v>
       </c>
       <c r="C63">
-        <v>0.0281444546220997</v>
+        <v>0.0282862204283068</v>
       </c>
       <c r="D63">
-        <v>1.55060716259829</v>
+        <v>1.548425078587178</v>
       </c>
       <c r="E63">
-        <v>0.0281444546220997</v>
+        <v>0.0282862204283068</v>
       </c>
       <c r="F63">
-        <v>0.1113354486748596</v>
+        <v>0.1142974611534299</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2264,207 +2264,207 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Regulation of actin cytoskeleton</t>
+          <t>Glycosphingolipid biosynthesis - lacto and neolacto series - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B64">
-        <v>0.09956709956709957</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C64">
-        <v>0.02896840067688752</v>
+        <v>0.02889577754692383</v>
       </c>
       <c r="D64">
-        <v>1.538075481198576</v>
+        <v>1.539165614753747</v>
       </c>
       <c r="E64">
-        <v>0.02896840067688752</v>
+        <v>0.02889577754692383</v>
       </c>
       <c r="F64">
-        <v>0.1127758957011661</v>
+        <v>0.1143753628692327</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Itga4/Itgb7/Fn1/Pip5k1b/Pfn2/Lpar4/Cxcl12/Itga1/Msn/Abi2/Itgal/Itga7/Scin/Nckap1l/Bdkrb2/Fgd1/Akt3/Pdgfrb/Cyfip2/Actr3b/Itga8/Itgb4/F2r</t>
+          <t>B4galt2/B3galnt1/Ggta1/B3gnt5/St3gal4</t>
         </is>
       </c>
       <c r="H64">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in adipocytes</t>
+          <t>Regulation of actin cytoskeleton - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B65">
-        <v>0.1403508771929824</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="C65">
-        <v>0.03123061122727969</v>
+        <v>0.029218580094325</v>
       </c>
       <c r="D65">
-        <v>1.505419515928716</v>
+        <v>1.534340892856984</v>
       </c>
       <c r="E65">
-        <v>0.03123061122727969</v>
+        <v>0.029218580094325</v>
       </c>
       <c r="F65">
-        <v>0.1196830989466475</v>
+        <v>0.1143753628692327</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gnai1/Adcy3/Adcy4/Adcy7/Akt3/Ptger3/Lipe/Irs1</t>
+          <t>Itga4/Itgb7/Fn1/Pip5k1b/Pfn2/Lpar4/Cxcl12/Itga1/Msn/Abi2/Itgal/Itga7/Scin/Nckap1l/Bdkrb2/Fgd1/Akt3/Pdgfrb/Cyfip2/Actr3b/Itga8/Itgb4/F2r</t>
         </is>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Regulation of lipolysis in adipocytes - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.2105263157894737</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="C66">
-        <v>0.03214926305776517</v>
+        <v>0.03135306396084432</v>
       </c>
       <c r="D66">
-        <v>1.492828977751088</v>
+        <v>1.503720011571183</v>
       </c>
       <c r="E66">
-        <v>0.03214926305776517</v>
+        <v>0.03135306396084432</v>
       </c>
       <c r="F66">
-        <v>0.1213081504851706</v>
+        <v>0.1208425785049546</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Acsl6/Acacb/Acsl1/Olah</t>
+          <t>Gnai1/Adcy3/Adcy4/Adcy7/Akt3/Ptger3/Lipe/Irs1</t>
         </is>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ether lipid metabolism</t>
+          <t>Fatty acid biosynthesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.1458333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C67">
-        <v>0.03543972054276123</v>
+        <v>0.03222336490615854</v>
       </c>
       <c r="D67">
-        <v>1.45050971136781</v>
+        <v>1.491829110599815</v>
       </c>
       <c r="E67">
-        <v>0.03543972054276123</v>
+        <v>0.03222336490615854</v>
       </c>
       <c r="F67">
-        <v>0.1316978450791606</v>
+        <v>0.1223151650345412</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pla2g10/Plpp3/Lpcat1/Plpp1/Pld2/Enpp2/Pafah2</t>
+          <t>Acsl6/Acacb/Acsl1/Olah</t>
         </is>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fatty acid elongation</t>
+          <t>Ether lipid metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.1724137931034483</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C68">
-        <v>0.03809282037327102</v>
+        <v>0.0355633690686519</v>
       </c>
       <c r="D68">
-        <v>1.419156871203509</v>
+        <v>1.4489971031963</v>
       </c>
       <c r="E68">
-        <v>0.03809282037327102</v>
+        <v>0.0355633690686519</v>
       </c>
       <c r="F68">
-        <v>0.1394442599681406</v>
+        <v>0.132978504922846</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Elovl4/Them5/Echs1/Acot7/Hacd1</t>
+          <t>Pla2g10/Plpp3/Lpcat1/Plpp1/Pld2/Enpp2/Pafah2</t>
         </is>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Endocrine and other factor-regulated calcium reabsorption</t>
+          <t>Fatty acid elongation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.1311475409836066</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C69">
-        <v>0.0444024762196873</v>
+        <v>0.03819513649059478</v>
       </c>
       <c r="D69">
-        <v>1.352592809647562</v>
+        <v>1.417991933679076</v>
       </c>
       <c r="E69">
-        <v>0.0444024762196873</v>
+        <v>0.03819513649059478</v>
       </c>
       <c r="F69">
-        <v>0.160151346117448</v>
+        <v>0.1407189239127176</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Slc8a1/Plcb1/Slc8a3/Pth1r/Bdkrb2/Plcb2/Atp2b4/Atp1a2</t>
+          <t>Elovl4/Them5/Echs1/Acot7/Hacd1</t>
         </is>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fatty acid metabolism</t>
+          <t>Endocrine and other factor-regulated calcium reabsorption - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.1290322580645161</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C70">
-        <v>0.04818970590396289</v>
+        <v>0.044567596971052</v>
       </c>
       <c r="D70">
-        <v>1.317045724138215</v>
+        <v>1.350980781896477</v>
       </c>
       <c r="E70">
-        <v>0.04818970590396289</v>
+        <v>0.044567596971052</v>
       </c>
       <c r="F70">
-        <v>0.1706709702742812</v>
+        <v>0.1618167517789531</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Acsl6/Fads2/Fads1/Elovl4/Echs1/Cpt1c/Acsl1/Hacd1</t>
+          <t>Slc8a1/Plcb1/Slc8a3/Pth1r/Bdkrb2/Plcb2/Atp2b4/Atp1a2</t>
         </is>
       </c>
       <c r="H70">
@@ -2474,53 +2474,53 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TGF-beta signaling pathway</t>
+          <t>Fatty acid metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.1145833333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C71">
-        <v>0.04871081340446223</v>
+        <v>0.04836651623533929</v>
       </c>
       <c r="D71">
-        <v>1.312374618239357</v>
+        <v>1.315455193038584</v>
       </c>
       <c r="E71">
-        <v>0.04871081340446223</v>
+        <v>0.04836651623533929</v>
       </c>
       <c r="F71">
-        <v>0.1706709702742812</v>
+        <v>0.1731012160001617</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nog/Fst/Id3/Id4/Gdf7/Tgif2/Smad9/Neo1/Zfyve9/Bmp7/Myc</t>
+          <t>Acsl6/Fads2/Fads1/Elovl4/Echs1/Cpt1c/Acsl1/Hacd1</t>
         </is>
       </c>
       <c r="H71">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Parathyroid hormone synthesis, secretion and action</t>
+          <t>Parathyroid hormone synthesis, secretion and action - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B72">
         <v>0.1111111111111111</v>
       </c>
       <c r="C72">
-        <v>0.04963577868412541</v>
+        <v>0.04987763251255527</v>
       </c>
       <c r="D72">
-        <v>1.304205160536432</v>
+        <v>1.302094168889059</v>
       </c>
       <c r="E72">
-        <v>0.04963577868412541</v>
+        <v>0.04987763251255527</v>
       </c>
       <c r="F72">
-        <v>0.1711655846279244</v>
+        <v>0.1755282056048512</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2589,23 +2589,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
+          <t>Circadian entrainment - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B2">
         <v>0.2448979591836735</v>
       </c>
       <c r="C2">
-        <v>8.018090731002057e-10</v>
+        <v>8.374588667649118e-10</v>
       </c>
       <c r="D2">
-        <v>9.0959290336741</v>
+        <v>9.077036514888995</v>
       </c>
       <c r="E2">
-        <v>8.018090731002057e-10</v>
+        <v>8.374588667649118e-10</v>
       </c>
       <c r="F2">
-        <v>1.949662061959447e-07</v>
+        <v>2.071608775681624e-07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2619,23 +2619,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apelin signaling pathway</t>
+          <t>Apelin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B3">
         <v>0.1897810218978102</v>
       </c>
       <c r="C3">
-        <v>4.993736323225324e-08</v>
+        <v>5.214502686683918e-08</v>
       </c>
       <c r="D3">
-        <v>7.301574392779912</v>
+        <v>7.282787104443161</v>
       </c>
       <c r="E3">
-        <v>4.993736323225324e-08</v>
+        <v>5.214502686683918e-08</v>
       </c>
       <c r="F3">
-        <v>6.071332056131842e-06</v>
+        <v>6.449516480898529e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2649,23 +2649,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
+          <t>Glutamatergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.2035398230088496</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="C4">
-        <v>7.7834938898981e-08</v>
+        <v>9.59682686941624e-08</v>
       </c>
       <c r="D4">
-        <v>7.108825411173729</v>
+        <v>7.017872339971202</v>
       </c>
       <c r="E4">
-        <v>7.7834938898981e-08</v>
+        <v>9.59682686941624e-08</v>
       </c>
       <c r="F4">
-        <v>6.308726626548987e-06</v>
+        <v>7.913173032676549e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2679,23 +2679,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dilated cardiomyopathy</t>
+          <t>Dilated cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B5">
         <v>0.2127659574468085</v>
       </c>
       <c r="C5">
-        <v>2.582924048661486e-07</v>
+        <v>2.668864017293919e-07</v>
       </c>
       <c r="D5">
-        <v>6.587888364144985</v>
+        <v>6.573673553617277</v>
       </c>
       <c r="E5">
-        <v>2.582924048661486e-07</v>
+        <v>2.668864017293919e-07</v>
       </c>
       <c r="F5">
-        <v>1.57014593484422e-05</v>
+        <v>1.65048169490545e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2709,23 +2709,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cell adhesion molecules</t>
+          <t>Cell adhesion molecules - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1593406593406593</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C6">
-        <v>4.434286468323199e-07</v>
+        <v>5.22099116977394e-07</v>
       </c>
       <c r="D6">
-        <v>6.35317625357759</v>
+        <v>6.2822470413079</v>
       </c>
       <c r="E6">
-        <v>4.434286468323199e-07</v>
+        <v>5.22099116977394e-07</v>
       </c>
       <c r="F6">
-        <v>2.156463524595072e-05</v>
+        <v>2.583016683993423e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2739,23 +2739,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B7">
         <v>0.2207792207792208</v>
       </c>
       <c r="C7">
-        <v>1.186108151577573e-06</v>
+        <v>1.218857706751965e-06</v>
       </c>
       <c r="D7">
-        <v>5.925875709376567</v>
+        <v>5.914046992313932</v>
       </c>
       <c r="E7">
-        <v>1.186108151577573e-06</v>
+        <v>1.218857706751965e-06</v>
       </c>
       <c r="F7">
-        <v>4.806859351130165e-05</v>
+        <v>5.025115106784416e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2769,23 +2769,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cGMP-PKG signaling pathway</t>
+          <t>cGMP-PKG signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B8">
         <v>0.1560693641618497</v>
       </c>
       <c r="C8">
-        <v>1.683251091312497e-06</v>
+        <v>1.752899611704977e-06</v>
       </c>
       <c r="D8">
-        <v>5.773851095291122</v>
+        <v>5.756242955173165</v>
       </c>
       <c r="E8">
-        <v>1.683251091312497e-06</v>
+        <v>1.752899611704977e-06</v>
       </c>
       <c r="F8">
-        <v>5.847082738243413e-05</v>
+        <v>6.194457274446159e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2799,23 +2799,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Morphine addiction</t>
+          <t>Morphine addiction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B9">
         <v>0.1978021978021978</v>
       </c>
       <c r="C9">
-        <v>3.139738932769213e-06</v>
+        <v>3.228552676215837e-06</v>
       </c>
       <c r="D9">
-        <v>5.503106461726577</v>
+        <v>5.490992123365858</v>
       </c>
       <c r="E9">
-        <v>3.139738932769213e-06</v>
+        <v>3.228552676215837e-06</v>
       </c>
       <c r="F9">
-        <v>9.188557534566696e-05</v>
+        <v>9.558548356740561e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2829,23 +2829,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
+          <t>Hedgehog signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B10">
         <v>0.2413793103448276</v>
       </c>
       <c r="C10">
-        <v>3.40095960695001e-06</v>
+        <v>3.477684614899226e-06</v>
       </c>
       <c r="D10">
-        <v>5.468398526133403</v>
+        <v>5.458709805950194</v>
       </c>
       <c r="E10">
-        <v>3.40095960695001e-06</v>
+        <v>3.477684614899226e-06</v>
       </c>
       <c r="F10">
-        <v>9.188557534566696e-05</v>
+        <v>9.558548356740561e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2859,23 +2859,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cholinergic synapse</t>
+          <t>Cholinergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B11">
         <v>0.1785714285714286</v>
       </c>
       <c r="C11">
-        <v>4.735442949057867e-06</v>
+        <v>4.880562430772862e-06</v>
       </c>
       <c r="D11">
-        <v>5.324639391246929</v>
+        <v>5.311530127483683</v>
       </c>
       <c r="E11">
-        <v>4.735442949057867e-06</v>
+        <v>4.880562430772862e-06</v>
       </c>
       <c r="F11">
-        <v>0.0001151460338139334</v>
+        <v>0.0001207297022349076</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2889,263 +2889,263 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
+          <t>Calcium signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.1931818181818182</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C12">
-        <v>8.228688826105801e-06</v>
+        <v>7.569758839693926e-06</v>
       </c>
       <c r="D12">
-        <v>5.084669360529175</v>
+        <v>5.120917956201183</v>
       </c>
       <c r="E12">
-        <v>8.228688826105801e-06</v>
+        <v>7.569758839693926e-06</v>
       </c>
       <c r="F12">
-        <v>0.0001818973319454967</v>
+        <v>0.0001702290265385715</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Itga4/Col4a6/Npnt/Thbs3/Lamc3/Cd44/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4</t>
+          <t>Hgf/Cacna1c/Ryr1/Kdr/Adra1a/Nos3/Slc8a1/P2rx2/Ednrb/Grin2b/Pde1b/Adcy3/Cacna1e/Ptgfr/Slc8a3/Plcb1/Adcy4/Adcy7/Vegfc/Pde1a/Cd38/Agtr1a/Ednra/Bdkrb2/Htr2a/Plcb2/Asph/Ryr3/Nfatc4/Cacna1h/Ptger3/Atp2b4/Cacna1a</t>
         </is>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Relaxin signaling pathway</t>
+          <t>ECM-receptor interaction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.1627906976744186</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="C13">
-        <v>1.239061610763854e-05</v>
+        <v>9.892367976965137e-06</v>
       </c>
       <c r="D13">
-        <v>4.906907098345871</v>
+        <v>5.004699737095105</v>
       </c>
       <c r="E13">
-        <v>1.239061610763854e-05</v>
+        <v>9.892367976965137e-06</v>
       </c>
       <c r="F13">
-        <v>0.000212939870688871</v>
+        <v>0.0002039216205777901</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Col4a6/Nos3/Gnai1/Ednrb/Mmp2/Shc3/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Vegfc/Gng2/Arrb1/Plcb2/Arrb2/Gng7/Akt3/Gnb5/Gnb4</t>
+          <t>Itga4/Col4a6/Npnt/Thbs3/Lamc3/Cd44/Lama4/Itgb7/Fn1/Itga1/Col9a2/Frem1/Lama2/Itga7/Sv2c/Itga8/Itgb4</t>
         </is>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
+          <t>Relaxin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.1355140186915888</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="C14">
-        <v>1.24615027196872e-05</v>
+        <v>1.277355467084397e-05</v>
       </c>
       <c r="D14">
-        <v>4.904429583397808</v>
+        <v>4.893688228883092</v>
       </c>
       <c r="E14">
-        <v>1.24615027196872e-05</v>
+        <v>1.277355467084397e-05</v>
       </c>
       <c r="F14">
-        <v>0.000212939870688871</v>
+        <v>0.0002083076431096697</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hgf/Angpt1/Kdr/Igf1/Evl/Rasgrp3/Gnai1/Pfn2/Grin2b/Lpar4/Prkd1/Tek/Adcy3/Plcb1/Rasgrp2/Adcy4/Kit/Adcy7/Itgal/Vegfc/Magi2/Arap3/Pard6g/Kitl/Plcb2/Tln2/Akt3/Lat/Apbb1ip</t>
+          <t>Col4a6/Nos3/Gnai1/Ednrb/Mmp2/Shc3/Adcy3/Gngt2/Plcb1/Adcy4/Gng11/Adcy7/Vegfc/Gng2/Arrb1/Plcb2/Arrb2/Gng7/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chemokine signaling pathway</t>
+          <t>Rap1 signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.140625</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C15">
-        <v>1.255291899764834e-05</v>
+        <v>1.29700028081074e-05</v>
       </c>
       <c r="D15">
-        <v>4.901255273611879</v>
+        <v>4.887059929887746</v>
       </c>
       <c r="E15">
-        <v>1.255291899764834e-05</v>
+        <v>1.29700028081074e-05</v>
       </c>
       <c r="F15">
-        <v>0.000212939870688871</v>
+        <v>0.0002083076431096697</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cxcl15/Gnai1/Shc3/Itk/Cxcr3/Cxcl12/Adcy3/Gngt2/Pik3r6/Plcb1/Rasgrp2/Dock2/Adcy4/Gng11/Adcy7/Xcl1/Gng2/Arrb1/Plcb2/Xcr1/Arrb2/Gng7/Fgr/Stat5b/Akt3/Gnb5/Gnb4</t>
+          <t>Hgf/Angpt1/Kdr/Igf1/Evl/Rasgrp3/Gnai1/Pfn2/Grin2b/Lpar4/Prkd1/Tek/Adcy3/Plcb1/Rasgrp2/Adcy4/Kit/Adcy7/Itgal/Vegfc/Magi2/Arap3/Pard6g/Kitl/Plcb2/Tln2/Akt3/Lat/Apbb1ip</t>
         </is>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hypertrophic cardiomyopathy</t>
+          <t>Chemokine signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.1868131868131868</v>
+        <v>0.140625</v>
       </c>
       <c r="C16">
-        <v>1.313590111392386e-05</v>
+        <v>1.303436124685541e-05</v>
       </c>
       <c r="D16">
-        <v>4.881540129548542</v>
+        <v>4.884910246717601</v>
       </c>
       <c r="E16">
-        <v>1.313590111392386e-05</v>
+        <v>1.303436124685541e-05</v>
       </c>
       <c r="F16">
-        <v>0.000212939870688871</v>
+        <v>0.0002083076431096697</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sgcd/Cacna1c/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Slc8a3/Itga1/Lama2/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
+          <t>Cxcl15/Gnai1/Shc3/Itk/Cxcr3/Cxcl12/Adcy3/Gngt2/Pik3r6/Plcb1/Rasgrp2/Dock2/Adcy4/Gng11/Adcy7/Xcl1/Gng2/Arrb1/Plcb2/Xcr1/Arrb2/Gng7/Fgr/Stat5b/Akt3/Gnb5/Gnb4</t>
         </is>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
+          <t>Hypertrophic cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.1291666666666667</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C17">
-        <v>1.671223828186986e-05</v>
+        <v>1.347351563943396e-05</v>
       </c>
       <c r="D17">
-        <v>4.776965380844677</v>
+        <v>4.870519069192193</v>
       </c>
       <c r="E17">
-        <v>1.671223828186986e-05</v>
+        <v>1.347351563943396e-05</v>
       </c>
       <c r="F17">
-        <v>0.000253982042309996</v>
+        <v>0.0002083076431096697</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hgf/Cacna1c/Ryr1/Kdr/Adra1a/Nos3/Slc8a1/P2rx2/Ednrb/Pde1b/Adcy3/Cacna1e/Ptgfr/Slc8a3/Plcb1/Adcy4/Adcy7/Vegfc/Pde1a/Cd38/Agtr1a/Ednra/Bdkrb2/Htr2a/Plcb2/Asph/Ryr3/Cacna1h/Ptger3/Atp2b4/Cacna1a</t>
+          <t>Sgcd/Cacna1c/Itga4/Igf1/Slc8a1/Itgb7/Cacna2d1/Slc8a3/Itga1/Lama2/Itga7/Myl3/Cacng7/Sgcb/Itga8/Itgb4/Cacnb4</t>
         </is>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salivary secretion</t>
+          <t>Renin secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.1882352941176471</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="C18">
-        <v>2.130989888790806e-05</v>
+        <v>2.183208756366592e-05</v>
       </c>
       <c r="D18">
-        <v>4.671418610939376</v>
+        <v>4.660904735475726</v>
       </c>
       <c r="E18">
-        <v>2.130989888790806e-05</v>
+        <v>2.183208756366592e-05</v>
       </c>
       <c r="F18">
-        <v>0.0002883814505520098</v>
+        <v>0.0003176805311121667</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
+          <t>Cacna1c/Gnai1/Gucy1a2/Pde1b/Edn3/Plcb1/Gucy1b1/Gucy1a1/Pde1a/Agtr1a/Kcnma1/Ednra/Adcyap1r1/Plcb2/Clca2</t>
         </is>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Renin secretion</t>
+          <t>Salivary secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.1973684210526316</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C19">
-        <v>2.134771776813579e-05</v>
+        <v>2.54140072209239e-05</v>
       </c>
       <c r="D19">
-        <v>4.670648547509423</v>
+        <v>4.594926851017183</v>
       </c>
       <c r="E19">
-        <v>2.134771776813579e-05</v>
+        <v>2.54140072209239e-05</v>
       </c>
       <c r="F19">
-        <v>0.0002883814505520098</v>
+        <v>0.0003389779784355593</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cacna1c/Gnai1/Gucy1a2/Pde1b/Edn3/Plcb1/Gucy1b1/Gucy1a1/Pde1a/Agtr1a/Kcnma1/Ednra/Adcyap1r1/Plcb2/Clca2</t>
+          <t>Adra1a/Gucy1a2/Adcy3/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Cd38/Lyz2/Kcnma1/Plcb2/Ryr3/Lyz1/Atp2b4/Atp1a2</t>
         </is>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
+          <t>Dopaminergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B20">
         <v>0.1555555555555556</v>
       </c>
       <c r="C20">
-        <v>2.527688803768353e-05</v>
+        <v>2.603639366281636e-05</v>
       </c>
       <c r="D20">
-        <v>4.597276395233558</v>
+        <v>4.584419170672311</v>
       </c>
       <c r="E20">
-        <v>2.527688803768353e-05</v>
+        <v>2.603639366281636e-05</v>
       </c>
       <c r="F20">
-        <v>0.0003234881516179998</v>
+        <v>0.0003389779784355593</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3159,23 +3159,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
+          <t>Focal adhesion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.1343283582089552</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="C21">
-        <v>2.90982998763006e-05</v>
+        <v>3.604833090353049e-05</v>
       </c>
       <c r="D21">
-        <v>4.536132384756727</v>
+        <v>4.443114839021328</v>
       </c>
       <c r="E21">
-        <v>2.90982998763006e-05</v>
+        <v>3.604833090353049e-05</v>
       </c>
       <c r="F21">
-        <v>0.0003537740669171284</v>
+        <v>0.0004251963212098366</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3189,23 +3189,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
+          <t>Axon guidance - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B22">
         <v>0.138121546961326</v>
       </c>
       <c r="C22">
-        <v>3.575369357213134e-05</v>
+        <v>3.697993441431186e-05</v>
       </c>
       <c r="D22">
-        <v>4.446679086306655</v>
+        <v>4.432033863418265</v>
       </c>
       <c r="E22">
-        <v>3.575369357213134e-05</v>
+        <v>3.697993441431186e-05</v>
       </c>
       <c r="F22">
-        <v>0.0004083772562292933</v>
+        <v>0.0004251963212098366</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3219,23 +3219,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
+          <t>Protein digestion and absorption - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B23">
         <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>3.723790050181497e-05</v>
+        <v>3.820449500328482e-05</v>
       </c>
       <c r="D23">
-        <v>4.429014812819052</v>
+        <v>4.417885536557494</v>
       </c>
       <c r="E23">
-        <v>3.723790050181497e-05</v>
+        <v>3.820449500328482e-05</v>
       </c>
       <c r="F23">
-        <v>0.0004083772562292933</v>
+        <v>0.0004251963212098366</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3249,23 +3249,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GABAergic synapse</t>
+          <t>GABAergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B24">
         <v>0.1797752808988764</v>
       </c>
       <c r="C24">
-        <v>3.862789198532493e-05</v>
+        <v>3.95342111422763e-05</v>
       </c>
       <c r="D24">
-        <v>4.41309899167711</v>
+        <v>4.403026922605052</v>
       </c>
       <c r="E24">
-        <v>3.862789198532493e-05</v>
+        <v>3.95342111422763e-05</v>
       </c>
       <c r="F24">
-        <v>0.0004083772562292933</v>
+        <v>0.0004251963212098366</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3279,23 +3279,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ras signaling pathway</t>
+          <t>Ras signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B25">
         <v>0.1234042553191489</v>
       </c>
       <c r="C25">
-        <v>7.278902874198043e-05</v>
+        <v>7.551785513405755e-05</v>
       </c>
       <c r="D25">
-        <v>4.13793407557553</v>
+        <v>4.121950353411675</v>
       </c>
       <c r="E25">
-        <v>7.278902874198043e-05</v>
+        <v>7.551785513405755e-05</v>
       </c>
       <c r="F25">
-        <v>0.0007374677912016439</v>
+        <v>0.0007783638577413826</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3309,23 +3309,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Oxytocin signaling pathway</t>
+          <t>Oxytocin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B26">
         <v>0.1372549019607843</v>
       </c>
       <c r="C26">
-        <v>0.0001631004590961281</v>
+        <v>0.0001675910701837452</v>
       </c>
       <c r="D26">
-        <v>3.787544816503351</v>
+        <v>3.775749125760891</v>
       </c>
       <c r="E26">
-        <v>0.0001631004590961281</v>
+        <v>0.0001675910701837452</v>
       </c>
       <c r="F26">
-        <v>0.001586366570577077</v>
+        <v>0.001658269536554953</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3339,23 +3339,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adrenergic signaling in cardiomyocytes</t>
+          <t>Adrenergic signaling in cardiomyocytes - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B27">
         <v>0.1346153846153846</v>
       </c>
       <c r="C27">
-        <v>0.0002149191079987896</v>
+        <v>0.0002207482496149228</v>
       </c>
       <c r="D27">
-        <v>3.667724970597329</v>
+        <v>3.656102731399744</v>
       </c>
       <c r="E27">
-        <v>0.0002149191079987896</v>
+        <v>0.0002207482496149228</v>
       </c>
       <c r="F27">
-        <v>0.002009972224604065</v>
+        <v>0.002100236382975986</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3369,23 +3369,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hematopoietic cell lineage</t>
+          <t>Hematopoietic cell lineage - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B28">
         <v>0.1595744680851064</v>
       </c>
       <c r="C28">
-        <v>0.0002688160499136358</v>
+        <v>0.0002743056691983341</v>
       </c>
       <c r="D28">
-        <v>3.570544804885935</v>
+        <v>3.56176521654381</v>
       </c>
       <c r="E28">
-        <v>0.0002688160499136358</v>
+        <v>0.0002743056691983341</v>
       </c>
       <c r="F28">
-        <v>0.002420916472906428</v>
+        <v>0.002513131862051014</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3399,23 +3399,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PI3K-Akt signaling pathway</t>
+          <t>PI3K-Akt signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.1030640668523677</v>
+        <v>0.1016483516483516</v>
       </c>
       <c r="C29">
-        <v>0.0003520041194127963</v>
+        <v>0.0004791548123981971</v>
       </c>
       <c r="D29">
-        <v>3.453452254056591</v>
+        <v>3.319524145651003</v>
       </c>
       <c r="E29">
-        <v>0.0003520041194127963</v>
+        <v>0.0004791548123981971</v>
       </c>
       <c r="F29">
-        <v>0.003056877879111127</v>
+        <v>0.00423313462081114</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3429,23 +3429,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
+          <t>Basal cell carcinoma - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B30">
         <v>0.1746031746031746</v>
       </c>
       <c r="C30">
-        <v>0.0008022909233793696</v>
+        <v>0.0008143561508053646</v>
       </c>
       <c r="D30">
-        <v>3.095668121107429</v>
+        <v>3.089185619064238</v>
       </c>
       <c r="E30">
-        <v>0.0008022909233793696</v>
+        <v>0.0008143561508053646</v>
       </c>
       <c r="F30">
-        <v>0.006727012823979471</v>
+        <v>0.006946413627559371</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3459,23 +3459,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leukocyte transendothelial migration</t>
+          <t>Leukocyte transendothelial migration - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.1355932203389831</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="C31">
-        <v>0.001093146204432594</v>
+        <v>0.001221490313263941</v>
       </c>
       <c r="D31">
-        <v>2.961321748817042</v>
+        <v>2.913109972745149</v>
       </c>
       <c r="E31">
-        <v>0.001093146204432594</v>
+        <v>0.001221490313263941</v>
       </c>
       <c r="F31">
-        <v>0.00886023765697997</v>
+        <v>0.01007193767077284</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3489,23 +3489,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Serotonergic synapse</t>
+          <t>Serotonergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B32">
         <v>0.1297709923664122</v>
       </c>
       <c r="C32">
-        <v>0.001272288708878486</v>
+        <v>0.001298439357648958</v>
       </c>
       <c r="D32">
-        <v>2.895414327016594</v>
+        <v>2.886578328863659</v>
       </c>
       <c r="E32">
-        <v>0.001272288708878486</v>
+        <v>0.001298439357648958</v>
       </c>
       <c r="F32">
-        <v>0.00997958206284992</v>
+        <v>0.01036106108820051</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
+          <t>Melanogenesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B33">
         <v>0.14</v>
       </c>
       <c r="C33">
-        <v>0.001611405244691898</v>
+        <v>0.001639464426901384</v>
       </c>
       <c r="D33">
-        <v>2.792795227177608</v>
+        <v>2.785298002213915</v>
       </c>
       <c r="E33">
-        <v>0.001611405244691898</v>
+        <v>0.001639464426901384</v>
       </c>
       <c r="F33">
-        <v>0.01224455958959962</v>
+        <v>0.01267349145795478</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3549,23 +3549,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Long-term depression</t>
+          <t>Long-term depression - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B34">
         <v>0.1666666666666667</v>
       </c>
       <c r="C34">
-        <v>0.001980522898515023</v>
+        <v>0.002006745874337443</v>
       </c>
       <c r="D34">
-        <v>2.703220131981613</v>
+        <v>2.697507621214937</v>
       </c>
       <c r="E34">
-        <v>0.001980522898515023</v>
+        <v>0.002006745874337443</v>
       </c>
       <c r="F34">
-        <v>0.01445286924625627</v>
+        <v>0.01498212035867274</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3579,23 +3579,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Platelet activation</t>
+          <t>Platelet activation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B35">
         <v>0.128</v>
       </c>
       <c r="C35">
-        <v>0.002020899033134534</v>
+        <v>0.002059244628021828</v>
       </c>
       <c r="D35">
-        <v>2.694455383885931</v>
+        <v>2.686292058292449</v>
       </c>
       <c r="E35">
-        <v>0.002020899033134534</v>
+        <v>0.002059244628021828</v>
       </c>
       <c r="F35">
-        <v>0.01445286924625627</v>
+        <v>0.01498212035867274</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3609,23 +3609,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phospholipase D signaling pathway</t>
+          <t>Phospholipase D signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B36">
         <v>0.1208053691275168</v>
       </c>
       <c r="C36">
-        <v>0.002112684662953034</v>
+        <v>0.002156370289190456</v>
       </c>
       <c r="D36">
-        <v>2.675165320439106</v>
+        <v>2.666276660579966</v>
       </c>
       <c r="E36">
-        <v>0.002112684662953034</v>
+        <v>0.002156370289190456</v>
       </c>
       <c r="F36">
-        <v>0.01450564482850348</v>
+        <v>0.01499478268700442</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3639,23 +3639,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Taste transduction</t>
+          <t>Taste transduction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B37">
         <v>0.1413043478260869</v>
       </c>
       <c r="C37">
-        <v>0.002147588974609606</v>
+        <v>0.002182219437853409</v>
       </c>
       <c r="D37">
-        <v>2.668048834303929</v>
+        <v>2.661101580119303</v>
       </c>
       <c r="E37">
-        <v>0.002147588974609606</v>
+        <v>0.002182219437853409</v>
       </c>
       <c r="F37">
-        <v>0.01450564482850348</v>
+        <v>0.01499478268700442</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3669,23 +3669,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Other types of O-glycan biosynthesis</t>
+          <t>Other types of O-glycan biosynthesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B38">
         <v>0.186046511627907</v>
       </c>
       <c r="C38">
-        <v>0.002702712600314912</v>
+        <v>0.002732193778797509</v>
       </c>
       <c r="D38">
-        <v>2.568200133632911</v>
+        <v>2.563488501887281</v>
       </c>
       <c r="E38">
-        <v>0.002702712600314912</v>
+        <v>0.002732193778797509</v>
       </c>
       <c r="F38">
-        <v>0.01729436594661343</v>
+        <v>0.01778574897555165</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3699,23 +3699,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intestinal immune network for IgA production</t>
+          <t>Intestinal immune network for IgA production - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B39">
         <v>0.186046511627907</v>
       </c>
       <c r="C39">
-        <v>0.002702712600314912</v>
+        <v>0.002732193778797509</v>
       </c>
       <c r="D39">
-        <v>2.568200133632911</v>
+        <v>2.563488501887281</v>
       </c>
       <c r="E39">
-        <v>0.002702712600314912</v>
+        <v>0.002732193778797509</v>
       </c>
       <c r="F39">
-        <v>0.01729436594661343</v>
+        <v>0.01778574897555165</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3729,173 +3729,173 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MAPK signaling pathway</t>
+          <t>Proteoglycans in cancer - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.09863945578231292</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="C40">
-        <v>0.002907758057692702</v>
+        <v>0.003375467519568118</v>
       </c>
       <c r="D40">
-        <v>2.536441732125334</v>
+        <v>2.47166606665315</v>
       </c>
       <c r="E40">
-        <v>0.002907758057692702</v>
+        <v>0.003375467519568118</v>
       </c>
       <c r="F40">
-        <v>0.01812934173622171</v>
+        <v>0.021409847964872</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hgf/Angpt1/Cacna1c/Kdr/Igf1/Rasgrp3/Areg/Cacna2d1/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Rps6ka5/Kitl/Arrb1/Cacng7/Flnc/Irak4/Cacna1h/Arrb2/Akt3/Cacna1a/Cacnb4</t>
+          <t>Ihh/Hgf/Wnt6/Wnt11/Hoxd10/Kdr/Igf1/Cd44/Hcls1/Gpc3/Fn1/Mmp2/Ank2/Wnt9a/Msn/Igf2/Twist2/Ptch1/Flnc/Fzd2/Akt3/Cav1</t>
         </is>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
+          <t>Vascular smooth muscle contraction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.1073170731707317</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="C41">
-        <v>0.003299099704439663</v>
+        <v>0.003604238629909187</v>
       </c>
       <c r="D41">
-        <v>2.481604559133758</v>
+        <v>2.443186462914412</v>
       </c>
       <c r="E41">
-        <v>0.003299099704439663</v>
+        <v>0.003604238629909187</v>
       </c>
       <c r="F41">
-        <v>0.02005505346646216</v>
+        <v>0.02228937047443839</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ihh/Hgf/Wnt6/Wnt11/Hoxd10/Kdr/Igf1/Cd44/Hcls1/Gpc3/Fn1/Mmp2/Ank2/Wnt9a/Msn/Igf2/Twist2/Ptch1/Flnc/Fzd2/Akt3/Cav1</t>
+          <t>Cacna1c/Pla2g10/Adra1a/Gucy1a2/Adcy3/Edn3/Calca/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Plcb2/Calcrl</t>
         </is>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Vascular smooth muscle contraction</t>
+          <t>MAPK signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.1180555555555556</v>
+        <v>0.09634551495016612</v>
       </c>
       <c r="C42">
-        <v>0.003537092606372246</v>
+        <v>0.004199654500581752</v>
       </c>
       <c r="D42">
-        <v>2.451353569557609</v>
+        <v>2.376786436902769</v>
       </c>
       <c r="E42">
-        <v>0.003537092606372246</v>
+        <v>0.004199654500581752</v>
       </c>
       <c r="F42">
-        <v>0.02097736565011525</v>
+        <v>0.02525349414765996</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cacna1c/Pla2g10/Adra1a/Gucy1a2/Adcy3/Edn3/Calca/Plcb1/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Agtr1a/Kcnma1/Ednra/Plcb2/Calcrl</t>
+          <t>Hgf/Angpt1/Cacna1c/Kdr/Igf1/Rasgrp3/Areg/Cacna2d1/Mef2c/Tek/Mapk8ip1/Cacna1e/Rasgrp2/Rps6ka2/Flt3/Kit/Vegfc/Igf2/Rps6ka5/Kitl/Arrb1/Cacng7/Flnc/Irak4/Cacna1h/Arrb2/Akt3/Cacna1a/Cacnb4</t>
         </is>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wnt signaling pathway</t>
+          <t>Th1 and Th2 cell differentiation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.1111111111111111</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C43">
-        <v>0.004178724984006698</v>
+        <v>0.004287720921240989</v>
       </c>
       <c r="D43">
-        <v>2.378956210301348</v>
+        <v>2.367773489712062</v>
       </c>
       <c r="E43">
-        <v>0.004178724984006698</v>
+        <v>0.004287720921240989</v>
       </c>
       <c r="F43">
-        <v>0.02390161285408922</v>
+        <v>0.02525349414765996</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sfrp2/Wnt6/Lef1/Apcdd1/Wnt11/Nkd1/Ccnd2/Plcb1/Peg12/Wnt9a/Prickle2/Znrf3/Daam2/Prickle1/Tle1/Plcb2/Nfatc4/Fzd2/Nkd2</t>
+          <t>Cd3g/Jag2/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
         </is>
       </c>
       <c r="H43">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Th1 and Th2 cell differentiation</t>
+          <t>Retrograde endocannabinoid signaling - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.1363636363636364</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C44">
-        <v>0.004226757078309717</v>
+        <v>0.004777276772953612</v>
       </c>
       <c r="D44">
-        <v>2.373992711381111</v>
+        <v>2.320819597007522</v>
       </c>
       <c r="E44">
-        <v>0.004226757078309717</v>
+        <v>0.004777276772953612</v>
       </c>
       <c r="F44">
-        <v>0.02390161285408922</v>
+        <v>0.0269312255229233</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cd3g/Jag2/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
+          <t>Kcnj3/Gria4/Cacna1c/Gnai1/Adcy3/Gngt2/Plcb1/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
         </is>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cAMP signaling pathway</t>
+          <t>cAMP signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B45">
         <v>0.1026785714285714</v>
       </c>
       <c r="C45">
-        <v>0.00468200996911335</v>
+        <v>0.004790320114290187</v>
       </c>
       <c r="D45">
-        <v>2.329567665922114</v>
+        <v>2.319635463782816</v>
       </c>
       <c r="E45">
-        <v>0.00468200996911335</v>
+        <v>0.004790320114290187</v>
       </c>
       <c r="F45">
-        <v>0.02534490642714181</v>
+        <v>0.0269312255229233</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3909,57 +3909,57 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Retrograde endocannabinoid signaling</t>
+          <t>AGE-RAGE signaling pathway in diabetic complications - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.1148648648648649</v>
+        <v>0.1287128712871287</v>
       </c>
       <c r="C46">
-        <v>0.004690453462165854</v>
+        <v>0.004985240613982742</v>
       </c>
       <c r="D46">
-        <v>2.328785168671609</v>
+        <v>2.302313875506159</v>
       </c>
       <c r="E46">
-        <v>0.004690453462165854</v>
+        <v>0.004985240613982742</v>
       </c>
       <c r="F46">
-        <v>0.02534490642714181</v>
+        <v>0.02740424664996361</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Kcnj3/Gria4/Cacna1c/Gnai1/Adcy3/Gngt2/Plcb1/Gabra4/Adcy4/Gng11/Adcy7/Gng2/Plcb2/Gng7/Gnb5/Gnb4/Cacna1a</t>
+          <t>Col4a6/Nos3/Fn1/Mmp2/Icam1/Plcb1/Vegfc/Nox4/Sele/Agtr1a/Plcb2/Stat5b/Akt3</t>
         </is>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AGE-RAGE signaling pathway in diabetic complications</t>
+          <t>Aldosterone synthesis and secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.1287128712871287</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="C47">
-        <v>0.004910984379312989</v>
+        <v>0.005423348775534166</v>
       </c>
       <c r="D47">
-        <v>2.308831447254867</v>
+        <v>2.265732465190352</v>
       </c>
       <c r="E47">
-        <v>0.004910984379312989</v>
+        <v>0.005423348775534166</v>
       </c>
       <c r="F47">
-        <v>0.02595966571215791</v>
+        <v>0.02885387825744556</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Col4a6/Nos3/Fn1/Mmp2/Icam1/Plcb1/Vegfc/Nox4/Sele/Agtr1a/Plcb2/Stat5b/Akt3</t>
+          <t>Kcnk3/Cacna1c/Prkd1/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Atp2b4/Atp1a2/Lipe</t>
         </is>
       </c>
       <c r="H47">
@@ -3969,53 +3969,53 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aldosterone synthesis and secretion</t>
+          <t>Wnt signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.1274509803921569</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C48">
-        <v>0.005343145760421083</v>
+        <v>0.005482236868914656</v>
       </c>
       <c r="D48">
-        <v>2.272202978150409</v>
+        <v>2.261042203995319</v>
       </c>
       <c r="E48">
-        <v>0.005343145760421083</v>
+        <v>0.005482236868914656</v>
       </c>
       <c r="F48">
-        <v>0.02764315051863987</v>
+        <v>0.02885387825744556</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Kcnk3/Cacna1c/Prkd1/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Atp2b4/Atp1a2/Lipe</t>
+          <t>Sfrp2/Wnt6/Lef1/Apcdd1/Wnt11/Nkd1/Ccnd2/Plcb1/Peg12/Wnt9a/Prickle2/Znrf3/Daam2/Prickle1/Tle1/Plcb2/Nfatc4/Fzd2/Nkd2</t>
         </is>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Glycosaminoglycan biosynthesis - keratan sulfate</t>
+          <t>Glycosaminoglycan biosynthesis - keratan sulfate - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B49">
         <v>0.2857142857142857</v>
       </c>
       <c r="C49">
-        <v>0.006740942497656202</v>
+        <v>0.006780930685037661</v>
       </c>
       <c r="D49">
-        <v>2.17127937751291</v>
+        <v>2.168710694976996</v>
       </c>
       <c r="E49">
-        <v>0.006740942497656202</v>
+        <v>0.006780930685037661</v>
       </c>
       <c r="F49">
-        <v>0.03414819554733735</v>
+        <v>0.0349455857671897</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4029,23 +4029,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ABC transporters</t>
+          <t>ABC transporters - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B50">
         <v>0.1538461538461539</v>
       </c>
       <c r="C50">
-        <v>0.008934821601303379</v>
+        <v>0.009024338762316361</v>
       </c>
       <c r="D50">
-        <v>2.048914114489395</v>
+        <v>2.044584610186615</v>
       </c>
       <c r="E50">
-        <v>0.008934821601303379</v>
+        <v>0.009024338762316361</v>
       </c>
       <c r="F50">
-        <v>0.04433821245759573</v>
+        <v>0.0455578863403726</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4059,23 +4059,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GnRH secretion</t>
+          <t>GnRH secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B51">
         <v>0.1428571428571428</v>
       </c>
       <c r="C51">
-        <v>0.009272269762061981</v>
+        <v>0.009373334057195707</v>
       </c>
       <c r="D51">
-        <v>2.032813941747794</v>
+        <v>2.028105904833175</v>
       </c>
       <c r="E51">
-        <v>0.009272269762061981</v>
+        <v>0.009373334057195707</v>
       </c>
       <c r="F51">
-        <v>0.04509251189550142</v>
+        <v>0.04637333691454718</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4089,23 +4089,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gap junction</t>
+          <t>Gap junction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B52">
         <v>0.1279069767441861</v>
       </c>
       <c r="C52">
-        <v>0.009738482597092262</v>
+        <v>0.009860866748634263</v>
       </c>
       <c r="D52">
-        <v>2.011508707500034</v>
+        <v>2.006084909845285</v>
       </c>
       <c r="E52">
-        <v>0.009738482597092262</v>
+        <v>0.009860866748634263</v>
       </c>
       <c r="F52">
-        <v>0.04643115541647704</v>
+        <v>0.04782876544745205</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4119,23 +4119,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cardiac muscle contraction</t>
+          <t>Cardiac muscle contraction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B53">
         <v>0.1264367816091954</v>
       </c>
       <c r="C53">
-        <v>0.0105915646055282</v>
+        <v>0.01072357602005841</v>
       </c>
       <c r="D53">
-        <v>1.975039880368784</v>
+        <v>1.969660365128272</v>
       </c>
       <c r="E53">
-        <v>0.0105915646055282</v>
+        <v>0.01072357602005841</v>
       </c>
       <c r="F53">
-        <v>0.04859287832923562</v>
+        <v>0.05005045411546625</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4149,23 +4149,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis</t>
+          <t>Rheumatoid arthritis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B54">
         <v>0.1264367816091954</v>
       </c>
       <c r="C54">
-        <v>0.0105915646055282</v>
+        <v>0.01072357602005841</v>
       </c>
       <c r="D54">
-        <v>1.975039880368784</v>
+        <v>1.969660365128272</v>
       </c>
       <c r="E54">
-        <v>0.0105915646055282</v>
+        <v>0.01072357602005841</v>
       </c>
       <c r="F54">
-        <v>0.04859287832923562</v>
+        <v>0.05005045411546625</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4179,23 +4179,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Viral myocarditis</t>
+          <t>Viral myocarditis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B55">
         <v>0.125</v>
       </c>
       <c r="C55">
-        <v>0.01150082282370223</v>
+        <v>0.01164298389131802</v>
       </c>
       <c r="D55">
-        <v>1.939271087036826</v>
+        <v>1.933935703409217</v>
       </c>
       <c r="E55">
-        <v>0.01150082282370223</v>
+        <v>0.01164298389131802</v>
       </c>
       <c r="F55">
-        <v>0.05178733084357144</v>
+        <v>0.05333530632475115</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4209,83 +4209,83 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Glycosphingolipid biosynthesis - lacto and neolacto series</t>
+          <t>Th17 cell differentiation - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B56">
-        <v>0.1923076923076923</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C56">
-        <v>0.01466530228541102</v>
+        <v>0.0169294045569238</v>
       </c>
       <c r="D56">
-        <v>1.833708980788921</v>
+        <v>1.771358316680784</v>
       </c>
       <c r="E56">
-        <v>0.01466530228541102</v>
+        <v>0.0169294045569238</v>
       </c>
       <c r="F56">
-        <v>0.06483607326181712</v>
+        <v>0.07614181953831757</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>B3galnt1/B4galt2/Ggta1/B3gnt5/St3gal4</t>
+          <t>Cd3g/Il27ra/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
         </is>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Th17 cell differentiation</t>
+          <t>Glycosphingolipid biosynthesis - lacto and neolacto series - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.1142857142857143</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C57">
-        <v>0.01671833408010382</v>
+        <v>0.01728703258183227</v>
       </c>
       <c r="D57">
-        <v>1.776807000573081</v>
+        <v>1.762279549463998</v>
       </c>
       <c r="E57">
-        <v>0.01671833408010382</v>
+        <v>0.01728703258183227</v>
       </c>
       <c r="F57">
-        <v>0.07259276640045083</v>
+        <v>0.07636189204380797</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cd3g/Il27ra/H2-Ab1/H2-Ob/H2-Eb1/Nfkbie/H2-Aa/Stat5b/Zap70/Lat/Il12rb1/Il2rg</t>
+          <t>B3galnt1/B4galt2/Ggta1/B3gnt5/St3gal4</t>
         </is>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
+          <t>Hippo signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B58">
         <v>0.1019108280254777</v>
       </c>
       <c r="C58">
-        <v>0.01784074139675937</v>
+        <v>0.01811409024002265</v>
       </c>
       <c r="D58">
-        <v>1.74858710187519</v>
+        <v>1.741983473037652</v>
       </c>
       <c r="E58">
-        <v>0.01784074139675937</v>
+        <v>0.01811409024002265</v>
       </c>
       <c r="F58">
-        <v>0.07610731786983223</v>
+        <v>0.07861147195577697</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4299,83 +4299,83 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Cortisol synthesis and secretion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B59">
-        <v>0.1044776119402985</v>
+        <v>0.125</v>
       </c>
       <c r="C59">
-        <v>0.02117638971821929</v>
+        <v>0.02142769593680136</v>
       </c>
       <c r="D59">
-        <v>1.674148079124789</v>
+        <v>1.669024524979141</v>
       </c>
       <c r="E59">
-        <v>0.02117638971821929</v>
+        <v>0.02142769593680136</v>
       </c>
       <c r="F59">
-        <v>0.08743416557006597</v>
+        <v>0.08999820817131074</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nme4/Gucy1a2/Pde1b/Adcy3/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Pde1a/Enpp1/Hddc3/Lacc1/Pde5a/Impdh1</t>
+          <t>Kcnk3/Cacna1c/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h</t>
         </is>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cortisol synthesis and secretion</t>
+          <t>Purine metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.125</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C60">
-        <v>0.02121508649438181</v>
+        <v>0.02146553007660411</v>
       </c>
       <c r="D60">
-        <v>1.673355193265446</v>
+        <v>1.668258382446518</v>
       </c>
       <c r="E60">
-        <v>0.02121508649438181</v>
+        <v>0.02146553007660411</v>
       </c>
       <c r="F60">
-        <v>0.08743416557006597</v>
+        <v>0.08999820817131074</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Kcnk3/Cacna1c/Adcy3/Plcb1/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h</t>
+          <t>Nme4/Gucy1a2/Pde1b/Adcy3/Gucy1b1/Gucy1a1/Adcy4/Adcy7/Pde1a/Enpp1/Hddc3/Lacc1/Pde5a/Impdh1</t>
         </is>
       </c>
       <c r="H60">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Endocrine and other factor-regulated calcium reabsorption</t>
+          <t>Endocrine and other factor-regulated calcium reabsorption - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B61">
         <v>0.1311475409836066</v>
       </c>
       <c r="C61">
-        <v>0.02235550534048848</v>
+        <v>0.02256033273783388</v>
       </c>
       <c r="D61">
-        <v>1.650615508569149</v>
+        <v>1.646654499319036</v>
       </c>
       <c r="E61">
-        <v>0.02235550534048848</v>
+        <v>0.02256033273783388</v>
       </c>
       <c r="F61">
-        <v>0.09059862690619014</v>
+        <v>0.093011898129666</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4389,23 +4389,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Regulation of actin cytoskeleton</t>
+          <t>Regulation of actin cytoskeleton - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B62">
         <v>0.09090909090909091</v>
       </c>
       <c r="C62">
-        <v>0.02414450097058135</v>
+        <v>0.02457248664619643</v>
       </c>
       <c r="D62">
-        <v>1.617181766364795</v>
+        <v>1.609550892275439</v>
       </c>
       <c r="E62">
-        <v>0.02414450097058135</v>
+        <v>0.02457248664619643</v>
       </c>
       <c r="F62">
-        <v>0.09624468894226559</v>
+        <v>0.09945983864711441</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4419,23 +4419,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Thyroid hormone synthesis</t>
+          <t>Thyroid hormone synthesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B63">
         <v>0.1216216216216216</v>
       </c>
       <c r="C63">
-        <v>0.02492694742114673</v>
+        <v>0.02517200075107875</v>
       </c>
       <c r="D63">
-        <v>1.603330902375594</v>
+        <v>1.599082263966132</v>
       </c>
       <c r="E63">
-        <v>0.02492694742114673</v>
+        <v>0.02517200075107875</v>
       </c>
       <c r="F63">
-        <v>0.09705320969446118</v>
+        <v>0.09945983864711441</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4449,23 +4449,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Glycine, serine and threonine metabolism</t>
+          <t>Glycine, serine and threonine metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B64">
         <v>0.15</v>
       </c>
       <c r="C64">
-        <v>0.02514560432992858</v>
+        <v>0.02533051635331829</v>
       </c>
       <c r="D64">
-        <v>1.599537922421286</v>
+        <v>1.596355957184928</v>
       </c>
       <c r="E64">
-        <v>0.02514560432992858</v>
+        <v>0.02533051635331829</v>
       </c>
       <c r="F64">
-        <v>0.09705320969446118</v>
+        <v>0.09945983864711441</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tryptophan metabolism</t>
+          <t>Tryptophan metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B65">
         <v>0.1346153846153846</v>
       </c>
       <c r="C65">
-        <v>0.02785645191821476</v>
+        <v>0.02808272414799323</v>
       </c>
       <c r="D65">
-        <v>1.555074200563515</v>
+        <v>1.551560766020246</v>
       </c>
       <c r="E65">
-        <v>0.02785645191821476</v>
+        <v>0.02808272414799323</v>
       </c>
       <c r="F65">
-        <v>0.105836190676112</v>
+        <v>0.1085434239272765</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4509,57 +4509,57 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Regulation of lipolysis in adipocytes</t>
+          <t>Estrogen signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.1228070175438596</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="C66">
-        <v>0.04319408237811997</v>
+        <v>0.04170120756340023</v>
       </c>
       <c r="D66">
-        <v>1.364575747781518</v>
+        <v>1.379851368754588</v>
       </c>
       <c r="E66">
-        <v>0.04319408237811997</v>
+        <v>0.04170120756340023</v>
       </c>
       <c r="F66">
-        <v>0.1573957138807854</v>
+        <v>0.1587009518607134</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Gnai1/Adcy3/Adcy4/Adcy7/Ptger3/Akt3/Lipe</t>
+          <t>Krt23/Kcnj3/Nos3/Gnai1/Mmp2/Shc3/Adcy3/Plcb1/Adcy4/Adcy7/Plcb2/Akt3/Gabbr1</t>
         </is>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Malaria</t>
+          <t>Regulation of lipolysis in adipocytes - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B67">
         <v>0.1228070175438596</v>
       </c>
       <c r="C67">
-        <v>0.04319408237811997</v>
+        <v>0.04352576994207099</v>
       </c>
       <c r="D67">
-        <v>1.364575747781518</v>
+        <v>1.361253537760653</v>
       </c>
       <c r="E67">
-        <v>0.04319408237811997</v>
+        <v>0.04352576994207099</v>
       </c>
       <c r="F67">
-        <v>0.1573957138807854</v>
+        <v>0.1607000147114954</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hgf/Thbs3/Icam1/Gypc/Itgal/Sele/Pecam1</t>
+          <t>Gnai1/Adcy3/Adcy4/Adcy7/Ptger3/Akt3/Lipe</t>
         </is>
       </c>
       <c r="H67">
@@ -4569,90 +4569,120 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Estrogen signaling pathway</t>
+          <t>Malaria - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.09701492537313433</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="C68">
-        <v>0.04336899215806057</v>
+        <v>0.04352576994207099</v>
       </c>
       <c r="D68">
-        <v>1.362820670202603</v>
+        <v>1.361253537760653</v>
       </c>
       <c r="E68">
-        <v>0.04336899215806057</v>
+        <v>0.04352576994207099</v>
       </c>
       <c r="F68">
-        <v>0.1573957138807854</v>
+        <v>0.1607000147114954</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Krt23/Kcnj3/Nos3/Gnai1/Mmp2/Shc3/Adcy3/Plcb1/Adcy4/Adcy7/Plcb2/Akt3/Gabbr1</t>
+          <t>Hgf/Thbs3/Icam1/Gypc/Itgal/Sele/Pecam1</t>
         </is>
       </c>
       <c r="H68">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cushing syndrome</t>
+          <t>Parathyroid hormone synthesis, secretion and action - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.09259259259259259</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="C69">
-        <v>0.04485928437300616</v>
+        <v>0.04533131435578307</v>
       </c>
       <c r="D69">
-        <v>1.34814765887016</v>
+        <v>1.343601688636249</v>
       </c>
       <c r="E69">
-        <v>0.04485928437300616</v>
+        <v>0.04533131435578307</v>
       </c>
       <c r="F69">
-        <v>0.15810738600593</v>
+        <v>0.1628761396610962</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Kcnk3/Wnt6/Lef1/Wnt11/Cacna1c/Gnai1/Adcy3/Plcb1/Wnt9a/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Fzd2</t>
+          <t>Mmp16/Gnai1/Mef2c/Adcy3/Plcb1/Pth1r/Adcy4/Adcy7/Arrb1/Plcb2/Arrb2</t>
         </is>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Parathyroid hormone synthesis, secretion and action</t>
+          <t>Cushing syndrome - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.1018518518518518</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C70">
-        <v>0.04486553745752688</v>
+        <v>0.04543204661610576</v>
       </c>
       <c r="D70">
-        <v>1.348087125339946</v>
+        <v>1.342637698711217</v>
       </c>
       <c r="E70">
-        <v>0.04486553745752688</v>
+        <v>0.04543204661610576</v>
       </c>
       <c r="F70">
-        <v>0.15810738600593</v>
+        <v>0.1628761396610962</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Mmp16/Gnai1/Mef2c/Adcy3/Plcb1/Pth1r/Adcy4/Adcy7/Arrb1/Plcb2/Arrb2</t>
+          <t>Kcnk3/Wnt6/Lef1/Wnt11/Cacna1c/Gnai1/Adcy3/Plcb1/Wnt9a/Adcy4/Adcy7/Agtr1a/Plcb2/Cacna1h/Fzd2</t>
         </is>
       </c>
       <c r="H70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Toxoplasmosis - Mus musculus (house mouse)</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.1009174311926606</v>
+      </c>
+      <c r="C71">
+        <v>0.04793506442752056</v>
+      </c>
+      <c r="D71">
+        <v>1.319346684575206</v>
+      </c>
+      <c r="E71">
+        <v>0.04793506442752056</v>
+      </c>
+      <c r="F71">
+        <v>0.1693945885784561</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Lamc3/Lama4/Gnai1/Pik3r6/Lama2/H2-Ab1/H2-Ob/H2-Eb1/Irak4/H2-Aa/Akt3</t>
+        </is>
+      </c>
+      <c r="H71">
         <v>11</v>
       </c>
     </row>
@@ -4714,23 +4744,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hedgehog signaling pathway</t>
+          <t>Hedgehog signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B2">
         <v>0.1379310344827586</v>
       </c>
       <c r="C2">
-        <v>2.713147715725385e-06</v>
+        <v>2.375906792270845e-06</v>
       </c>
       <c r="D2">
-        <v>5.566526560688079</v>
+        <v>5.624170600894736</v>
       </c>
       <c r="E2">
-        <v>2.713147715725385e-06</v>
+        <v>2.375906792270845e-06</v>
       </c>
       <c r="F2">
-        <v>0.0005883246625678204</v>
+        <v>0.0005252004488177658</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4744,23 +4774,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Basal cell carcinoma</t>
+          <t>Basal cell carcinoma - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B3">
         <v>0.1111111111111111</v>
       </c>
       <c r="C3">
-        <v>4.950766374676777e-05</v>
+        <v>4.418379913451784e-05</v>
       </c>
       <c r="D3">
-        <v>4.305327567423849</v>
+        <v>4.354736944140907</v>
       </c>
       <c r="E3">
-        <v>4.950766374676777e-05</v>
+        <v>4.418379913451784e-05</v>
       </c>
       <c r="F3">
-        <v>0.004450337906217717</v>
+        <v>0.004339369221284172</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4774,23 +4804,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ECM-receptor interaction</t>
+          <t>ECM-receptor interaction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.09090909090909091</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C4">
-        <v>6.157020889670142e-05</v>
+        <v>5.889143943171376e-05</v>
       </c>
       <c r="D4">
-        <v>4.210629372922554</v>
+        <v>4.229947830472139</v>
       </c>
       <c r="E4">
-        <v>6.157020889670142e-05</v>
+        <v>5.889143943171376e-05</v>
       </c>
       <c r="F4">
-        <v>0.004450337906217717</v>
+        <v>0.004339369221284172</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4804,23 +4834,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Axon guidance</t>
+          <t>Axon guidance - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B5">
         <v>0.06077348066298342</v>
       </c>
       <c r="C5">
-        <v>0.0001108868902266253</v>
+        <v>9.470513265977736e-05</v>
       </c>
       <c r="D5">
-        <v>3.955119795949883</v>
+        <v>4.023626483241566</v>
       </c>
       <c r="E5">
-        <v>0.0001108868902266253</v>
+        <v>9.470513265977736e-05</v>
       </c>
       <c r="F5">
-        <v>0.006011236680706532</v>
+        <v>0.005233704699619275</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4834,23 +4864,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proteoglycans in cancer</t>
+          <t>Proteoglycans in cancer - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B6">
         <v>0.04878048780487805</v>
       </c>
       <c r="C6">
-        <v>0.001284993511929247</v>
+        <v>0.001123082417461349</v>
       </c>
       <c r="D6">
-        <v>2.891099065126803</v>
+        <v>2.949588371846029</v>
       </c>
       <c r="E6">
-        <v>0.001284993511929247</v>
+        <v>0.001123082417461349</v>
       </c>
       <c r="F6">
-        <v>0.05060021448360496</v>
+        <v>0.04650356814590718</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4864,23 +4894,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Protein digestion and absorption</t>
+          <t>Protein digestion and absorption - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B7">
         <v>0.06481481481481481</v>
       </c>
       <c r="C7">
-        <v>0.001400103022119166</v>
+        <v>0.001262239706817481</v>
       </c>
       <c r="D7">
-        <v>2.853840006970525</v>
+        <v>2.898858162158003</v>
       </c>
       <c r="E7">
-        <v>0.001400103022119166</v>
+        <v>0.001262239706817481</v>
       </c>
       <c r="F7">
-        <v>0.05060021448360496</v>
+        <v>0.04650356814590718</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4894,53 +4924,53 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Calcium signaling pathway</t>
+          <t>Calcium signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.04166666666666666</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C8">
-        <v>0.004066082959731946</v>
+        <v>0.001625636247661606</v>
       </c>
       <c r="D8">
-        <v>2.390823764756944</v>
+        <v>2.788976625597017</v>
       </c>
       <c r="E8">
-        <v>0.004066082959731946</v>
+        <v>0.001625636247661606</v>
       </c>
       <c r="F8">
-        <v>0.1259568555947039</v>
+        <v>0.05133588150510333</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hgf/Ryr1/Adra1a/Kdr/Ednrb/Nos3/P2rx2/Ptgfr/Cacna1e/Slc8a3</t>
+          <t>Hgf/Ryr1/Adra1a/Kdr/Ednrb/Nos3/P2rx2/Ptgfr/Cacna1e/Grin2b/Slc8a3</t>
         </is>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dopaminergic synapse</t>
+          <t>Dopaminergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B9">
         <v>0.05185185185185185</v>
       </c>
       <c r="C9">
-        <v>0.004925319108967026</v>
+        <v>0.004467029278175418</v>
       </c>
       <c r="D9">
-        <v>2.307565626532073</v>
+        <v>2.349981201029761</v>
       </c>
       <c r="E9">
-        <v>0.004925319108967026</v>
+        <v>0.004467029278175418</v>
       </c>
       <c r="F9">
-        <v>0.1335020705851589</v>
+        <v>0.1234310721601102</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4954,23 +4984,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arrhythmogenic right ventricular cardiomyopathy</t>
+          <t>Arrhythmogenic right ventricular cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B10">
         <v>0.06493506493506493</v>
       </c>
       <c r="C10">
-        <v>0.006728728254308549</v>
+        <v>0.006241930624313306</v>
       </c>
       <c r="D10">
-        <v>2.172067010713178</v>
+        <v>2.204681062592401</v>
       </c>
       <c r="E10">
-        <v>0.006728728254308549</v>
+        <v>0.006241930624313306</v>
       </c>
       <c r="F10">
-        <v>0.1597633009555602</v>
+        <v>0.1440658406301801</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4984,23 +5014,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neuroactive ligand-receptor interaction</t>
+          <t>Neuroactive ligand-receptor interaction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B11">
         <v>0.03324808184143223</v>
       </c>
       <c r="C11">
-        <v>0.007534283274096881</v>
+        <v>0.006517264218984338</v>
       </c>
       <c r="D11">
-        <v>2.12295805521526</v>
+        <v>2.185934671743262</v>
       </c>
       <c r="E11">
-        <v>0.007534283274096881</v>
+        <v>0.006517264218984338</v>
       </c>
       <c r="F11">
-        <v>0.1597633009555602</v>
+        <v>0.1440658406301801</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -5014,23 +5044,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Glutamatergic synapse</t>
+          <t>Glutamatergic synapse - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.05309734513274336</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C12">
-        <v>0.008104497548473803</v>
+        <v>0.007762207107176386</v>
       </c>
       <c r="D12">
-        <v>2.091273904774666</v>
+        <v>2.11001477382173</v>
       </c>
       <c r="E12">
-        <v>0.008104497548473803</v>
+        <v>0.007762207107176386</v>
       </c>
       <c r="F12">
-        <v>0.1597633009555602</v>
+        <v>0.1559869370820135</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -5044,23 +5074,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Focal adhesion</t>
+          <t>Focal adhesion - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.03980099502487562</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="C13">
-        <v>0.01278672095280963</v>
+        <v>0.01222263134661054</v>
       </c>
       <c r="D13">
-        <v>1.893240812415852</v>
+        <v>1.912835287031877</v>
       </c>
       <c r="E13">
-        <v>0.01278672095280963</v>
+        <v>0.01222263134661054</v>
       </c>
       <c r="F13">
-        <v>0.2310582909016477</v>
+        <v>0.2251537353322994</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -5074,83 +5104,83 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Circadian entrainment</t>
+          <t>Rap1 signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.05102040816326531</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="C14">
-        <v>0.01789543408269522</v>
+        <v>0.01635515934377104</v>
       </c>
       <c r="D14">
-        <v>1.747257762631184</v>
+        <v>1.786345220307977</v>
       </c>
       <c r="E14">
-        <v>0.01789543408269522</v>
+        <v>0.01635515934377104</v>
       </c>
       <c r="F14">
-        <v>0.2793283582608996</v>
+        <v>0.2632885994193534</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kcnj3/Gria4/Ryr1/Gnai1/Grin2b</t>
+          <t>Hgf/Angpt1/Igf1/Kdr/Gnai1/Evl/Grin2b/Rasgrp3</t>
         </is>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rap1 signaling pathway</t>
+          <t>Circadian entrainment - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.03738317757009346</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="C15">
-        <v>0.01803430662558235</v>
+        <v>0.01667494462989238</v>
       </c>
       <c r="D15">
-        <v>1.743900550571691</v>
+        <v>1.777935599508692</v>
       </c>
       <c r="E15">
-        <v>0.01803430662558235</v>
+        <v>0.01667494462989238</v>
       </c>
       <c r="F15">
-        <v>0.2793283582608996</v>
+        <v>0.2632885994193534</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hgf/Angpt1/Igf1/Kdr/Gnai1/Evl/Grin2b/Rasgrp3</t>
+          <t>Kcnj3/Gria4/Ryr1/Gnai1/Grin2b</t>
         </is>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melanogenesis</t>
+          <t>Melanogenesis - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B16">
         <v>0.05</v>
       </c>
       <c r="C16">
-        <v>0.01936259530232413</v>
+        <v>0.01804963339409183</v>
       </c>
       <c r="D16">
-        <v>1.713036431638335</v>
+        <v>1.743531614619257</v>
       </c>
       <c r="E16">
-        <v>0.01936259530232413</v>
+        <v>0.01804963339409183</v>
       </c>
       <c r="F16">
-        <v>0.2799083952476331</v>
+        <v>0.2659945973866165</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -5164,83 +5194,83 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PI3K-Akt signaling pathway</t>
+          <t>Nicotine addiction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.03064066852367688</v>
+        <v>0.075</v>
       </c>
       <c r="C17">
-        <v>0.02347690475401441</v>
+        <v>0.02259725408637398</v>
       </c>
       <c r="D17">
-        <v>1.629359161975619</v>
+        <v>1.645944331099869</v>
       </c>
       <c r="E17">
-        <v>0.02347690475401441</v>
+        <v>0.02259725408637398</v>
       </c>
       <c r="F17">
-        <v>0.3022250504862305</v>
+        <v>0.2970887131734577</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hgf/Angpt1/Col4a6/Igf1/Lamc3/Areg/Itga4/Kdr/Nos3/Col9a2/Lama4</t>
+          <t>Gria4/Grin2b/Gabra4</t>
         </is>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nicotine addiction</t>
+          <t>PI3K-Akt signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.075</v>
+        <v>0.03021978021978022</v>
       </c>
       <c r="C18">
-        <v>0.02369385711336224</v>
+        <v>0.02284753675119687</v>
       </c>
       <c r="D18">
-        <v>1.625364234900046</v>
+        <v>1.641160615420312</v>
       </c>
       <c r="E18">
-        <v>0.02369385711336224</v>
+        <v>0.02284753675119687</v>
       </c>
       <c r="F18">
-        <v>0.3022250504862305</v>
+        <v>0.2970887131734577</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gria4/Grin2b/Gabra4</t>
+          <t>Hgf/Angpt1/Col4a6/Igf1/Lamc3/Areg/Itga4/Kdr/Nos3/Col9a2/Lama4</t>
         </is>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Nitrogen metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B19">
         <v>0.1176470588235294</v>
       </c>
       <c r="C19">
-        <v>0.02784554734934699</v>
+        <v>0.02691699812285252</v>
       </c>
       <c r="D19">
-        <v>1.555244240928657</v>
+        <v>1.569973375776972</v>
       </c>
       <c r="E19">
-        <v>0.02784554734934699</v>
+        <v>0.02691699812285252</v>
       </c>
       <c r="F19">
-        <v>0.3354492838576305</v>
+        <v>0.3305596260701187</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -5254,23 +5284,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hippo signaling pathway</t>
+          <t>Hippo signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B20">
         <v>0.03821656050955414</v>
       </c>
       <c r="C20">
-        <v>0.03505941737231624</v>
+        <v>0.03250918768450452</v>
       </c>
       <c r="D20">
-        <v>1.455195305415371</v>
+        <v>1.487993882197038</v>
       </c>
       <c r="E20">
-        <v>0.03505941737231624</v>
+        <v>0.03250918768450452</v>
       </c>
       <c r="F20">
-        <v>0.4001240985427782</v>
+        <v>0.3782232362186121</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -5284,23 +5314,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cocaine addiction</t>
+          <t>Cocaine addiction - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B21">
         <v>0.0625</v>
       </c>
       <c r="C21">
-        <v>0.03795294917129483</v>
+        <v>0.03625266551012629</v>
       </c>
       <c r="D21">
-        <v>1.420754471176801</v>
+        <v>1.44066005602317</v>
       </c>
       <c r="E21">
-        <v>0.03795294917129483</v>
+        <v>0.03625266551012629</v>
       </c>
       <c r="F21">
-        <v>0.4114898699624598</v>
+        <v>0.400687355638238</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -5314,23 +5344,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cholesterol metabolism</t>
+          <t>Cholesterol metabolism - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B22">
         <v>0.06</v>
       </c>
       <c r="C22">
-        <v>0.04206781152804389</v>
+        <v>0.04019865650651015</v>
       </c>
       <c r="D22">
-        <v>1.376050080472095</v>
+        <v>1.395788461382177</v>
       </c>
       <c r="E22">
-        <v>0.04206781152804389</v>
+        <v>0.04019865650651015</v>
       </c>
       <c r="F22">
-        <v>0.4343844197883229</v>
+        <v>0.4231437527001068</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -5344,61 +5374,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wnt signaling pathway</t>
+          <t>Relaxin signaling pathway - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.03508771929824561</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="C23">
-        <v>0.04965701403235607</v>
+        <v>0.04675895899509955</v>
       </c>
       <c r="D23">
-        <v>1.304019398922801</v>
+        <v>1.330135166195324</v>
       </c>
       <c r="E23">
-        <v>0.04965701403235607</v>
+        <v>0.04675895899509955</v>
       </c>
       <c r="F23">
-        <v>0.4584935552703023</v>
+        <v>0.4333194011645975</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Wnt6/Sfrp2/Wnt11/Lef1/Apcdd1/Nkd1</t>
+          <t>Col4a6/Ednrb/Nos3/Gnai1/Mmp2</t>
         </is>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Relaxin signaling pathway</t>
+          <t>Hypertrophic cardiomyopathy - Mus musculus (house mouse)</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.03875968992248062</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="C24">
-        <v>0.04985961884058392</v>
+        <v>0.04973680269687579</v>
       </c>
       <c r="D24">
-        <v>1.302251045849571</v>
+        <v>1.3033221365517</v>
       </c>
       <c r="E24">
-        <v>0.04985961884058392</v>
+        <v>0.04973680269687579</v>
       </c>
       <c r="F24">
-        <v>0.4584935552703023</v>
+        <v>0.4333194011645975</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Col4a6/Ednrb/Nos3/Gnai1/Mmp2</t>
+          <t>Sgcd/Igf1/Itga4/Slc8a3</t>
         </is>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
